--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03B3E1-F5E7-42BB-8264-3735930A2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB42245-9FDC-46A4-B2CB-4DAFBAC5A9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -413,6 +413,10 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +460,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +521,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="76">
     <border>
@@ -1473,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1553,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1715,6 +1722,226 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,6 +1951,39 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1778,257 +2038,35 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2037,6 +2075,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2578,13 +2621,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN60"/>
+  <dimension ref="A1:BN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AD25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32:D33"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2601,95 +2644,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="98" t="s">
+      <c r="D1" s="177"/>
+      <c r="E1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="83">
+      <c r="G1" s="156">
         <v>45536</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="83">
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="157"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="156">
         <v>45566</v>
       </c>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="85"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="157"/>
+      <c r="AO1" s="157"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="157"/>
+      <c r="AT1" s="157"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
+      <c r="AY1" s="157"/>
+      <c r="AZ1" s="157"/>
+      <c r="BA1" s="157"/>
+      <c r="BB1" s="157"/>
+      <c r="BC1" s="157"/>
+      <c r="BD1" s="157"/>
+      <c r="BE1" s="157"/>
+      <c r="BF1" s="157"/>
+      <c r="BG1" s="157"/>
+      <c r="BH1" s="157"/>
+      <c r="BI1" s="157"/>
+      <c r="BJ1" s="157"/>
+      <c r="BK1" s="157"/>
+      <c r="BL1" s="157"/>
+      <c r="BM1" s="157"/>
+      <c r="BN1" s="158"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="42">
+      <c r="A2" s="171"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="41">
         <v>45537</v>
       </c>
       <c r="H2" s="4">
@@ -2804,11 +2847,11 @@
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
-      <c r="AJ2" s="43">
+      <c r="AJ2" s="42">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
-      <c r="AK2" s="42">
+      <c r="AK2" s="41">
         <f t="shared" si="0"/>
         <v>45567</v>
       </c>
@@ -2924,222 +2967,222 @@
         <f t="shared" si="0"/>
         <v>45595</v>
       </c>
-      <c r="BN2" s="43">
+      <c r="BN2" s="42">
         <f t="shared" si="0"/>
         <v>45596</v>
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="44" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="W3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="49" t="s">
+      <c r="Z3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="50" t="s">
+      <c r="AA3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AB3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="49" t="s">
+      <c r="AD3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="50" t="s">
+      <c r="AE3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="50" t="s">
+      <c r="AF3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="49" t="s">
+      <c r="AG3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="50" t="s">
+      <c r="AH3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="49" t="s">
+      <c r="AI3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="60" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="81" t="s">
+      <c r="AK3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="50" t="s">
+      <c r="AL3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="50" t="s">
+      <c r="AM3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="82" t="s">
+      <c r="AN3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="50" t="s">
+      <c r="AO3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="82" t="s">
+      <c r="AP3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AQ3" s="50" t="s">
+      <c r="AQ3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="82" t="s">
+      <c r="AR3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AS3" s="50" t="s">
+      <c r="AS3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AT3" s="50" t="s">
+      <c r="AT3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AU3" s="82" t="s">
+      <c r="AU3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="50" t="s">
+      <c r="AV3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AW3" s="82" t="s">
+      <c r="AW3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AX3" s="50" t="s">
+      <c r="AX3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="82" t="s">
+      <c r="AY3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AZ3" s="50" t="s">
+      <c r="AZ3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="BA3" s="50" t="s">
+      <c r="BA3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" s="82" t="s">
+      <c r="BB3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BC3" s="50" t="s">
+      <c r="BC3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="82" t="s">
+      <c r="BD3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="BE3" s="50" t="s">
+      <c r="BE3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="BF3" s="82" t="s">
+      <c r="BF3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="BG3" s="50" t="s">
+      <c r="BG3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="BH3" s="50" t="s">
+      <c r="BH3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BI3" s="82" t="s">
+      <c r="BI3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="50" t="s">
+      <c r="BJ3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="82" t="s">
+      <c r="BK3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="BL3" s="50" t="s">
+      <c r="BL3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="BM3" s="82" t="s">
+      <c r="BM3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="BN3" s="60" t="s">
+      <c r="BN3" s="59" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="181">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="198"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3161,8 +3204,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="71"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="70"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3191,20 +3234,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="61"/>
+      <c r="BN4" s="60"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3229,8 +3272,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="72"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="71"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3259,33 +3302,33 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="62"/>
+      <c r="BN5" s="61"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="180">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="108" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3303,8 +3346,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="73"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="72"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3333,27 +3376,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="63"/>
+      <c r="BN6" s="62"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3371,8 +3414,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="74"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="73"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3401,40 +3444,40 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="64"/>
+      <c r="BN7" s="63"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="180">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160" t="s">
+      <c r="D8" s="155"/>
+      <c r="E8" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="161"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="38"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="15"/>
@@ -3447,8 +3490,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="75"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="74"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3477,27 +3520,27 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="65"/>
+      <c r="BN8" s="64"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="180"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="13"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
@@ -3515,8 +3558,8 @@
       <c r="AG9" s="13"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="7"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="73"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="72"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="13"/>
@@ -3545,38 +3588,38 @@
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
-      <c r="BN9" s="63"/>
+      <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="180">
+      <c r="A10" s="105">
         <v>4</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="162" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="164" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="165"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
@@ -3589,8 +3632,8 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="7"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="73"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="72"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="13"/>
@@ -3619,27 +3662,27 @@
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
-      <c r="BN10" s="63"/>
+      <c r="BN10" s="62"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="13"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="13"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
@@ -3657,8 +3700,8 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="7"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="73"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="72"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="13"/>
@@ -3687,38 +3730,38 @@
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
-      <c r="BN11" s="63"/>
+      <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="180">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="162" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="165"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="29"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
@@ -3731,8 +3774,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="73"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="72"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3761,27 +3804,27 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="63"/>
+      <c r="BN12" s="62"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="17"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="17"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
@@ -3799,8 +3842,8 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="23"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="170"/>
-      <c r="AK13" s="171"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="87"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="17"/>
@@ -3829,54 +3872,54 @@
       <c r="BK13" s="8"/>
       <c r="BL13" s="8"/>
       <c r="BM13" s="8"/>
-      <c r="BN13" s="170"/>
+      <c r="BN13" s="86"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="180">
+      <c r="A14" s="105">
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="127" t="s">
+      <c r="D14" s="151"/>
+      <c r="E14" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="129"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="16"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="AC14" s="195"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="72"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="71"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="16"/>
@@ -3905,27 +3948,27 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
-      <c r="BN14" s="62"/>
+      <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="16"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="16"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -3943,8 +3986,8 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="72"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="71"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="16"/>
@@ -3973,52 +4016,52 @@
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
-      <c r="BN15" s="62"/>
+      <c r="BN15" s="61"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="180">
+      <c r="A16" s="105">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="104" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="133" t="s">
+      <c r="D16" s="102"/>
+      <c r="E16" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="29"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="73"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="72"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4047,27 +4090,27 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="63"/>
+      <c r="BN16" s="62"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="180"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4085,8 +4128,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="74"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="73"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4115,35 +4158,35 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="64"/>
+      <c r="BN17" s="63"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="180">
+      <c r="A18" s="105">
         <v>8</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137" t="s">
+      <c r="D18" s="108"/>
+      <c r="E18" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="15"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
       <c r="S18" s="15"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
@@ -4154,15 +4197,15 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="75"/>
+      <c r="AI18" s="193"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="74"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4191,27 +4234,27 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="6"/>
-      <c r="BN18" s="65"/>
+      <c r="BN18" s="64"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="180"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="25"/>
       <c r="M19" s="26"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
@@ -4229,8 +4272,8 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="74"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="73"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
@@ -4259,33 +4302,33 @@
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
       <c r="BM19" s="24"/>
-      <c r="BN19" s="64"/>
+      <c r="BN19" s="63"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="180">
+      <c r="A20" s="105">
         <v>9</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="102"/>
+      <c r="E20" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="134"/>
-      <c r="G20" s="46"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="13"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
       <c r="S20" s="13"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
@@ -4296,15 +4339,15 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="190"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="73"/>
+      <c r="AI20" s="192"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="72"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="13"/>
@@ -4333,27 +4376,27 @@
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
-      <c r="BN20" s="63"/>
+      <c r="BN20" s="62"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="180"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="25"/>
       <c r="M21" s="26"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="25"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
@@ -4371,8 +4414,8 @@
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="24"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="74"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="73"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="24"/>
       <c r="AN21" s="25"/>
@@ -4401,2444 +4444,2444 @@
       <c r="BK21" s="24"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
-      <c r="BN21" s="64"/>
+      <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="180">
+      <c r="A22" s="105">
         <v>10</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="104" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="138" t="s">
+      <c r="D22" s="102"/>
+      <c r="E22" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
+      <c r="AI22" s="197"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="54"/>
       <c r="AU22" s="25"/>
       <c r="AV22" s="26"/>
       <c r="AW22" s="26"/>
-      <c r="AX22" s="55"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="55"/>
+      <c r="AX22" s="54"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="54"/>
       <c r="BB22" s="25"/>
       <c r="BC22" s="26"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="55"/>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="55"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="54"/>
       <c r="BI22" s="25"/>
       <c r="BJ22" s="26"/>
-      <c r="BK22" s="55"/>
-      <c r="BL22" s="55"/>
-      <c r="BM22" s="55"/>
-      <c r="BN22" s="66"/>
+      <c r="BK22" s="54"/>
+      <c r="BL22" s="54"/>
+      <c r="BM22" s="54"/>
+      <c r="BN22" s="65"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="180"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="17"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="17"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
+      <c r="AC23" s="196"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="77"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="23"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
       <c r="AU23" s="17"/>
       <c r="AV23" s="23"/>
       <c r="AW23" s="23"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
       <c r="BB23" s="17"/>
       <c r="BC23" s="23"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="58"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
       <c r="BI23" s="17"/>
       <c r="BJ23" s="23"/>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58"/>
-      <c r="BN23" s="67"/>
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="57"/>
+      <c r="BM23" s="57"/>
+      <c r="BN23" s="66"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="180">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="37"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="15"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
       <c r="S24" s="15"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="56"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="56"/>
+      <c r="AP24" s="193"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
       <c r="AU24" s="15"/>
       <c r="AV24" s="21"/>
       <c r="AW24" s="21"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="56"/>
-      <c r="AZ24" s="56"/>
-      <c r="BA24" s="56"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
       <c r="BB24" s="15"/>
       <c r="BC24" s="21"/>
-      <c r="BD24" s="56"/>
-      <c r="BE24" s="56"/>
-      <c r="BF24" s="56"/>
-      <c r="BG24" s="56"/>
-      <c r="BH24" s="56"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="55"/>
+      <c r="BF24" s="55"/>
+      <c r="BG24" s="55"/>
+      <c r="BH24" s="55"/>
       <c r="BI24" s="15"/>
       <c r="BJ24" s="21"/>
-      <c r="BK24" s="56"/>
-      <c r="BL24" s="56"/>
-      <c r="BM24" s="56"/>
-      <c r="BN24" s="68"/>
+      <c r="BK24" s="55"/>
+      <c r="BL24" s="55"/>
+      <c r="BM24" s="55"/>
+      <c r="BN24" s="67"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="180"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="46"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="13"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
       <c r="S25" s="13"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="19"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="54"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
       <c r="AU25" s="13"/>
       <c r="AV25" s="19"/>
       <c r="AW25" s="19"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="54"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
       <c r="BB25" s="13"/>
       <c r="BC25" s="19"/>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="54"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
       <c r="BI25" s="13"/>
       <c r="BJ25" s="19"/>
-      <c r="BK25" s="54"/>
-      <c r="BL25" s="54"/>
-      <c r="BM25" s="54"/>
-      <c r="BN25" s="69"/>
+      <c r="BK25" s="53"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="68"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="180">
+      <c r="A26" s="105">
         <v>12</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="139" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="138" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="G26" s="46"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="13"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
       <c r="S26" s="13"/>
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="19"/>
       <c r="AB26" s="19"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
       <c r="AG26" s="13"/>
       <c r="AH26" s="19"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="183"/>
-      <c r="AK26" s="184"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="91"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
       <c r="AN26" s="13"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
+      <c r="AP26" s="192"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="19"/>
       <c r="AW26" s="19"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="53"/>
       <c r="BB26" s="13"/>
       <c r="BC26" s="19"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="54"/>
-      <c r="BF26" s="54"/>
-      <c r="BG26" s="54"/>
-      <c r="BH26" s="54"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="53"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="53"/>
+      <c r="BH26" s="53"/>
       <c r="BI26" s="13"/>
       <c r="BJ26" s="19"/>
-      <c r="BK26" s="54"/>
-      <c r="BL26" s="54"/>
-      <c r="BM26" s="54"/>
-      <c r="BN26" s="69"/>
+      <c r="BK26" s="53"/>
+      <c r="BL26" s="53"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="68"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="180"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="46"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="13"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="54"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
       <c r="AU27" s="13"/>
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="54"/>
-      <c r="BA27" s="54"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="53"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="19"/>
-      <c r="BD27" s="54"/>
-      <c r="BE27" s="54"/>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="54"/>
-      <c r="BH27" s="54"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="19"/>
-      <c r="BK27" s="54"/>
-      <c r="BL27" s="54"/>
-      <c r="BM27" s="54"/>
-      <c r="BN27" s="69"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="68"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="180">
+      <c r="A28" s="105">
         <v>13</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="139" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="133" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="134"/>
-      <c r="G28" s="47"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
       <c r="M28" s="26"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
       <c r="S28" s="25"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
       <c r="Z28" s="25"/>
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="26"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="185"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
       <c r="AN28" s="25"/>
       <c r="AO28" s="26"/>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="55"/>
+      <c r="AP28" s="197"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="54"/>
       <c r="AU28" s="25"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
-      <c r="AX28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BA28" s="55"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="54"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
-      <c r="BD28" s="55"/>
-      <c r="BE28" s="55"/>
-      <c r="BF28" s="55"/>
-      <c r="BG28" s="55"/>
-      <c r="BH28" s="55"/>
+      <c r="BD28" s="54"/>
+      <c r="BE28" s="54"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="54"/>
       <c r="BI28" s="25"/>
       <c r="BJ28" s="26"/>
-      <c r="BK28" s="55"/>
-      <c r="BL28" s="55"/>
-      <c r="BM28" s="55"/>
-      <c r="BN28" s="66"/>
+      <c r="BK28" s="54"/>
+      <c r="BL28" s="54"/>
+      <c r="BM28" s="54"/>
+      <c r="BN28" s="65"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="180"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="47"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="25"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
       <c r="Z29" s="25"/>
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
       <c r="AG29" s="25"/>
       <c r="AH29" s="26"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
       <c r="AN29" s="25"/>
       <c r="AO29" s="26"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="55"/>
-      <c r="AS29" s="55"/>
-      <c r="AT29" s="55"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
       <c r="AU29" s="25"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="26"/>
-      <c r="AX29" s="55"/>
-      <c r="AY29" s="55"/>
-      <c r="AZ29" s="55"/>
-      <c r="BA29" s="55"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
       <c r="BB29" s="25"/>
       <c r="BC29" s="26"/>
-      <c r="BD29" s="55"/>
-      <c r="BE29" s="55"/>
-      <c r="BF29" s="55"/>
-      <c r="BG29" s="55"/>
-      <c r="BH29" s="55"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
       <c r="BI29" s="25"/>
       <c r="BJ29" s="26"/>
-      <c r="BK29" s="55"/>
-      <c r="BL29" s="55"/>
-      <c r="BM29" s="55"/>
-      <c r="BN29" s="66"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="65"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="180">
+      <c r="A30" s="105">
         <v>14</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="139" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="164" t="s">
+      <c r="D30" s="102"/>
+      <c r="E30" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
       <c r="Z30" s="25"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
       <c r="AG30" s="25"/>
       <c r="AH30" s="26"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="186"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="94"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
       <c r="AN30" s="25"/>
       <c r="AO30" s="26"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="55"/>
+      <c r="AP30" s="197"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
       <c r="AU30" s="25"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="26"/>
-      <c r="AX30" s="55"/>
-      <c r="AY30" s="55"/>
-      <c r="AZ30" s="55"/>
-      <c r="BA30" s="55"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="55"/>
-      <c r="BE30" s="55"/>
-      <c r="BF30" s="55"/>
-      <c r="BG30" s="55"/>
-      <c r="BH30" s="55"/>
+      <c r="BD30" s="54"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="54"/>
       <c r="BI30" s="25"/>
       <c r="BJ30" s="26"/>
-      <c r="BK30" s="55"/>
-      <c r="BL30" s="55"/>
-      <c r="BM30" s="55"/>
-      <c r="BN30" s="66"/>
+      <c r="BK30" s="54"/>
+      <c r="BL30" s="54"/>
+      <c r="BM30" s="54"/>
+      <c r="BN30" s="65"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="180"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="47"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
       <c r="AG31" s="25"/>
       <c r="AH31" s="26"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="76"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
       <c r="AN31" s="25"/>
       <c r="AO31" s="26"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="55"/>
-      <c r="AS31" s="55"/>
-      <c r="AT31" s="55"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
       <c r="AU31" s="25"/>
       <c r="AV31" s="26"/>
       <c r="AW31" s="26"/>
-      <c r="AX31" s="55"/>
-      <c r="AY31" s="55"/>
-      <c r="AZ31" s="55"/>
-      <c r="BA31" s="55"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="54"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
-      <c r="BD31" s="55"/>
-      <c r="BE31" s="55"/>
-      <c r="BF31" s="55"/>
-      <c r="BG31" s="55"/>
-      <c r="BH31" s="55"/>
+      <c r="BD31" s="54"/>
+      <c r="BE31" s="54"/>
+      <c r="BF31" s="54"/>
+      <c r="BG31" s="54"/>
+      <c r="BH31" s="54"/>
       <c r="BI31" s="25"/>
       <c r="BJ31" s="26"/>
-      <c r="BK31" s="55"/>
-      <c r="BL31" s="55"/>
-      <c r="BM31" s="55"/>
-      <c r="BN31" s="66"/>
+      <c r="BK31" s="54"/>
+      <c r="BL31" s="54"/>
+      <c r="BM31" s="54"/>
+      <c r="BN31" s="65"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="180">
+      <c r="A32" s="105">
         <v>15</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="104" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="164" t="s">
+      <c r="D32" s="102"/>
+      <c r="E32" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="25"/>
       <c r="M32" s="26"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
       <c r="Z32" s="25"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
       <c r="AG32" s="25"/>
       <c r="AH32" s="26"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="186"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="55"/>
+      <c r="AI32" s="54"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="54"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="55"/>
-      <c r="AT32" s="55"/>
+      <c r="AP32" s="197"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="54"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="55"/>
-      <c r="AY32" s="55"/>
-      <c r="AZ32" s="55"/>
-      <c r="BA32" s="55"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="54"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="55"/>
-      <c r="BE32" s="55"/>
-      <c r="BF32" s="55"/>
-      <c r="BG32" s="55"/>
-      <c r="BH32" s="55"/>
+      <c r="BD32" s="54"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="54"/>
       <c r="BI32" s="25"/>
       <c r="BJ32" s="26"/>
-      <c r="BK32" s="55"/>
-      <c r="BL32" s="55"/>
-      <c r="BM32" s="55"/>
-      <c r="BN32" s="66"/>
+      <c r="BK32" s="54"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="65"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="180"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="47"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="25"/>
       <c r="M33" s="26"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
       <c r="Z33" s="25"/>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
       <c r="AG33" s="25"/>
       <c r="AH33" s="26"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
       <c r="AN33" s="25"/>
       <c r="AO33" s="26"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="55"/>
-      <c r="AS33" s="55"/>
-      <c r="AT33" s="55"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
       <c r="AU33" s="25"/>
       <c r="AV33" s="26"/>
       <c r="AW33" s="26"/>
-      <c r="AX33" s="55"/>
-      <c r="AY33" s="55"/>
-      <c r="AZ33" s="55"/>
-      <c r="BA33" s="55"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
       <c r="BB33" s="25"/>
       <c r="BC33" s="26"/>
-      <c r="BD33" s="55"/>
-      <c r="BE33" s="55"/>
-      <c r="BF33" s="55"/>
-      <c r="BG33" s="55"/>
-      <c r="BH33" s="55"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
       <c r="BI33" s="25"/>
       <c r="BJ33" s="26"/>
-      <c r="BK33" s="55"/>
-      <c r="BL33" s="55"/>
-      <c r="BM33" s="55"/>
-      <c r="BN33" s="66"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="65"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="180">
+      <c r="A34" s="105">
         <v>16</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="139" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="164" t="s">
+      <c r="D34" s="102"/>
+      <c r="E34" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="165"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="25"/>
       <c r="M34" s="26"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
       <c r="S34" s="25"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
       <c r="Z34" s="25"/>
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
       <c r="AG34" s="25"/>
       <c r="AH34" s="26"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="76"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="26"/>
-      <c r="AP34" s="55"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="55"/>
-      <c r="AS34" s="55"/>
-      <c r="AT34" s="55"/>
+      <c r="AP34" s="197"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="54"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
-      <c r="AX34" s="55"/>
-      <c r="AY34" s="55"/>
-      <c r="AZ34" s="55"/>
-      <c r="BA34" s="55"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
-      <c r="BD34" s="55"/>
-      <c r="BE34" s="55"/>
-      <c r="BF34" s="55"/>
-      <c r="BG34" s="55"/>
-      <c r="BH34" s="55"/>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="54"/>
+      <c r="BH34" s="54"/>
       <c r="BI34" s="25"/>
       <c r="BJ34" s="26"/>
-      <c r="BK34" s="55"/>
-      <c r="BL34" s="55"/>
-      <c r="BM34" s="55"/>
-      <c r="BN34" s="66"/>
+      <c r="BK34" s="54"/>
+      <c r="BL34" s="54"/>
+      <c r="BM34" s="54"/>
+      <c r="BN34" s="65"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="180"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="47"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="25"/>
       <c r="M35" s="26"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
       <c r="Z35" s="25"/>
       <c r="AA35" s="26"/>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
       <c r="AG35" s="25"/>
       <c r="AH35" s="26"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="76"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="26"/>
-      <c r="AP35" s="55"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="55"/>
-      <c r="AS35" s="55"/>
-      <c r="AT35" s="55"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="54"/>
       <c r="AU35" s="25"/>
       <c r="AV35" s="26"/>
       <c r="AW35" s="26"/>
-      <c r="AX35" s="55"/>
-      <c r="AY35" s="55"/>
-      <c r="AZ35" s="55"/>
-      <c r="BA35" s="55"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
       <c r="BB35" s="25"/>
       <c r="BC35" s="26"/>
-      <c r="BD35" s="55"/>
-      <c r="BE35" s="55"/>
-      <c r="BF35" s="55"/>
-      <c r="BG35" s="55"/>
-      <c r="BH35" s="55"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="54"/>
       <c r="BI35" s="25"/>
       <c r="BJ35" s="26"/>
-      <c r="BK35" s="55"/>
-      <c r="BL35" s="55"/>
-      <c r="BM35" s="55"/>
-      <c r="BN35" s="66"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="65"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="180">
+      <c r="A36" s="105">
         <v>17</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="172" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="164" t="s">
+      <c r="D36" s="112"/>
+      <c r="E36" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="47"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="25"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
       <c r="S36" s="25"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
       <c r="Z36" s="25"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
       <c r="AG36" s="25"/>
       <c r="AH36" s="26"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="41"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="40"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="26"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="55"/>
-      <c r="AS36" s="55"/>
-      <c r="AT36" s="55"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="54"/>
+      <c r="AT36" s="54"/>
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AX36" s="197"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
-      <c r="BD36" s="55"/>
-      <c r="BE36" s="55"/>
-      <c r="BF36" s="55"/>
-      <c r="BG36" s="55"/>
-      <c r="BH36" s="55"/>
+      <c r="BD36" s="54"/>
+      <c r="BE36" s="54"/>
+      <c r="BF36" s="54"/>
+      <c r="BG36" s="54"/>
+      <c r="BH36" s="54"/>
       <c r="BI36" s="25"/>
       <c r="BJ36" s="26"/>
-      <c r="BK36" s="55"/>
-      <c r="BL36" s="55"/>
-      <c r="BM36" s="55"/>
-      <c r="BN36" s="66"/>
+      <c r="BK36" s="54"/>
+      <c r="BL36" s="54"/>
+      <c r="BM36" s="54"/>
+      <c r="BN36" s="65"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="180"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="47"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="46"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="25"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
       <c r="Z37" s="25"/>
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
       <c r="AG37" s="25"/>
       <c r="AH37" s="26"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="76"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="187"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="75"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="95"/>
       <c r="AN37" s="25"/>
       <c r="AO37" s="26"/>
-      <c r="AP37" s="187"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="55"/>
-      <c r="AT37" s="55"/>
+      <c r="AP37" s="95"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="54"/>
       <c r="AU37" s="25"/>
       <c r="AV37" s="26"/>
       <c r="AW37" s="26"/>
-      <c r="AX37" s="55"/>
-      <c r="AY37" s="55"/>
-      <c r="AZ37" s="55"/>
-      <c r="BA37" s="55"/>
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="54"/>
       <c r="BB37" s="25"/>
       <c r="BC37" s="26"/>
-      <c r="BD37" s="55"/>
-      <c r="BE37" s="55"/>
-      <c r="BF37" s="55"/>
-      <c r="BG37" s="55"/>
-      <c r="BH37" s="55"/>
+      <c r="BD37" s="54"/>
+      <c r="BE37" s="54"/>
+      <c r="BF37" s="54"/>
+      <c r="BG37" s="54"/>
+      <c r="BH37" s="54"/>
       <c r="BI37" s="25"/>
       <c r="BJ37" s="26"/>
-      <c r="BK37" s="55"/>
-      <c r="BL37" s="55"/>
-      <c r="BM37" s="55"/>
-      <c r="BN37" s="66"/>
+      <c r="BK37" s="54"/>
+      <c r="BL37" s="54"/>
+      <c r="BM37" s="54"/>
+      <c r="BN37" s="65"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="180">
+      <c r="A38" s="105">
         <v>18</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="142" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="164" t="s">
+      <c r="D38" s="112"/>
+      <c r="E38" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="165"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="25"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
       <c r="S38" s="25"/>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
       <c r="Z38" s="25"/>
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
       <c r="AG38" s="25"/>
       <c r="AH38" s="26"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="76"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="75"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
       <c r="AN38" s="25"/>
       <c r="AO38" s="26"/>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="41"/>
-      <c r="AR38" s="41"/>
-      <c r="AS38" s="55"/>
-      <c r="AT38" s="55"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="54"/>
+      <c r="AT38" s="54"/>
       <c r="AU38" s="25"/>
       <c r="AV38" s="26"/>
       <c r="AW38" s="26"/>
-      <c r="AX38" s="55"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BA38" s="55"/>
+      <c r="AX38" s="197"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
       <c r="BB38" s="25"/>
       <c r="BC38" s="26"/>
-      <c r="BD38" s="55"/>
-      <c r="BE38" s="55"/>
-      <c r="BF38" s="55"/>
-      <c r="BG38" s="55"/>
-      <c r="BH38" s="55"/>
+      <c r="BD38" s="54"/>
+      <c r="BE38" s="54"/>
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="54"/>
+      <c r="BH38" s="54"/>
       <c r="BI38" s="25"/>
       <c r="BJ38" s="26"/>
-      <c r="BK38" s="55"/>
-      <c r="BL38" s="55"/>
-      <c r="BM38" s="55"/>
-      <c r="BN38" s="66"/>
+      <c r="BK38" s="54"/>
+      <c r="BL38" s="54"/>
+      <c r="BM38" s="54"/>
+      <c r="BN38" s="65"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="180"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="47"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="25"/>
       <c r="M39" s="26"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
       <c r="S39" s="25"/>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
       <c r="Z39" s="25"/>
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="55"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
       <c r="AG39" s="25"/>
       <c r="AH39" s="26"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="76"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
       <c r="AN39" s="25"/>
       <c r="AO39" s="26"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="55"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="54"/>
       <c r="AU39" s="25"/>
       <c r="AV39" s="26"/>
       <c r="AW39" s="26"/>
-      <c r="AX39" s="55"/>
-      <c r="AY39" s="55"/>
-      <c r="AZ39" s="55"/>
-      <c r="BA39" s="55"/>
+      <c r="AX39" s="54"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
       <c r="BB39" s="25"/>
       <c r="BC39" s="26"/>
-      <c r="BD39" s="55"/>
-      <c r="BE39" s="55"/>
-      <c r="BF39" s="55"/>
-      <c r="BG39" s="55"/>
-      <c r="BH39" s="55"/>
+      <c r="BD39" s="54"/>
+      <c r="BE39" s="54"/>
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="54"/>
+      <c r="BH39" s="54"/>
       <c r="BI39" s="25"/>
       <c r="BJ39" s="26"/>
-      <c r="BK39" s="55"/>
-      <c r="BL39" s="55"/>
-      <c r="BM39" s="55"/>
-      <c r="BN39" s="66"/>
+      <c r="BK39" s="54"/>
+      <c r="BL39" s="54"/>
+      <c r="BM39" s="54"/>
+      <c r="BN39" s="65"/>
     </row>
-    <row r="40" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="180">
+    <row r="40" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="105">
         <v>19</v>
       </c>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="136"/>
-      <c r="E40" s="160" t="s">
+      <c r="D40" s="108"/>
+      <c r="E40" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="37"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="15"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
       <c r="S40" s="15"/>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="21"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="68"/>
-      <c r="AK40" s="78"/>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="77"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
       <c r="AN40" s="15"/>
       <c r="AO40" s="21"/>
-      <c r="AP40" s="56"/>
-      <c r="AQ40" s="56"/>
-      <c r="AR40" s="56"/>
-      <c r="AS40" s="39"/>
-      <c r="AT40" s="56"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="55"/>
       <c r="AU40" s="15"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="21"/>
-      <c r="AX40" s="56"/>
-      <c r="AY40" s="56"/>
-      <c r="AZ40" s="56"/>
-      <c r="BA40" s="56"/>
+      <c r="AX40" s="193"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="55"/>
       <c r="BB40" s="15"/>
       <c r="BC40" s="21"/>
-      <c r="BD40" s="56"/>
-      <c r="BE40" s="56"/>
-      <c r="BF40" s="56"/>
-      <c r="BG40" s="56"/>
-      <c r="BH40" s="56"/>
+      <c r="BD40" s="55"/>
+      <c r="BE40" s="55"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="55"/>
       <c r="BI40" s="15"/>
       <c r="BJ40" s="21"/>
-      <c r="BK40" s="56"/>
-      <c r="BL40" s="56"/>
-      <c r="BM40" s="56"/>
-      <c r="BN40" s="68"/>
+      <c r="BK40" s="55"/>
+      <c r="BL40" s="55"/>
+      <c r="BM40" s="55"/>
+      <c r="BN40" s="67"/>
     </row>
-    <row r="41" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="180"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="46"/>
+    <row r="41" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="105"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="13"/>
       <c r="M41" s="19"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
       <c r="S41" s="13"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="19"/>
       <c r="AB41" s="19"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
       <c r="AG41" s="13"/>
       <c r="AH41" s="19"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="79"/>
-      <c r="AL41" s="54"/>
-      <c r="AM41" s="54"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="68"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
       <c r="AN41" s="13"/>
       <c r="AO41" s="19"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
-      <c r="AT41" s="54"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="53"/>
+      <c r="AS41" s="53"/>
+      <c r="AT41" s="53"/>
       <c r="AU41" s="13"/>
       <c r="AV41" s="19"/>
       <c r="AW41" s="19"/>
-      <c r="AX41" s="54"/>
-      <c r="AY41" s="54"/>
-      <c r="AZ41" s="54"/>
-      <c r="BA41" s="54"/>
+      <c r="AX41" s="53"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
       <c r="BB41" s="13"/>
       <c r="BC41" s="19"/>
-      <c r="BD41" s="54"/>
-      <c r="BE41" s="54"/>
-      <c r="BF41" s="54"/>
-      <c r="BG41" s="54"/>
-      <c r="BH41" s="54"/>
+      <c r="BD41" s="53"/>
+      <c r="BE41" s="53"/>
+      <c r="BF41" s="53"/>
+      <c r="BG41" s="53"/>
+      <c r="BH41" s="53"/>
       <c r="BI41" s="13"/>
       <c r="BJ41" s="19"/>
-      <c r="BK41" s="54"/>
-      <c r="BL41" s="54"/>
-      <c r="BM41" s="54"/>
-      <c r="BN41" s="69"/>
+      <c r="BK41" s="53"/>
+      <c r="BL41" s="53"/>
+      <c r="BM41" s="53"/>
+      <c r="BN41" s="68"/>
     </row>
-    <row r="42" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="180">
+    <row r="42" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="105">
         <v>20</v>
       </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="139" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="164" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="178"/>
-      <c r="G42" s="46"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="13"/>
       <c r="M42" s="19"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
       <c r="S42" s="13"/>
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="19"/>
       <c r="AB42" s="19"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
       <c r="AG42" s="13"/>
       <c r="AH42" s="19"/>
-      <c r="AI42" s="54"/>
-      <c r="AJ42" s="69"/>
-      <c r="AK42" s="79"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="78"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
       <c r="AN42" s="13"/>
       <c r="AO42" s="19"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="54"/>
-      <c r="AS42" s="30"/>
-      <c r="AT42" s="30"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="53"/>
+      <c r="AS42" s="29"/>
+      <c r="AT42" s="29"/>
       <c r="AU42" s="13"/>
       <c r="AV42" s="19"/>
       <c r="AW42" s="19"/>
-      <c r="AX42" s="54"/>
-      <c r="AY42" s="54"/>
-      <c r="AZ42" s="54"/>
-      <c r="BA42" s="54"/>
+      <c r="AX42" s="192"/>
+      <c r="AY42" s="53"/>
+      <c r="AZ42" s="53"/>
+      <c r="BA42" s="53"/>
       <c r="BB42" s="13"/>
       <c r="BC42" s="19"/>
-      <c r="BD42" s="54"/>
-      <c r="BE42" s="54"/>
-      <c r="BF42" s="54"/>
-      <c r="BG42" s="54"/>
-      <c r="BH42" s="54"/>
+      <c r="BD42" s="53"/>
+      <c r="BE42" s="53"/>
+      <c r="BF42" s="53"/>
+      <c r="BG42" s="53"/>
+      <c r="BH42" s="53"/>
       <c r="BI42" s="13"/>
       <c r="BJ42" s="19"/>
-      <c r="BK42" s="54"/>
-      <c r="BL42" s="54"/>
-      <c r="BM42" s="54"/>
-      <c r="BN42" s="69"/>
+      <c r="BK42" s="53"/>
+      <c r="BL42" s="53"/>
+      <c r="BM42" s="53"/>
+      <c r="BN42" s="68"/>
     </row>
-    <row r="43" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="180"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="46"/>
+    <row r="43" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="105"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="13"/>
       <c r="M43" s="19"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
       <c r="S43" s="13"/>
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="19"/>
       <c r="AB43" s="19"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
       <c r="AG43" s="13"/>
       <c r="AH43" s="19"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="69"/>
-      <c r="AK43" s="79"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
       <c r="AN43" s="13"/>
       <c r="AO43" s="19"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="53"/>
+      <c r="AT43" s="53"/>
       <c r="AU43" s="13"/>
       <c r="AV43" s="19"/>
       <c r="AW43" s="19"/>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
       <c r="BB43" s="13"/>
       <c r="BC43" s="19"/>
-      <c r="BD43" s="54"/>
-      <c r="BE43" s="54"/>
-      <c r="BF43" s="54"/>
-      <c r="BG43" s="54"/>
-      <c r="BH43" s="54"/>
+      <c r="BD43" s="53"/>
+      <c r="BE43" s="53"/>
+      <c r="BF43" s="53"/>
+      <c r="BG43" s="53"/>
+      <c r="BH43" s="53"/>
       <c r="BI43" s="13"/>
       <c r="BJ43" s="19"/>
-      <c r="BK43" s="54"/>
-      <c r="BL43" s="54"/>
-      <c r="BM43" s="54"/>
-      <c r="BN43" s="69"/>
+      <c r="BK43" s="53"/>
+      <c r="BL43" s="53"/>
+      <c r="BM43" s="53"/>
+      <c r="BN43" s="68"/>
     </row>
-    <row r="44" spans="1:66" s="175" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="180">
+    <row r="44" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
+      <c r="A44" s="105">
         <v>21</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="139" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="164" t="s">
+      <c r="D44" s="102"/>
+      <c r="E44" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="178"/>
-      <c r="G44" s="46"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="13"/>
       <c r="M44" s="19"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
       <c r="S44" s="13"/>
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
       <c r="AG44" s="13"/>
       <c r="AH44" s="19"/>
-      <c r="AI44" s="54"/>
-      <c r="AJ44" s="69"/>
-      <c r="AK44" s="79"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="53"/>
+      <c r="AM44" s="53"/>
       <c r="AN44" s="13"/>
       <c r="AO44" s="19"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
+      <c r="AP44" s="53"/>
+      <c r="AQ44" s="53"/>
+      <c r="AR44" s="53"/>
+      <c r="AS44" s="53"/>
+      <c r="AT44" s="53"/>
       <c r="AU44" s="13"/>
       <c r="AV44" s="19"/>
       <c r="AW44" s="19"/>
-      <c r="AX44" s="30"/>
-      <c r="AY44" s="30"/>
-      <c r="AZ44" s="30"/>
-      <c r="BA44" s="54"/>
+      <c r="AX44" s="29"/>
+      <c r="AY44" s="29"/>
+      <c r="AZ44" s="29"/>
+      <c r="BA44" s="53"/>
       <c r="BB44" s="13"/>
       <c r="BC44" s="19"/>
-      <c r="BD44" s="54"/>
-      <c r="BE44" s="54"/>
-      <c r="BF44" s="54"/>
-      <c r="BG44" s="54"/>
-      <c r="BH44" s="54"/>
+      <c r="BD44" s="192"/>
+      <c r="BE44" s="53"/>
+      <c r="BF44" s="53"/>
+      <c r="BG44" s="53"/>
+      <c r="BH44" s="53"/>
       <c r="BI44" s="13"/>
       <c r="BJ44" s="19"/>
-      <c r="BK44" s="54"/>
-      <c r="BL44" s="54"/>
-      <c r="BM44" s="54"/>
-      <c r="BN44" s="69"/>
+      <c r="BK44" s="53"/>
+      <c r="BL44" s="53"/>
+      <c r="BM44" s="53"/>
+      <c r="BN44" s="68"/>
     </row>
-    <row r="45" spans="1:66" s="175" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="180"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="46"/>
+    <row r="45" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
+      <c r="A45" s="105"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="13"/>
       <c r="M45" s="19"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
       <c r="S45" s="13"/>
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="19"/>
       <c r="AB45" s="19"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
       <c r="AG45" s="13"/>
       <c r="AH45" s="19"/>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="69"/>
-      <c r="AK45" s="79"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="19"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="54"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="53"/>
+      <c r="AS45" s="53"/>
+      <c r="AT45" s="53"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="19"/>
       <c r="AW45" s="19"/>
-      <c r="AX45" s="54"/>
-      <c r="AY45" s="54"/>
-      <c r="AZ45" s="54"/>
-      <c r="BA45" s="54"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
       <c r="BB45" s="13"/>
       <c r="BC45" s="19"/>
-      <c r="BD45" s="54"/>
-      <c r="BE45" s="54"/>
-      <c r="BF45" s="54"/>
-      <c r="BG45" s="54"/>
-      <c r="BH45" s="54"/>
+      <c r="BD45" s="53"/>
+      <c r="BE45" s="53"/>
+      <c r="BF45" s="53"/>
+      <c r="BG45" s="53"/>
+      <c r="BH45" s="53"/>
       <c r="BI45" s="13"/>
       <c r="BJ45" s="19"/>
-      <c r="BK45" s="54"/>
-      <c r="BL45" s="54"/>
-      <c r="BM45" s="54"/>
-      <c r="BN45" s="69"/>
+      <c r="BK45" s="53"/>
+      <c r="BL45" s="53"/>
+      <c r="BM45" s="53"/>
+      <c r="BN45" s="68"/>
     </row>
-    <row r="46" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="180">
+    <row r="46" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A46" s="105">
         <v>22</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="104" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="164" t="s">
+      <c r="D46" s="102"/>
+      <c r="E46" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="178"/>
-      <c r="G46" s="46"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="13"/>
       <c r="M46" s="19"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
       <c r="S46" s="13"/>
       <c r="T46" s="19"/>
       <c r="U46" s="19"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="19"/>
       <c r="AB46" s="19"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
       <c r="AG46" s="13"/>
       <c r="AH46" s="19"/>
-      <c r="AI46" s="54"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="68"/>
+      <c r="AK46" s="78"/>
+      <c r="AL46" s="53"/>
+      <c r="AM46" s="53"/>
       <c r="AN46" s="13"/>
       <c r="AO46" s="19"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="54"/>
+      <c r="AP46" s="53"/>
+      <c r="AQ46" s="53"/>
+      <c r="AR46" s="53"/>
+      <c r="AS46" s="53"/>
+      <c r="AT46" s="53"/>
       <c r="AU46" s="13"/>
       <c r="AV46" s="19"/>
       <c r="AW46" s="19"/>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="30"/>
-      <c r="BA46" s="30"/>
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="29"/>
+      <c r="BA46" s="29"/>
       <c r="BB46" s="13"/>
       <c r="BC46" s="19"/>
-      <c r="BD46" s="54"/>
-      <c r="BE46" s="54"/>
-      <c r="BF46" s="54"/>
-      <c r="BG46" s="54"/>
-      <c r="BH46" s="54"/>
+      <c r="BD46" s="192"/>
+      <c r="BE46" s="53"/>
+      <c r="BF46" s="53"/>
+      <c r="BG46" s="53"/>
+      <c r="BH46" s="53"/>
       <c r="BI46" s="13"/>
       <c r="BJ46" s="19"/>
-      <c r="BK46" s="54"/>
-      <c r="BL46" s="54"/>
-      <c r="BM46" s="54"/>
-      <c r="BN46" s="69"/>
+      <c r="BK46" s="53"/>
+      <c r="BL46" s="53"/>
+      <c r="BM46" s="53"/>
+      <c r="BN46" s="68"/>
     </row>
-    <row r="47" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="180"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="46"/>
+    <row r="47" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A47" s="105"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="13"/>
       <c r="M47" s="19"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
       <c r="S47" s="13"/>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="19"/>
       <c r="AB47" s="19"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
       <c r="AG47" s="13"/>
       <c r="AH47" s="19"/>
-      <c r="AI47" s="54"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="79"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="78"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
       <c r="AN47" s="13"/>
       <c r="AO47" s="19"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
-      <c r="AR47" s="54"/>
-      <c r="AS47" s="54"/>
-      <c r="AT47" s="54"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
       <c r="AU47" s="13"/>
       <c r="AV47" s="19"/>
       <c r="AW47" s="19"/>
-      <c r="AX47" s="54"/>
-      <c r="AY47" s="54"/>
-      <c r="AZ47" s="54"/>
-      <c r="BA47" s="54"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
+      <c r="AZ47" s="53"/>
+      <c r="BA47" s="53"/>
       <c r="BB47" s="13"/>
       <c r="BC47" s="19"/>
-      <c r="BD47" s="54"/>
-      <c r="BE47" s="54"/>
-      <c r="BF47" s="54"/>
-      <c r="BG47" s="54"/>
-      <c r="BH47" s="54"/>
+      <c r="BD47" s="53"/>
+      <c r="BE47" s="53"/>
+      <c r="BF47" s="53"/>
+      <c r="BG47" s="53"/>
+      <c r="BH47" s="53"/>
       <c r="BI47" s="13"/>
       <c r="BJ47" s="19"/>
-      <c r="BK47" s="54"/>
-      <c r="BL47" s="54"/>
-      <c r="BM47" s="54"/>
-      <c r="BN47" s="69"/>
+      <c r="BK47" s="53"/>
+      <c r="BL47" s="53"/>
+      <c r="BM47" s="53"/>
+      <c r="BN47" s="68"/>
     </row>
-    <row r="48" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="180">
+    <row r="48" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="105">
         <v>23</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="139" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="164" t="s">
+      <c r="D48" s="102"/>
+      <c r="E48" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="165"/>
-      <c r="G48" s="46"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="13"/>
       <c r="M48" s="19"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
       <c r="S48" s="13"/>
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="54"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
       <c r="AG48" s="13"/>
       <c r="AH48" s="19"/>
-      <c r="AI48" s="54"/>
-      <c r="AJ48" s="69"/>
-      <c r="AK48" s="79"/>
-      <c r="AL48" s="54"/>
-      <c r="AM48" s="54"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="68"/>
+      <c r="AK48" s="78"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="19"/>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54"/>
-      <c r="AR48" s="54"/>
-      <c r="AS48" s="54"/>
-      <c r="AT48" s="54"/>
+      <c r="AP48" s="53"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
       <c r="AU48" s="13"/>
       <c r="AV48" s="19"/>
       <c r="AW48" s="19"/>
-      <c r="AX48" s="54"/>
-      <c r="AY48" s="54"/>
-      <c r="AZ48" s="54"/>
-      <c r="BA48" s="30"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="53"/>
+      <c r="AZ48" s="53"/>
+      <c r="BA48" s="29"/>
       <c r="BB48" s="13"/>
       <c r="BC48" s="19"/>
-      <c r="BD48" s="30"/>
-      <c r="BE48" s="54"/>
-      <c r="BF48" s="54"/>
-      <c r="BG48" s="54"/>
-      <c r="BH48" s="54"/>
+      <c r="BD48" s="29"/>
+      <c r="BE48" s="53"/>
+      <c r="BF48" s="53"/>
+      <c r="BG48" s="53"/>
+      <c r="BH48" s="53"/>
       <c r="BI48" s="13"/>
       <c r="BJ48" s="19"/>
-      <c r="BK48" s="54"/>
-      <c r="BL48" s="54"/>
-      <c r="BM48" s="54"/>
-      <c r="BN48" s="69"/>
+      <c r="BK48" s="192"/>
+      <c r="BL48" s="53"/>
+      <c r="BM48" s="53"/>
+      <c r="BN48" s="68"/>
     </row>
-    <row r="49" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="180"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="46"/>
+    <row r="49" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="105"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="13"/>
       <c r="M49" s="19"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
       <c r="S49" s="13"/>
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="19"/>
       <c r="AB49" s="19"/>
-      <c r="AC49" s="54"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
-      <c r="AF49" s="54"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
       <c r="AG49" s="13"/>
       <c r="AH49" s="19"/>
-      <c r="AI49" s="54"/>
-      <c r="AJ49" s="69"/>
-      <c r="AK49" s="79"/>
-      <c r="AL49" s="54"/>
-      <c r="AM49" s="54"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="68"/>
+      <c r="AK49" s="78"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="53"/>
       <c r="AN49" s="13"/>
       <c r="AO49" s="19"/>
-      <c r="AP49" s="54"/>
-      <c r="AQ49" s="54"/>
-      <c r="AR49" s="54"/>
-      <c r="AS49" s="54"/>
-      <c r="AT49" s="54"/>
+      <c r="AP49" s="53"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="53"/>
+      <c r="AS49" s="53"/>
+      <c r="AT49" s="53"/>
       <c r="AU49" s="13"/>
       <c r="AV49" s="19"/>
       <c r="AW49" s="19"/>
-      <c r="AX49" s="54"/>
-      <c r="AY49" s="54"/>
-      <c r="AZ49" s="54"/>
-      <c r="BA49" s="54"/>
+      <c r="AX49" s="53"/>
+      <c r="AY49" s="53"/>
+      <c r="AZ49" s="53"/>
+      <c r="BA49" s="53"/>
       <c r="BB49" s="13"/>
       <c r="BC49" s="19"/>
-      <c r="BD49" s="54"/>
-      <c r="BE49" s="54"/>
-      <c r="BF49" s="54"/>
-      <c r="BG49" s="54"/>
-      <c r="BH49" s="54"/>
+      <c r="BD49" s="53"/>
+      <c r="BE49" s="53"/>
+      <c r="BF49" s="53"/>
+      <c r="BG49" s="53"/>
+      <c r="BH49" s="53"/>
       <c r="BI49" s="13"/>
       <c r="BJ49" s="19"/>
-      <c r="BK49" s="54"/>
-      <c r="BL49" s="54"/>
-      <c r="BM49" s="54"/>
-      <c r="BN49" s="69"/>
+      <c r="BK49" s="53"/>
+      <c r="BL49" s="53"/>
+      <c r="BM49" s="53"/>
+      <c r="BN49" s="68"/>
     </row>
-    <row r="50" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="180">
+    <row r="50" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="105">
         <v>24</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="172" t="s">
+      <c r="B50" s="34"/>
+      <c r="C50" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="164" t="s">
+      <c r="D50" s="112"/>
+      <c r="E50" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="178"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="13"/>
       <c r="M50" s="19"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
       <c r="S50" s="13"/>
       <c r="T50" s="19"/>
       <c r="U50" s="19"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="19"/>
       <c r="AB50" s="19"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="54"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
       <c r="AG50" s="13"/>
       <c r="AH50" s="19"/>
-      <c r="AI50" s="54"/>
-      <c r="AJ50" s="69"/>
-      <c r="AK50" s="79"/>
-      <c r="AL50" s="54"/>
-      <c r="AM50" s="54"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="68"/>
+      <c r="AK50" s="78"/>
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
       <c r="AN50" s="13"/>
       <c r="AO50" s="19"/>
-      <c r="AP50" s="54"/>
-      <c r="AQ50" s="54"/>
-      <c r="AR50" s="54"/>
-      <c r="AS50" s="54"/>
-      <c r="AT50" s="54"/>
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="53"/>
+      <c r="AS50" s="53"/>
+      <c r="AT50" s="53"/>
       <c r="AU50" s="13"/>
       <c r="AV50" s="19"/>
       <c r="AW50" s="19"/>
-      <c r="AX50" s="54"/>
-      <c r="AY50" s="54"/>
-      <c r="AZ50" s="54"/>
-      <c r="BA50" s="54"/>
+      <c r="AX50" s="53"/>
+      <c r="AY50" s="53"/>
+      <c r="AZ50" s="53"/>
+      <c r="BA50" s="53"/>
       <c r="BB50" s="13"/>
       <c r="BC50" s="19"/>
-      <c r="BD50" s="30"/>
-      <c r="BE50" s="30"/>
-      <c r="BF50" s="30"/>
-      <c r="BG50" s="54"/>
-      <c r="BH50" s="54"/>
+      <c r="BD50" s="29"/>
+      <c r="BE50" s="29"/>
+      <c r="BF50" s="29"/>
+      <c r="BG50" s="53"/>
+      <c r="BH50" s="53"/>
       <c r="BI50" s="13"/>
       <c r="BJ50" s="19"/>
-      <c r="BK50" s="54"/>
-      <c r="BL50" s="54"/>
-      <c r="BM50" s="54"/>
-      <c r="BN50" s="69"/>
+      <c r="BK50" s="192"/>
+      <c r="BL50" s="53"/>
+      <c r="BM50" s="53"/>
+      <c r="BN50" s="68"/>
     </row>
-    <row r="51" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="180"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="46"/>
+    <row r="51" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A51" s="105"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="13"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
       <c r="S51" s="13"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="19"/>
       <c r="AB51" s="19"/>
-      <c r="AC51" s="54"/>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
       <c r="AG51" s="13"/>
       <c r="AH51" s="19"/>
-      <c r="AI51" s="54"/>
-      <c r="AJ51" s="69"/>
-      <c r="AK51" s="79"/>
-      <c r="AL51" s="54"/>
-      <c r="AM51" s="54"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="68"/>
+      <c r="AK51" s="78"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
       <c r="AN51" s="13"/>
       <c r="AO51" s="19"/>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
-      <c r="AR51" s="54"/>
-      <c r="AS51" s="54"/>
-      <c r="AT51" s="54"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53"/>
+      <c r="AT51" s="53"/>
       <c r="AU51" s="13"/>
       <c r="AV51" s="19"/>
       <c r="AW51" s="19"/>
-      <c r="AX51" s="54"/>
-      <c r="AY51" s="54"/>
-      <c r="AZ51" s="54"/>
-      <c r="BA51" s="54"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="53"/>
+      <c r="BA51" s="53"/>
       <c r="BB51" s="13"/>
       <c r="BC51" s="19"/>
-      <c r="BD51" s="54"/>
-      <c r="BE51" s="54"/>
-      <c r="BF51" s="54"/>
-      <c r="BG51" s="54"/>
-      <c r="BH51" s="54"/>
+      <c r="BD51" s="53"/>
+      <c r="BE51" s="53"/>
+      <c r="BF51" s="53"/>
+      <c r="BG51" s="53"/>
+      <c r="BH51" s="53"/>
       <c r="BI51" s="13"/>
       <c r="BJ51" s="19"/>
-      <c r="BK51" s="54"/>
-      <c r="BL51" s="54"/>
-      <c r="BM51" s="54"/>
-      <c r="BN51" s="69"/>
+      <c r="BK51" s="53"/>
+      <c r="BL51" s="53"/>
+      <c r="BM51" s="53"/>
+      <c r="BN51" s="68"/>
     </row>
-    <row r="52" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="180">
+    <row r="52" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A52" s="105">
         <v>25</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="142" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="143"/>
-      <c r="E52" s="164" t="s">
+      <c r="D52" s="112"/>
+      <c r="E52" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="165"/>
-      <c r="G52" s="46"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="13"/>
       <c r="M52" s="19"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
       <c r="S52" s="13"/>
       <c r="T52" s="19"/>
       <c r="U52" s="19"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
+      <c r="AC52" s="53"/>
+      <c r="AD52" s="53"/>
+      <c r="AE52" s="53"/>
+      <c r="AF52" s="53"/>
       <c r="AG52" s="13"/>
       <c r="AH52" s="19"/>
-      <c r="AI52" s="54"/>
-      <c r="AJ52" s="69"/>
-      <c r="AK52" s="79"/>
-      <c r="AL52" s="54"/>
-      <c r="AM52" s="54"/>
+      <c r="AI52" s="53"/>
+      <c r="AJ52" s="68"/>
+      <c r="AK52" s="78"/>
+      <c r="AL52" s="53"/>
+      <c r="AM52" s="53"/>
       <c r="AN52" s="13"/>
       <c r="AO52" s="19"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
-      <c r="AR52" s="54"/>
-      <c r="AS52" s="54"/>
-      <c r="AT52" s="54"/>
+      <c r="AP52" s="53"/>
+      <c r="AQ52" s="53"/>
+      <c r="AR52" s="53"/>
+      <c r="AS52" s="53"/>
+      <c r="AT52" s="53"/>
       <c r="AU52" s="13"/>
       <c r="AV52" s="19"/>
       <c r="AW52" s="19"/>
-      <c r="AX52" s="54"/>
-      <c r="AY52" s="54"/>
-      <c r="AZ52" s="54"/>
-      <c r="BA52" s="54"/>
+      <c r="AX52" s="53"/>
+      <c r="AY52" s="53"/>
+      <c r="AZ52" s="53"/>
+      <c r="BA52" s="53"/>
       <c r="BB52" s="13"/>
       <c r="BC52" s="19"/>
-      <c r="BD52" s="54"/>
-      <c r="BE52" s="54"/>
-      <c r="BF52" s="30"/>
-      <c r="BG52" s="30"/>
-      <c r="BH52" s="30"/>
+      <c r="BD52" s="53"/>
+      <c r="BE52" s="53"/>
+      <c r="BF52" s="29"/>
+      <c r="BG52" s="29"/>
+      <c r="BH52" s="29"/>
       <c r="BI52" s="13"/>
       <c r="BJ52" s="19"/>
-      <c r="BK52" s="54"/>
-      <c r="BL52" s="54"/>
-      <c r="BM52" s="54"/>
-      <c r="BN52" s="69"/>
+      <c r="BK52" s="192"/>
+      <c r="BL52" s="53"/>
+      <c r="BM52" s="53"/>
+      <c r="BN52" s="68"/>
     </row>
-    <row r="53" spans="1:66" s="175" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="180"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="48"/>
+    <row r="53" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A53" s="105"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="47"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="17"/>
       <c r="M53" s="23"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
       <c r="S53" s="17"/>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
-      <c r="V53" s="58"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
-      <c r="Y53" s="58"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
       <c r="Z53" s="17"/>
       <c r="AA53" s="23"/>
       <c r="AB53" s="23"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="57"/>
       <c r="AG53" s="17"/>
       <c r="AH53" s="23"/>
-      <c r="AI53" s="58"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="77"/>
-      <c r="AL53" s="58"/>
-      <c r="AM53" s="58"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="66"/>
+      <c r="AK53" s="76"/>
+      <c r="AL53" s="57"/>
+      <c r="AM53" s="57"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="23"/>
-      <c r="AP53" s="58"/>
-      <c r="AQ53" s="58"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="58"/>
-      <c r="AT53" s="58"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="57"/>
+      <c r="AR53" s="57"/>
+      <c r="AS53" s="57"/>
+      <c r="AT53" s="57"/>
       <c r="AU53" s="17"/>
       <c r="AV53" s="23"/>
       <c r="AW53" s="23"/>
-      <c r="AX53" s="58"/>
-      <c r="AY53" s="58"/>
-      <c r="AZ53" s="58"/>
-      <c r="BA53" s="58"/>
+      <c r="AX53" s="57"/>
+      <c r="AY53" s="57"/>
+      <c r="AZ53" s="57"/>
+      <c r="BA53" s="57"/>
       <c r="BB53" s="17"/>
       <c r="BC53" s="23"/>
-      <c r="BD53" s="58"/>
-      <c r="BE53" s="58"/>
-      <c r="BF53" s="58"/>
-      <c r="BG53" s="58"/>
-      <c r="BH53" s="58"/>
+      <c r="BD53" s="57"/>
+      <c r="BE53" s="57"/>
+      <c r="BF53" s="57"/>
+      <c r="BG53" s="57"/>
+      <c r="BH53" s="57"/>
       <c r="BI53" s="17"/>
       <c r="BJ53" s="23"/>
-      <c r="BK53" s="58"/>
-      <c r="BL53" s="58"/>
-      <c r="BM53" s="58"/>
-      <c r="BN53" s="67"/>
+      <c r="BK53" s="57"/>
+      <c r="BL53" s="57"/>
+      <c r="BM53" s="57"/>
+      <c r="BN53" s="66"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="180">
+      <c r="A54" s="105">
         <v>26</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="144" t="s">
+      <c r="D54" s="128"/>
+      <c r="E54" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="146"/>
-      <c r="G54" s="45"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="16"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
       <c r="S54" s="16"/>
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
       <c r="Z54" s="16"/>
       <c r="AA54" s="22"/>
       <c r="AB54" s="22"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
-      <c r="AE54" s="53"/>
-      <c r="AF54" s="53"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="22"/>
-      <c r="AI54" s="53"/>
-      <c r="AJ54" s="173"/>
-      <c r="AK54" s="174"/>
-      <c r="AL54" s="53"/>
-      <c r="AM54" s="53"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="89"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="22"/>
-      <c r="AP54" s="53"/>
-      <c r="AQ54" s="53"/>
-      <c r="AR54" s="53"/>
-      <c r="AS54" s="53"/>
-      <c r="AT54" s="53"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="52"/>
+      <c r="AS54" s="52"/>
+      <c r="AT54" s="52"/>
       <c r="AU54" s="16"/>
       <c r="AV54" s="22"/>
       <c r="AW54" s="22"/>
-      <c r="AX54" s="53"/>
-      <c r="AY54" s="53"/>
-      <c r="AZ54" s="53"/>
-      <c r="BA54" s="53"/>
+      <c r="AX54" s="52"/>
+      <c r="AY54" s="52"/>
+      <c r="AZ54" s="52"/>
+      <c r="BA54" s="52"/>
       <c r="BB54" s="16"/>
       <c r="BC54" s="22"/>
-      <c r="BD54" s="53"/>
-      <c r="BE54" s="53"/>
-      <c r="BF54" s="53"/>
-      <c r="BG54" s="53"/>
-      <c r="BH54" s="53"/>
+      <c r="BD54" s="52"/>
+      <c r="BE54" s="52"/>
+      <c r="BF54" s="52"/>
+      <c r="BG54" s="52"/>
+      <c r="BH54" s="52"/>
       <c r="BI54" s="16"/>
       <c r="BJ54" s="22"/>
-      <c r="BK54" s="40"/>
-      <c r="BL54" s="40"/>
-      <c r="BM54" s="40"/>
-      <c r="BN54" s="173"/>
+      <c r="BK54" s="39"/>
+      <c r="BL54" s="39"/>
+      <c r="BM54" s="39"/>
+      <c r="BN54" s="88"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="180"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="46"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="13"/>
       <c r="M55" s="19"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
       <c r="S55" s="13"/>
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="53"/>
+      <c r="AE55" s="53"/>
+      <c r="AF55" s="53"/>
       <c r="AG55" s="13"/>
       <c r="AH55" s="19"/>
-      <c r="AI55" s="54"/>
-      <c r="AJ55" s="69"/>
-      <c r="AK55" s="79"/>
-      <c r="AL55" s="54"/>
-      <c r="AM55" s="54"/>
+      <c r="AI55" s="53"/>
+      <c r="AJ55" s="68"/>
+      <c r="AK55" s="78"/>
+      <c r="AL55" s="53"/>
+      <c r="AM55" s="53"/>
       <c r="AN55" s="13"/>
       <c r="AO55" s="19"/>
-      <c r="AP55" s="54"/>
-      <c r="AQ55" s="54"/>
-      <c r="AR55" s="54"/>
-      <c r="AS55" s="54"/>
-      <c r="AT55" s="54"/>
+      <c r="AP55" s="53"/>
+      <c r="AQ55" s="53"/>
+      <c r="AR55" s="53"/>
+      <c r="AS55" s="53"/>
+      <c r="AT55" s="53"/>
       <c r="AU55" s="13"/>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
-      <c r="AX55" s="54"/>
-      <c r="AY55" s="54"/>
-      <c r="AZ55" s="54"/>
-      <c r="BA55" s="54"/>
+      <c r="AX55" s="53"/>
+      <c r="AY55" s="53"/>
+      <c r="AZ55" s="53"/>
+      <c r="BA55" s="53"/>
       <c r="BB55" s="13"/>
       <c r="BC55" s="19"/>
-      <c r="BD55" s="54"/>
-      <c r="BE55" s="54"/>
-      <c r="BF55" s="54"/>
-      <c r="BG55" s="54"/>
-      <c r="BH55" s="54"/>
+      <c r="BD55" s="53"/>
+      <c r="BE55" s="53"/>
+      <c r="BF55" s="53"/>
+      <c r="BG55" s="53"/>
+      <c r="BH55" s="53"/>
       <c r="BI55" s="13"/>
       <c r="BJ55" s="19"/>
-      <c r="BK55" s="54"/>
-      <c r="BL55" s="54"/>
-      <c r="BM55" s="54"/>
-      <c r="BN55" s="69"/>
+      <c r="BK55" s="53"/>
+      <c r="BL55" s="53"/>
+      <c r="BM55" s="53"/>
+      <c r="BN55" s="68"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="180">
+      <c r="A56" s="105">
         <v>27</v>
       </c>
-      <c r="B56" s="148" t="s">
+      <c r="B56" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="136"/>
-      <c r="E56" s="148" t="s">
+      <c r="D56" s="108"/>
+      <c r="E56" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="152"/>
-      <c r="G56" s="37"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -6853,60 +6896,60 @@
       <c r="S56" s="15"/>
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="56"/>
-      <c r="AF56" s="56"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
       <c r="AG56" s="15"/>
       <c r="AH56" s="21"/>
-      <c r="AI56" s="56"/>
-      <c r="AJ56" s="68"/>
-      <c r="AK56" s="78"/>
-      <c r="AL56" s="56"/>
-      <c r="AM56" s="56"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
       <c r="AN56" s="15"/>
       <c r="AO56" s="21"/>
-      <c r="AP56" s="56"/>
-      <c r="AQ56" s="56"/>
-      <c r="AR56" s="56"/>
-      <c r="AS56" s="56"/>
-      <c r="AT56" s="56"/>
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55"/>
+      <c r="AT56" s="55"/>
       <c r="AU56" s="15"/>
       <c r="AV56" s="21"/>
       <c r="AW56" s="21"/>
-      <c r="AX56" s="56"/>
-      <c r="AY56" s="56"/>
-      <c r="AZ56" s="56"/>
-      <c r="BA56" s="56"/>
+      <c r="AX56" s="55"/>
+      <c r="AY56" s="55"/>
+      <c r="AZ56" s="55"/>
+      <c r="BA56" s="55"/>
       <c r="BB56" s="15"/>
       <c r="BC56" s="21"/>
-      <c r="BD56" s="56"/>
-      <c r="BE56" s="56"/>
-      <c r="BF56" s="56"/>
-      <c r="BG56" s="56"/>
-      <c r="BH56" s="56"/>
+      <c r="BD56" s="55"/>
+      <c r="BE56" s="55"/>
+      <c r="BF56" s="55"/>
+      <c r="BG56" s="55"/>
+      <c r="BH56" s="55"/>
       <c r="BI56" s="15"/>
       <c r="BJ56" s="21"/>
-      <c r="BK56" s="56"/>
-      <c r="BL56" s="56"/>
-      <c r="BM56" s="39"/>
-      <c r="BN56" s="188"/>
+      <c r="BK56" s="55"/>
+      <c r="BL56" s="55"/>
+      <c r="BM56" s="38"/>
+      <c r="BN56" s="96"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="182"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="38"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="37"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -6921,51 +6964,51 @@
       <c r="S57" s="14"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
+      <c r="V57" s="58"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="58"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="59"/>
-      <c r="AD57" s="59"/>
-      <c r="AE57" s="59"/>
-      <c r="AF57" s="59"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
       <c r="AG57" s="14"/>
       <c r="AH57" s="20"/>
-      <c r="AI57" s="59"/>
-      <c r="AJ57" s="70"/>
-      <c r="AK57" s="80"/>
-      <c r="AL57" s="59"/>
-      <c r="AM57" s="59"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="79"/>
+      <c r="AL57" s="58"/>
+      <c r="AM57" s="58"/>
       <c r="AN57" s="14"/>
       <c r="AO57" s="20"/>
-      <c r="AP57" s="59"/>
-      <c r="AQ57" s="59"/>
-      <c r="AR57" s="59"/>
-      <c r="AS57" s="59"/>
-      <c r="AT57" s="59"/>
+      <c r="AP57" s="58"/>
+      <c r="AQ57" s="58"/>
+      <c r="AR57" s="58"/>
+      <c r="AS57" s="58"/>
+      <c r="AT57" s="58"/>
       <c r="AU57" s="14"/>
       <c r="AV57" s="20"/>
       <c r="AW57" s="20"/>
-      <c r="AX57" s="59"/>
-      <c r="AY57" s="59"/>
-      <c r="AZ57" s="59"/>
-      <c r="BA57" s="59"/>
+      <c r="AX57" s="58"/>
+      <c r="AY57" s="58"/>
+      <c r="AZ57" s="58"/>
+      <c r="BA57" s="58"/>
       <c r="BB57" s="14"/>
       <c r="BC57" s="20"/>
-      <c r="BD57" s="59"/>
-      <c r="BE57" s="59"/>
-      <c r="BF57" s="59"/>
-      <c r="BG57" s="59"/>
-      <c r="BH57" s="59"/>
+      <c r="BD57" s="58"/>
+      <c r="BE57" s="58"/>
+      <c r="BF57" s="58"/>
+      <c r="BG57" s="58"/>
+      <c r="BH57" s="58"/>
       <c r="BI57" s="14"/>
       <c r="BJ57" s="20"/>
-      <c r="BK57" s="59"/>
-      <c r="BL57" s="59"/>
-      <c r="BM57" s="59"/>
-      <c r="BN57" s="70"/>
+      <c r="BK57" s="58"/>
+      <c r="BL57" s="58"/>
+      <c r="BM57" s="58"/>
+      <c r="BN57" s="69"/>
     </row>
     <row r="58" spans="1:66" ht="9.6" customHeight="1">
       <c r="Z58" s="5"/>
@@ -6983,30 +7026,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="61" spans="1:66">
+      <c r="A61" s="191"/>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
@@ -7031,78 +7130,28 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB42245-9FDC-46A4-B2CB-4DAFBAC5A9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0967299-F0EE-4DC3-A4CC-9D33E7BA30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,309 +1765,309 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2627,7 +2627,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2644,94 +2644,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="177"/>
-      <c r="E1" s="182" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="F1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="156">
+      <c r="G1" s="117">
         <v>45536</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="158"/>
-      <c r="AK1" s="156">
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="117">
         <v>45566</v>
       </c>
-      <c r="AL1" s="157"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="157"/>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="157"/>
-      <c r="AT1" s="157"/>
-      <c r="AU1" s="157"/>
-      <c r="AV1" s="157"/>
-      <c r="AW1" s="157"/>
-      <c r="AX1" s="157"/>
-      <c r="AY1" s="157"/>
-      <c r="AZ1" s="157"/>
-      <c r="BA1" s="157"/>
-      <c r="BB1" s="157"/>
-      <c r="BC1" s="157"/>
-      <c r="BD1" s="157"/>
-      <c r="BE1" s="157"/>
-      <c r="BF1" s="157"/>
-      <c r="BG1" s="157"/>
-      <c r="BH1" s="157"/>
-      <c r="BI1" s="157"/>
-      <c r="BJ1" s="157"/>
-      <c r="BK1" s="157"/>
-      <c r="BL1" s="157"/>
-      <c r="BM1" s="157"/>
-      <c r="BN1" s="158"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="118"/>
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="118"/>
+      <c r="BA1" s="118"/>
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="118"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="119"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="186"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="41">
         <v>45537</v>
       </c>
@@ -2973,12 +2973,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="172"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="187"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="43" t="s">
         <v>14</v>
       </c>
@@ -3161,28 +3161,28 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="159">
+      <c r="A4" s="120">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="82"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="198"/>
+      <c r="N4" s="107"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3237,12 +3237,12 @@
       <c r="BN4" s="60"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="165"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="83"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
@@ -3305,18 +3305,18 @@
       <c r="BN5" s="61"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="105">
+      <c r="A6" s="108">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="166" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="168"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="84"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3324,7 +3324,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="192"/>
+      <c r="N6" s="101"/>
       <c r="O6" s="29"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
@@ -3379,15 +3379,15 @@
       <c r="BN6" s="62"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="105"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="169"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="85"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
       <c r="L7" s="25"/>
@@ -3447,20 +3447,20 @@
       <c r="BN7" s="63"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="105">
+      <c r="A8" s="108">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="109" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="36"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
@@ -3470,13 +3470,13 @@
       <c r="M8" s="21"/>
       <c r="N8" s="51"/>
       <c r="O8" s="38"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="189"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="193"/>
+      <c r="V8" s="102"/>
       <c r="W8" s="38"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -3523,12 +3523,12 @@
       <c r="BN8" s="64"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="105"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="99"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="45"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
@@ -3591,18 +3591,18 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="105">
+      <c r="A10" s="108">
         <v>4</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="100" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="45"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
@@ -3610,15 +3610,15 @@
       <c r="K10" s="53"/>
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="190"/>
+      <c r="N10" s="99"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="192"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="29"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -3665,12 +3665,12 @@
       <c r="BN10" s="62"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="105"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="99"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="45"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
@@ -3733,18 +3733,18 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="105">
+      <c r="A12" s="108">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="100" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="99"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="45"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
@@ -3752,15 +3752,15 @@
       <c r="K12" s="53"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="192"/>
+      <c r="V12" s="101"/>
       <c r="W12" s="29"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -3807,12 +3807,12 @@
       <c r="BN12" s="62"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="105"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
       <c r="G13" s="47"/>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
@@ -3875,20 +3875,20 @@
       <c r="BN13" s="86"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="105">
+      <c r="A14" s="108">
         <v>6</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="144" t="s">
+      <c r="D14" s="172"/>
+      <c r="E14" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="145"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="44"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -3904,14 +3904,14 @@
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="194"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="195"/>
+      <c r="AC14" s="104"/>
       <c r="AD14" s="39"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
@@ -3951,12 +3951,12 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="105"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="124"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="166"/>
       <c r="G15" s="44"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -4019,18 +4019,18 @@
       <c r="BN15" s="61"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="105">
+      <c r="A16" s="108">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="130"/>
+      <c r="E16" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="159"/>
       <c r="G16" s="45"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
@@ -4046,14 +4046,14 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="190"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="192"/>
+      <c r="AC16" s="101"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
@@ -4093,12 +4093,12 @@
       <c r="BN16" s="62"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="105"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="145"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="46"/>
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
@@ -4161,20 +4161,20 @@
       <c r="BN17" s="63"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="105">
+      <c r="A18" s="108">
         <v>8</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="135" t="s">
+      <c r="D18" s="162"/>
+      <c r="E18" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="136"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="36"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -4197,13 +4197,13 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="189"/>
+      <c r="AC18" s="98"/>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="193"/>
+      <c r="AI18" s="102"/>
       <c r="AJ18" s="96"/>
       <c r="AK18" s="74"/>
       <c r="AL18" s="6"/>
@@ -4237,12 +4237,12 @@
       <c r="BN18" s="64"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="105"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="124"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="166"/>
       <c r="G19" s="46"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
@@ -4305,18 +4305,18 @@
       <c r="BN19" s="63"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="105">
+      <c r="A20" s="108">
         <v>9</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="139" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="123"/>
+      <c r="F20" s="159"/>
       <c r="G20" s="45"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4339,13 +4339,13 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="192"/>
+      <c r="AI20" s="101"/>
       <c r="AJ20" s="91"/>
       <c r="AK20" s="72"/>
       <c r="AL20" s="7"/>
@@ -4379,12 +4379,12 @@
       <c r="BN20" s="62"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="105"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="124"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="166"/>
       <c r="G21" s="46"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4447,18 +4447,18 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="105">
+      <c r="A22" s="108">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="139" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="123"/>
+      <c r="F22" s="159"/>
       <c r="G22" s="46"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4487,7 +4487,7 @@
       <c r="AF22" s="40"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="197"/>
+      <c r="AI22" s="106"/>
       <c r="AJ22" s="93"/>
       <c r="AK22" s="75"/>
       <c r="AL22" s="54"/>
@@ -4521,12 +4521,12 @@
       <c r="BN22" s="65"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="105"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178"/>
       <c r="G23" s="47"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4549,7 +4549,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="196"/>
+      <c r="AC23" s="105"/>
       <c r="AD23" s="57"/>
       <c r="AE23" s="57"/>
       <c r="AF23" s="57"/>
@@ -4589,20 +4589,20 @@
       <c r="BN23" s="66"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="105">
+      <c r="A24" s="108">
         <v>11</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="135" t="s">
+      <c r="D24" s="162"/>
+      <c r="E24" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="136"/>
+      <c r="F24" s="165"/>
       <c r="G24" s="36"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4638,7 +4638,7 @@
       <c r="AM24" s="55"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="193"/>
+      <c r="AP24" s="102"/>
       <c r="AQ24" s="55"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -4665,12 +4665,12 @@
       <c r="BN24" s="67"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="105"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="124"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="166"/>
       <c r="G25" s="45"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4733,18 +4733,18 @@
       <c r="BN25" s="68"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="105">
+      <c r="A26" s="108">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="130"/>
+      <c r="E26" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="123"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="45"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4780,7 +4780,7 @@
       <c r="AM26" s="29"/>
       <c r="AN26" s="13"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="192"/>
+      <c r="AP26" s="101"/>
       <c r="AQ26" s="53"/>
       <c r="AR26" s="53"/>
       <c r="AS26" s="53"/>
@@ -4807,12 +4807,12 @@
       <c r="BN26" s="68"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="105"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="124"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="45"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4875,18 +4875,18 @@
       <c r="BN27" s="68"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="105">
+      <c r="A28" s="108">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="125" t="s">
+      <c r="D28" s="130"/>
+      <c r="E28" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="123"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="46"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4922,7 +4922,7 @@
       <c r="AM28" s="54"/>
       <c r="AN28" s="25"/>
       <c r="AO28" s="26"/>
-      <c r="AP28" s="197"/>
+      <c r="AP28" s="106"/>
       <c r="AQ28" s="54"/>
       <c r="AR28" s="54"/>
       <c r="AS28" s="54"/>
@@ -4949,12 +4949,12 @@
       <c r="BN28" s="65"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="105"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="124"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="46"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5017,18 +5017,18 @@
       <c r="BN29" s="65"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="105">
+      <c r="A30" s="108">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="100" t="s">
+      <c r="D30" s="130"/>
+      <c r="E30" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="46"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5064,7 +5064,7 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="25"/>
       <c r="AO30" s="26"/>
-      <c r="AP30" s="197"/>
+      <c r="AP30" s="106"/>
       <c r="AQ30" s="54"/>
       <c r="AR30" s="54"/>
       <c r="AS30" s="54"/>
@@ -5091,12 +5091,12 @@
       <c r="BN30" s="65"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="105"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="99"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="46"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5159,18 +5159,18 @@
       <c r="BN31" s="65"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="105">
+      <c r="A32" s="108">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="100" t="s">
+      <c r="D32" s="130"/>
+      <c r="E32" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="99"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="46"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5206,7 +5206,7 @@
       <c r="AM32" s="54"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
-      <c r="AP32" s="197"/>
+      <c r="AP32" s="106"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="54"/>
       <c r="AS32" s="54"/>
@@ -5233,12 +5233,12 @@
       <c r="BN32" s="65"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="105"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="99"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="46"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5301,18 +5301,18 @@
       <c r="BN33" s="65"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="105">
+      <c r="A34" s="108">
         <v>16</v>
       </c>
       <c r="B34" s="34"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="100" t="s">
+      <c r="D34" s="130"/>
+      <c r="E34" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="99"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="46"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5348,7 +5348,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="26"/>
-      <c r="AP34" s="197"/>
+      <c r="AP34" s="106"/>
       <c r="AQ34" s="54"/>
       <c r="AR34" s="54"/>
       <c r="AS34" s="54"/>
@@ -5375,12 +5375,12 @@
       <c r="BN34" s="65"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="105"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="99"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="116"/>
       <c r="G35" s="46"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5443,18 +5443,18 @@
       <c r="BN35" s="65"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="105">
+      <c r="A36" s="108">
         <v>17</v>
       </c>
       <c r="B36" s="34"/>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="100" t="s">
+      <c r="D36" s="180"/>
+      <c r="E36" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="99"/>
+      <c r="F36" s="116"/>
       <c r="G36" s="46"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5498,7 +5498,7 @@
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
-      <c r="AX36" s="197"/>
+      <c r="AX36" s="106"/>
       <c r="AY36" s="54"/>
       <c r="AZ36" s="54"/>
       <c r="BA36" s="54"/>
@@ -5517,12 +5517,12 @@
       <c r="BN36" s="65"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="105"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="99"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="116"/>
       <c r="G37" s="46"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5585,18 +5585,18 @@
       <c r="BN37" s="65"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="105">
+      <c r="A38" s="108">
         <v>18</v>
       </c>
       <c r="B38" s="34"/>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="100" t="s">
+      <c r="D38" s="180"/>
+      <c r="E38" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="99"/>
+      <c r="F38" s="116"/>
       <c r="G38" s="46"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5640,7 +5640,7 @@
       <c r="AU38" s="25"/>
       <c r="AV38" s="26"/>
       <c r="AW38" s="26"/>
-      <c r="AX38" s="197"/>
+      <c r="AX38" s="106"/>
       <c r="AY38" s="54"/>
       <c r="AZ38" s="54"/>
       <c r="BA38" s="54"/>
@@ -5659,12 +5659,12 @@
       <c r="BN38" s="65"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="105"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="170"/>
       <c r="G39" s="46"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5727,20 +5727,20 @@
       <c r="BN39" s="65"/>
     </row>
     <row r="40" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="105">
+      <c r="A40" s="108">
         <v>19</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="109" t="s">
+      <c r="D40" s="162"/>
+      <c r="E40" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="110"/>
+      <c r="F40" s="115"/>
       <c r="G40" s="36"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5784,7 +5784,7 @@
       <c r="AU40" s="15"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="21"/>
-      <c r="AX40" s="193"/>
+      <c r="AX40" s="102"/>
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
       <c r="BA40" s="55"/>
@@ -5803,12 +5803,12 @@
       <c r="BN40" s="67"/>
     </row>
     <row r="41" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="99"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="116"/>
       <c r="G41" s="45"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5871,18 +5871,18 @@
       <c r="BN41" s="68"/>
     </row>
     <row r="42" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="105">
+      <c r="A42" s="108">
         <v>20</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="101" t="s">
+      <c r="B42" s="197"/>
+      <c r="C42" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="100" t="s">
+      <c r="D42" s="130"/>
+      <c r="E42" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="106"/>
+      <c r="F42" s="189"/>
       <c r="G42" s="45"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5926,7 +5926,7 @@
       <c r="AU42" s="13"/>
       <c r="AV42" s="19"/>
       <c r="AW42" s="19"/>
-      <c r="AX42" s="192"/>
+      <c r="AX42" s="101"/>
       <c r="AY42" s="53"/>
       <c r="AZ42" s="53"/>
       <c r="BA42" s="53"/>
@@ -5945,12 +5945,12 @@
       <c r="BN42" s="68"/>
     </row>
     <row r="43" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="105"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="106"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="45"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6013,18 +6013,18 @@
       <c r="BN43" s="68"/>
     </row>
     <row r="44" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="105">
+      <c r="A44" s="108">
         <v>21</v>
       </c>
       <c r="B44" s="34"/>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="100" t="s">
+      <c r="D44" s="130"/>
+      <c r="E44" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="106"/>
+      <c r="F44" s="189"/>
       <c r="G44" s="45"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6074,7 +6074,7 @@
       <c r="BA44" s="53"/>
       <c r="BB44" s="13"/>
       <c r="BC44" s="19"/>
-      <c r="BD44" s="192"/>
+      <c r="BD44" s="101"/>
       <c r="BE44" s="53"/>
       <c r="BF44" s="53"/>
       <c r="BG44" s="53"/>
@@ -6087,12 +6087,12 @@
       <c r="BN44" s="68"/>
     </row>
     <row r="45" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="105"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="106"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="189"/>
       <c r="G45" s="45"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6155,18 +6155,18 @@
       <c r="BN45" s="68"/>
     </row>
     <row r="46" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="105">
+      <c r="A46" s="108">
         <v>22</v>
       </c>
       <c r="B46" s="34"/>
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="100" t="s">
+      <c r="D46" s="130"/>
+      <c r="E46" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="106"/>
+      <c r="F46" s="189"/>
       <c r="G46" s="45"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6216,7 +6216,7 @@
       <c r="BA46" s="29"/>
       <c r="BB46" s="13"/>
       <c r="BC46" s="19"/>
-      <c r="BD46" s="192"/>
+      <c r="BD46" s="101"/>
       <c r="BE46" s="53"/>
       <c r="BF46" s="53"/>
       <c r="BG46" s="53"/>
@@ -6229,12 +6229,12 @@
       <c r="BN46" s="68"/>
     </row>
     <row r="47" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="105"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="106"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="189"/>
       <c r="G47" s="45"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6297,18 +6297,18 @@
       <c r="BN47" s="68"/>
     </row>
     <row r="48" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="105">
+      <c r="A48" s="108">
         <v>23</v>
       </c>
       <c r="B48" s="34"/>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="100" t="s">
+      <c r="D48" s="130"/>
+      <c r="E48" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="99"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="45"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6365,18 +6365,18 @@
       <c r="BH48" s="53"/>
       <c r="BI48" s="13"/>
       <c r="BJ48" s="19"/>
-      <c r="BK48" s="192"/>
+      <c r="BK48" s="101"/>
       <c r="BL48" s="53"/>
       <c r="BM48" s="53"/>
       <c r="BN48" s="68"/>
     </row>
     <row r="49" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="105"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="99"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="116"/>
       <c r="G49" s="45"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6439,18 +6439,18 @@
       <c r="BN49" s="68"/>
     </row>
     <row r="50" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="105">
+      <c r="A50" s="108">
         <v>24</v>
       </c>
       <c r="B50" s="34"/>
-      <c r="C50" s="111" t="s">
+      <c r="C50" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="100" t="s">
+      <c r="D50" s="180"/>
+      <c r="E50" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="106"/>
+      <c r="F50" s="189"/>
       <c r="G50" s="45"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6507,18 +6507,18 @@
       <c r="BH50" s="53"/>
       <c r="BI50" s="13"/>
       <c r="BJ50" s="19"/>
-      <c r="BK50" s="192"/>
+      <c r="BK50" s="101"/>
       <c r="BL50" s="53"/>
       <c r="BM50" s="53"/>
       <c r="BN50" s="68"/>
     </row>
     <row r="51" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="105"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="106"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="189"/>
       <c r="G51" s="45"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6581,18 +6581,18 @@
       <c r="BN51" s="68"/>
     </row>
     <row r="52" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="105">
+      <c r="A52" s="108">
         <v>25</v>
       </c>
       <c r="B52" s="34"/>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="112"/>
-      <c r="E52" s="100" t="s">
+      <c r="D52" s="180"/>
+      <c r="E52" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="99"/>
+      <c r="F52" s="116"/>
       <c r="G52" s="45"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6649,18 +6649,18 @@
       <c r="BH52" s="29"/>
       <c r="BI52" s="13"/>
       <c r="BJ52" s="19"/>
-      <c r="BK52" s="192"/>
+      <c r="BK52" s="101"/>
       <c r="BL52" s="53"/>
       <c r="BM52" s="53"/>
       <c r="BN52" s="68"/>
     </row>
     <row r="53" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="105"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="134"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="170"/>
       <c r="G53" s="47"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6723,20 +6723,20 @@
       <c r="BN53" s="66"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="105">
+      <c r="A54" s="108">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="127" t="s">
+      <c r="C54" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="128"/>
-      <c r="E54" s="129" t="s">
+      <c r="D54" s="191"/>
+      <c r="E54" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="131"/>
+      <c r="F54" s="194"/>
       <c r="G54" s="44"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6799,12 +6799,12 @@
       <c r="BN54" s="88"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="105"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="132"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="180"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="195"/>
       <c r="G55" s="45"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6867,20 +6867,20 @@
       <c r="BN55" s="68"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="105">
+      <c r="A56" s="108">
         <v>27</v>
       </c>
-      <c r="B56" s="116" t="s">
+      <c r="B56" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="118" t="s">
+      <c r="C56" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="116" t="s">
+      <c r="D56" s="162"/>
+      <c r="E56" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="121"/>
+      <c r="F56" s="187"/>
       <c r="G56" s="36"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6943,12 +6943,12 @@
       <c r="BN56" s="96"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="115"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="122"/>
+      <c r="A57" s="182"/>
+      <c r="B57" s="184"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="188"/>
       <c r="G57" s="37"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7027,85 +7027,35 @@
       </c>
     </row>
     <row r="61" spans="1:66">
-      <c r="A61" s="191"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
@@ -7130,28 +7080,78 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0967299-F0EE-4DC3-A4CC-9D33E7BA30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7223E5-AD99-4516-819F-23FD8D4632B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1483,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1765,9 +1765,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1796,33 +1793,183 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1841,12 +1988,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1859,18 +2000,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1937,137 +2066,11 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2627,7 +2630,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2644,94 +2647,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="117">
+      <c r="G1" s="166">
         <v>45536</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="117">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="167"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="166">
         <v>45566</v>
       </c>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="118"/>
-      <c r="AW1" s="118"/>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="118"/>
-      <c r="BB1" s="118"/>
-      <c r="BC1" s="118"/>
-      <c r="BD1" s="118"/>
-      <c r="BE1" s="118"/>
-      <c r="BF1" s="118"/>
-      <c r="BG1" s="118"/>
-      <c r="BH1" s="118"/>
-      <c r="BI1" s="118"/>
-      <c r="BJ1" s="118"/>
-      <c r="BK1" s="118"/>
-      <c r="BL1" s="118"/>
-      <c r="BM1" s="118"/>
-      <c r="BN1" s="119"/>
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="167"/>
+      <c r="AN1" s="167"/>
+      <c r="AO1" s="167"/>
+      <c r="AP1" s="167"/>
+      <c r="AQ1" s="167"/>
+      <c r="AR1" s="167"/>
+      <c r="AS1" s="167"/>
+      <c r="AT1" s="167"/>
+      <c r="AU1" s="167"/>
+      <c r="AV1" s="167"/>
+      <c r="AW1" s="167"/>
+      <c r="AX1" s="167"/>
+      <c r="AY1" s="167"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="167"/>
+      <c r="BB1" s="167"/>
+      <c r="BC1" s="167"/>
+      <c r="BD1" s="167"/>
+      <c r="BE1" s="167"/>
+      <c r="BF1" s="167"/>
+      <c r="BG1" s="167"/>
+      <c r="BH1" s="167"/>
+      <c r="BI1" s="167"/>
+      <c r="BJ1" s="167"/>
+      <c r="BK1" s="167"/>
+      <c r="BL1" s="167"/>
+      <c r="BM1" s="167"/>
+      <c r="BN1" s="168"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="153"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="41">
         <v>45537</v>
       </c>
@@ -2973,12 +2976,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="154"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="197"/>
       <c r="G3" s="43" t="s">
         <v>14</v>
       </c>
@@ -3161,28 +3164,28 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="120">
+      <c r="A4" s="169">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="171"/>
+      <c r="E4" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="127"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="82"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="107"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3237,16 +3240,16 @@
       <c r="BN4" s="60"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="108"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="128"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="175"/>
       <c r="G5" s="83"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
       <c r="K5" s="52"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
@@ -3305,18 +3308,18 @@
       <c r="BN5" s="61"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="115">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="133" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="84"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3324,7 +3327,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="101"/>
+      <c r="N6" s="100"/>
       <c r="O6" s="29"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
@@ -3379,12 +3382,12 @@
       <c r="BN6" s="62"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="108"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="136"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="85"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3447,20 +3450,20 @@
       <c r="BN7" s="63"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="108">
+      <c r="A8" s="115">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="113" t="s">
+      <c r="D8" s="165"/>
+      <c r="E8" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="115"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="36"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
@@ -3470,13 +3473,13 @@
       <c r="M8" s="21"/>
       <c r="N8" s="51"/>
       <c r="O8" s="38"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="38"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -3523,12 +3526,12 @@
       <c r="BN8" s="64"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="108"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="116"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="45"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
@@ -3591,18 +3594,18 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="108">
+      <c r="A10" s="115">
         <v>4</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="114" t="s">
+      <c r="D10" s="157"/>
+      <c r="E10" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="45"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
@@ -3610,15 +3613,15 @@
       <c r="K10" s="53"/>
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="99"/>
+      <c r="N10" s="98"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="29"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -3665,12 +3668,12 @@
       <c r="BN10" s="62"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="108"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="116"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="45"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
@@ -3733,18 +3736,18 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="108">
+      <c r="A12" s="115">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="114" t="s">
+      <c r="D12" s="157"/>
+      <c r="E12" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="116"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="45"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
@@ -3752,15 +3755,15 @@
       <c r="K12" s="53"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="101"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="29"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -3807,12 +3810,12 @@
       <c r="BN12" s="62"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="108"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="47"/>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
@@ -3875,20 +3878,20 @@
       <c r="BN13" s="86"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="108">
+      <c r="A14" s="115">
         <v>6</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="158" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="160"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="44"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -3904,14 +3907,14 @@
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="103"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="104"/>
+      <c r="AC14" s="103"/>
       <c r="AD14" s="39"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
@@ -3951,12 +3954,12 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="108"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="166"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="44"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -4019,18 +4022,18 @@
       <c r="BN15" s="61"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="108">
+      <c r="A16" s="115">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="157" t="s">
+      <c r="D16" s="112"/>
+      <c r="E16" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="159"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="45"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
@@ -4046,14 +4049,14 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="101"/>
+      <c r="AC16" s="100"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
@@ -4093,12 +4096,12 @@
       <c r="BN16" s="62"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="160"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="46"/>
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
@@ -4161,20 +4164,20 @@
       <c r="BN17" s="63"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="108">
+      <c r="A18" s="115">
         <v>8</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163" t="s">
+      <c r="D18" s="118"/>
+      <c r="E18" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="165"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="36"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -4197,13 +4200,13 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="98"/>
+      <c r="AC18" s="97"/>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="102"/>
+      <c r="AI18" s="101"/>
       <c r="AJ18" s="96"/>
       <c r="AK18" s="74"/>
       <c r="AL18" s="6"/>
@@ -4237,12 +4240,12 @@
       <c r="BN18" s="64"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="108"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="166"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="46"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
@@ -4305,18 +4308,18 @@
       <c r="BN19" s="63"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="108">
+      <c r="A20" s="115">
         <v>9</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="176" t="s">
+      <c r="D20" s="112"/>
+      <c r="E20" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="159"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="45"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4339,13 +4342,13 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="101"/>
+      <c r="AI20" s="100"/>
       <c r="AJ20" s="91"/>
       <c r="AK20" s="72"/>
       <c r="AL20" s="7"/>
@@ -4379,12 +4382,12 @@
       <c r="BN20" s="62"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="108"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="166"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="46"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4447,18 +4450,18 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="108">
+      <c r="A22" s="115">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="176" t="s">
+      <c r="D22" s="112"/>
+      <c r="E22" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="159"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="46"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4487,7 +4490,7 @@
       <c r="AF22" s="40"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="106"/>
+      <c r="AI22" s="105"/>
       <c r="AJ22" s="93"/>
       <c r="AK22" s="75"/>
       <c r="AL22" s="54"/>
@@ -4521,12 +4524,12 @@
       <c r="BN22" s="65"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="108"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="178"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="47"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4549,7 +4552,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="105"/>
+      <c r="AC23" s="104"/>
       <c r="AD23" s="57"/>
       <c r="AE23" s="57"/>
       <c r="AF23" s="57"/>
@@ -4589,20 +4592,20 @@
       <c r="BN23" s="66"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="108">
+      <c r="A24" s="115">
         <v>11</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="163" t="s">
+      <c r="D24" s="118"/>
+      <c r="E24" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="165"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="36"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4638,7 +4641,7 @@
       <c r="AM24" s="55"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="102"/>
+      <c r="AP24" s="101"/>
       <c r="AQ24" s="55"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -4665,12 +4668,12 @@
       <c r="BN24" s="67"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="108"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="166"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="45"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4733,18 +4736,18 @@
       <c r="BN25" s="68"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="115">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="175" t="s">
+      <c r="C26" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="176" t="s">
+      <c r="D26" s="112"/>
+      <c r="E26" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="159"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="45"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4780,7 +4783,7 @@
       <c r="AM26" s="29"/>
       <c r="AN26" s="13"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="101"/>
+      <c r="AP26" s="100"/>
       <c r="AQ26" s="53"/>
       <c r="AR26" s="53"/>
       <c r="AS26" s="53"/>
@@ -4807,12 +4810,12 @@
       <c r="BN26" s="68"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="108"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="166"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="45"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4875,18 +4878,18 @@
       <c r="BN27" s="68"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="115">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="157" t="s">
+      <c r="D28" s="112"/>
+      <c r="E28" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="159"/>
+      <c r="F28" s="133"/>
       <c r="G28" s="46"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4922,7 +4925,7 @@
       <c r="AM28" s="54"/>
       <c r="AN28" s="25"/>
       <c r="AO28" s="26"/>
-      <c r="AP28" s="106"/>
+      <c r="AP28" s="105"/>
       <c r="AQ28" s="54"/>
       <c r="AR28" s="54"/>
       <c r="AS28" s="54"/>
@@ -4949,12 +4952,12 @@
       <c r="BN28" s="65"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="108"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="166"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="46"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5017,18 +5020,18 @@
       <c r="BN29" s="65"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="108">
+      <c r="A30" s="115">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="175" t="s">
+      <c r="C30" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="114" t="s">
+      <c r="D30" s="112"/>
+      <c r="E30" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="116"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="46"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5064,7 +5067,7 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="25"/>
       <c r="AO30" s="26"/>
-      <c r="AP30" s="106"/>
+      <c r="AP30" s="105"/>
       <c r="AQ30" s="54"/>
       <c r="AR30" s="54"/>
       <c r="AS30" s="54"/>
@@ -5091,12 +5094,12 @@
       <c r="BN30" s="65"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="108"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="116"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="46"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5159,18 +5162,18 @@
       <c r="BN31" s="65"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="108">
+      <c r="A32" s="115">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="130"/>
-      <c r="E32" s="114" t="s">
+      <c r="D32" s="112"/>
+      <c r="E32" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="116"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="46"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5206,7 +5209,7 @@
       <c r="AM32" s="54"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
-      <c r="AP32" s="106"/>
+      <c r="AP32" s="105"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="54"/>
       <c r="AS32" s="54"/>
@@ -5233,12 +5236,12 @@
       <c r="BN32" s="65"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="108"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="46"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5301,18 +5304,18 @@
       <c r="BN33" s="65"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="108">
+      <c r="A34" s="115">
         <v>16</v>
       </c>
       <c r="B34" s="34"/>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="114" t="s">
+      <c r="D34" s="112"/>
+      <c r="E34" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="116"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="46"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5348,7 +5351,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="26"/>
-      <c r="AP34" s="106"/>
+      <c r="AP34" s="105"/>
       <c r="AQ34" s="54"/>
       <c r="AR34" s="54"/>
       <c r="AS34" s="54"/>
@@ -5375,12 +5378,12 @@
       <c r="BN34" s="65"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="108"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="46"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5443,18 +5446,18 @@
       <c r="BN35" s="65"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="108">
+      <c r="A36" s="115">
         <v>17</v>
       </c>
       <c r="B36" s="34"/>
-      <c r="C36" s="179" t="s">
+      <c r="C36" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="114" t="s">
+      <c r="D36" s="122"/>
+      <c r="E36" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="116"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="46"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5498,7 +5501,7 @@
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
-      <c r="AX36" s="106"/>
+      <c r="AX36" s="105"/>
       <c r="AY36" s="54"/>
       <c r="AZ36" s="54"/>
       <c r="BA36" s="54"/>
@@ -5517,12 +5520,12 @@
       <c r="BN36" s="65"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="108"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="116"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="46"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5585,18 +5588,18 @@
       <c r="BN37" s="65"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="108">
+      <c r="A38" s="115">
         <v>18</v>
       </c>
       <c r="B38" s="34"/>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="180"/>
-      <c r="E38" s="114" t="s">
+      <c r="D38" s="122"/>
+      <c r="E38" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="116"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="46"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5640,7 +5643,7 @@
       <c r="AU38" s="25"/>
       <c r="AV38" s="26"/>
       <c r="AW38" s="26"/>
-      <c r="AX38" s="106"/>
+      <c r="AX38" s="105"/>
       <c r="AY38" s="54"/>
       <c r="AZ38" s="54"/>
       <c r="BA38" s="54"/>
@@ -5659,12 +5662,12 @@
       <c r="BN38" s="65"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="108"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="170"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="144"/>
       <c r="G39" s="46"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5727,20 +5730,20 @@
       <c r="BN39" s="65"/>
     </row>
     <row r="40" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="108">
+      <c r="A40" s="115">
         <v>19</v>
       </c>
-      <c r="B40" s="196" t="s">
+      <c r="B40" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="162"/>
-      <c r="E40" s="113" t="s">
+      <c r="D40" s="118"/>
+      <c r="E40" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="115"/>
+      <c r="F40" s="120"/>
       <c r="G40" s="36"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5784,7 +5787,7 @@
       <c r="AU40" s="15"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="21"/>
-      <c r="AX40" s="102"/>
+      <c r="AX40" s="101"/>
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
       <c r="BA40" s="55"/>
@@ -5803,12 +5806,12 @@
       <c r="BN40" s="67"/>
     </row>
     <row r="41" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="108"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="116"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="109"/>
       <c r="G41" s="45"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5871,18 +5874,18 @@
       <c r="BN41" s="68"/>
     </row>
     <row r="42" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="108">
+      <c r="A42" s="115">
         <v>20</v>
       </c>
-      <c r="B42" s="197"/>
-      <c r="C42" s="175" t="s">
+      <c r="B42" s="108"/>
+      <c r="C42" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="130"/>
-      <c r="E42" s="114" t="s">
+      <c r="D42" s="112"/>
+      <c r="E42" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="189"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="45"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5926,7 +5929,7 @@
       <c r="AU42" s="13"/>
       <c r="AV42" s="19"/>
       <c r="AW42" s="19"/>
-      <c r="AX42" s="101"/>
+      <c r="AX42" s="100"/>
       <c r="AY42" s="53"/>
       <c r="AZ42" s="53"/>
       <c r="BA42" s="53"/>
@@ -5945,12 +5948,12 @@
       <c r="BN42" s="68"/>
     </row>
     <row r="43" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="108"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="189"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="45"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6013,18 +6016,18 @@
       <c r="BN43" s="68"/>
     </row>
     <row r="44" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="108">
+      <c r="A44" s="115">
         <v>21</v>
       </c>
       <c r="B44" s="34"/>
-      <c r="C44" s="175" t="s">
+      <c r="C44" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="130"/>
-      <c r="E44" s="114" t="s">
+      <c r="D44" s="112"/>
+      <c r="E44" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="189"/>
+      <c r="F44" s="116"/>
       <c r="G44" s="45"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6074,7 +6077,7 @@
       <c r="BA44" s="53"/>
       <c r="BB44" s="13"/>
       <c r="BC44" s="19"/>
-      <c r="BD44" s="101"/>
+      <c r="BD44" s="100"/>
       <c r="BE44" s="53"/>
       <c r="BF44" s="53"/>
       <c r="BG44" s="53"/>
@@ -6087,12 +6090,12 @@
       <c r="BN44" s="68"/>
     </row>
     <row r="45" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="108"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="189"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="45"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6155,18 +6158,18 @@
       <c r="BN45" s="68"/>
     </row>
     <row r="46" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="108">
+      <c r="A46" s="115">
         <v>22</v>
       </c>
       <c r="B46" s="34"/>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="130"/>
-      <c r="E46" s="114" t="s">
+      <c r="D46" s="112"/>
+      <c r="E46" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="189"/>
+      <c r="F46" s="116"/>
       <c r="G46" s="45"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6216,7 +6219,7 @@
       <c r="BA46" s="29"/>
       <c r="BB46" s="13"/>
       <c r="BC46" s="19"/>
-      <c r="BD46" s="101"/>
+      <c r="BD46" s="100"/>
       <c r="BE46" s="53"/>
       <c r="BF46" s="53"/>
       <c r="BG46" s="53"/>
@@ -6229,12 +6232,12 @@
       <c r="BN46" s="68"/>
     </row>
     <row r="47" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="108"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="189"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="116"/>
       <c r="G47" s="45"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6297,18 +6300,18 @@
       <c r="BN47" s="68"/>
     </row>
     <row r="48" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="108">
+      <c r="A48" s="115">
         <v>23</v>
       </c>
       <c r="B48" s="34"/>
-      <c r="C48" s="175" t="s">
+      <c r="C48" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="130"/>
-      <c r="E48" s="114" t="s">
+      <c r="D48" s="112"/>
+      <c r="E48" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="116"/>
+      <c r="F48" s="109"/>
       <c r="G48" s="45"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6365,18 +6368,18 @@
       <c r="BH48" s="53"/>
       <c r="BI48" s="13"/>
       <c r="BJ48" s="19"/>
-      <c r="BK48" s="101"/>
+      <c r="BK48" s="100"/>
       <c r="BL48" s="53"/>
       <c r="BM48" s="53"/>
       <c r="BN48" s="68"/>
     </row>
     <row r="49" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="108"/>
+      <c r="A49" s="115"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="109"/>
       <c r="G49" s="45"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6439,18 +6442,18 @@
       <c r="BN49" s="68"/>
     </row>
     <row r="50" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="108">
+      <c r="A50" s="115">
         <v>24</v>
       </c>
       <c r="B50" s="34"/>
-      <c r="C50" s="179" t="s">
+      <c r="C50" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="114" t="s">
+      <c r="D50" s="122"/>
+      <c r="E50" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="189"/>
+      <c r="F50" s="116"/>
       <c r="G50" s="45"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6507,18 +6510,18 @@
       <c r="BH50" s="53"/>
       <c r="BI50" s="13"/>
       <c r="BJ50" s="19"/>
-      <c r="BK50" s="101"/>
+      <c r="BK50" s="100"/>
       <c r="BL50" s="53"/>
       <c r="BM50" s="53"/>
       <c r="BN50" s="68"/>
     </row>
     <row r="51" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="108"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="189"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="45"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6581,18 +6584,18 @@
       <c r="BN51" s="68"/>
     </row>
     <row r="52" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="108">
+      <c r="A52" s="115">
         <v>25</v>
       </c>
       <c r="B52" s="34"/>
-      <c r="C52" s="181" t="s">
+      <c r="C52" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="114" t="s">
+      <c r="D52" s="122"/>
+      <c r="E52" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="116"/>
+      <c r="F52" s="109"/>
       <c r="G52" s="45"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6649,18 +6652,18 @@
       <c r="BH52" s="29"/>
       <c r="BI52" s="13"/>
       <c r="BJ52" s="19"/>
-      <c r="BK52" s="101"/>
+      <c r="BK52" s="100"/>
       <c r="BL52" s="53"/>
       <c r="BM52" s="53"/>
       <c r="BN52" s="68"/>
     </row>
     <row r="53" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="108"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="169"/>
-      <c r="F53" s="170"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="47"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6723,20 +6726,20 @@
       <c r="BN53" s="66"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="108">
+      <c r="A54" s="115">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="190" t="s">
+      <c r="C54" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="191"/>
-      <c r="E54" s="192" t="s">
+      <c r="D54" s="138"/>
+      <c r="E54" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="194"/>
+      <c r="F54" s="141"/>
       <c r="G54" s="44"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6799,12 +6802,12 @@
       <c r="BN54" s="88"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="108"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="180"/>
-      <c r="E55" s="193"/>
-      <c r="F55" s="195"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="142"/>
       <c r="G55" s="45"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6867,20 +6870,20 @@
       <c r="BN55" s="68"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="108">
+      <c r="A56" s="115">
         <v>27</v>
       </c>
-      <c r="B56" s="183" t="s">
+      <c r="B56" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="161" t="s">
+      <c r="C56" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="162"/>
-      <c r="E56" s="183" t="s">
+      <c r="D56" s="118"/>
+      <c r="E56" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="187"/>
+      <c r="F56" s="131"/>
       <c r="G56" s="36"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6943,12 +6946,12 @@
       <c r="BN56" s="96"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="182"/>
-      <c r="B57" s="184"/>
-      <c r="C57" s="185"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="184"/>
-      <c r="F57" s="188"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="132"/>
       <c r="G57" s="37"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7027,35 +7030,85 @@
       </c>
     </row>
     <row r="61" spans="1:66">
-      <c r="A61" s="100"/>
+      <c r="A61" s="99"/>
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
@@ -7080,78 +7133,28 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7223E5-AD99-4516-819F-23FD8D4632B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969DC3C-BF69-4CA6-8654-E1A2ED83A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1793,284 +1793,284 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,94 +2647,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="192" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="195" t="s">
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="166">
+      <c r="G1" s="118">
         <v>45536</v>
       </c>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="167"/>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="167"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="166">
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="118">
         <v>45566</v>
       </c>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="167"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="167"/>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="167"/>
-      <c r="AT1" s="167"/>
-      <c r="AU1" s="167"/>
-      <c r="AV1" s="167"/>
-      <c r="AW1" s="167"/>
-      <c r="AX1" s="167"/>
-      <c r="AY1" s="167"/>
-      <c r="AZ1" s="167"/>
-      <c r="BA1" s="167"/>
-      <c r="BB1" s="167"/>
-      <c r="BC1" s="167"/>
-      <c r="BD1" s="167"/>
-      <c r="BE1" s="167"/>
-      <c r="BF1" s="167"/>
-      <c r="BG1" s="167"/>
-      <c r="BH1" s="167"/>
-      <c r="BI1" s="167"/>
-      <c r="BJ1" s="167"/>
-      <c r="BK1" s="167"/>
-      <c r="BL1" s="167"/>
-      <c r="BM1" s="167"/>
-      <c r="BN1" s="168"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="119"/>
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="119"/>
+      <c r="AU1" s="119"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="119"/>
+      <c r="AX1" s="119"/>
+      <c r="AY1" s="119"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="119"/>
+      <c r="BB1" s="119"/>
+      <c r="BC1" s="119"/>
+      <c r="BD1" s="119"/>
+      <c r="BE1" s="119"/>
+      <c r="BF1" s="119"/>
+      <c r="BG1" s="119"/>
+      <c r="BH1" s="119"/>
+      <c r="BI1" s="119"/>
+      <c r="BJ1" s="119"/>
+      <c r="BK1" s="119"/>
+      <c r="BL1" s="119"/>
+      <c r="BM1" s="119"/>
+      <c r="BN1" s="120"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="196"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="41">
         <v>45537</v>
       </c>
@@ -2976,12 +2976,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="197"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="43" t="s">
         <v>14</v>
       </c>
@@ -3164,25 +3164,25 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="169">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172" t="s">
+      <c r="D4" s="123"/>
+      <c r="E4" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="174"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="82"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="106"/>
@@ -3240,16 +3240,16 @@
       <c r="BN4" s="60"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="175"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="129"/>
       <c r="G5" s="83"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="52"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
@@ -3308,18 +3308,18 @@
       <c r="BN5" s="61"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="115">
+      <c r="A6" s="109">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="176" t="s">
+      <c r="D6" s="131"/>
+      <c r="E6" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="136"/>
       <c r="G6" s="84"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3382,12 +3382,12 @@
       <c r="BN6" s="62"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="115"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="85"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3450,20 +3450,20 @@
       <c r="BN7" s="63"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="115">
+      <c r="A8" s="109">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="119" t="s">
+      <c r="D8" s="111"/>
+      <c r="E8" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="120"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="36"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
@@ -3526,12 +3526,12 @@
       <c r="BN8" s="64"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="115"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="109"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="45"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
@@ -3594,18 +3594,18 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="115">
+      <c r="A10" s="109">
         <v>4</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="110" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="109"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="45"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
@@ -3668,12 +3668,12 @@
       <c r="BN10" s="62"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="115"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="109"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="45"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
@@ -3736,18 +3736,18 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="115">
+      <c r="A12" s="109">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="110" t="s">
+      <c r="D12" s="113"/>
+      <c r="E12" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="109"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="45"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
@@ -3810,12 +3810,12 @@
       <c r="BN12" s="62"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="115"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="47"/>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
@@ -3878,20 +3878,20 @@
       <c r="BN13" s="86"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="115">
+      <c r="A14" s="109">
         <v>6</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="154" t="s">
+      <c r="D14" s="173"/>
+      <c r="E14" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="44"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -3954,12 +3954,12 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="115"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="134"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="167"/>
       <c r="G15" s="44"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -4022,18 +4022,18 @@
       <c r="BN15" s="61"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="115">
+      <c r="A16" s="109">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="135" t="s">
+      <c r="D16" s="131"/>
+      <c r="E16" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="133"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="45"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
@@ -4096,12 +4096,12 @@
       <c r="BN16" s="62"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="115"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="46"/>
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
@@ -4164,20 +4164,20 @@
       <c r="BN17" s="63"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="115">
+      <c r="A18" s="109">
         <v>8</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="145" t="s">
+      <c r="D18" s="163"/>
+      <c r="E18" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="146"/>
+      <c r="F18" s="166"/>
       <c r="G18" s="36"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -4240,12 +4240,12 @@
       <c r="BN18" s="64"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="115"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="134"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="167"/>
       <c r="G19" s="46"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
@@ -4308,18 +4308,18 @@
       <c r="BN19" s="63"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="115">
+      <c r="A20" s="109">
         <v>9</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="149" t="s">
+      <c r="D20" s="131"/>
+      <c r="E20" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="133"/>
+      <c r="F20" s="160"/>
       <c r="G20" s="45"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4382,12 +4382,12 @@
       <c r="BN20" s="62"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="115"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="134"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="167"/>
       <c r="G21" s="46"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4450,18 +4450,18 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="115">
+      <c r="A22" s="109">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="149" t="s">
+      <c r="D22" s="131"/>
+      <c r="E22" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="133"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="46"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4524,12 +4524,12 @@
       <c r="BN22" s="65"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="115"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
       <c r="G23" s="47"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4592,20 +4592,20 @@
       <c r="BN23" s="66"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="115">
+      <c r="A24" s="109">
         <v>11</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="145" t="s">
+      <c r="D24" s="163"/>
+      <c r="E24" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="146"/>
+      <c r="F24" s="166"/>
       <c r="G24" s="36"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4668,12 +4668,12 @@
       <c r="BN24" s="67"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="115"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="134"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="167"/>
       <c r="G25" s="45"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4736,18 +4736,18 @@
       <c r="BN25" s="68"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="115">
+      <c r="A26" s="109">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="149" t="s">
+      <c r="D26" s="131"/>
+      <c r="E26" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="133"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="45"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4810,12 +4810,12 @@
       <c r="BN26" s="68"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="115"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="134"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="167"/>
       <c r="G27" s="45"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4878,18 +4878,18 @@
       <c r="BN27" s="68"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="115">
+      <c r="A28" s="109">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="131"/>
+      <c r="E28" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="133"/>
+      <c r="F28" s="160"/>
       <c r="G28" s="46"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4952,12 +4952,12 @@
       <c r="BN28" s="65"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="115"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="134"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="167"/>
       <c r="G29" s="46"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5020,18 +5020,18 @@
       <c r="BN29" s="65"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="115">
+      <c r="A30" s="109">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="110" t="s">
+      <c r="D30" s="131"/>
+      <c r="E30" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="109"/>
+      <c r="F30" s="117"/>
       <c r="G30" s="46"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5094,12 +5094,12 @@
       <c r="BN30" s="65"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="115"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="109"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="117"/>
       <c r="G31" s="46"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5162,18 +5162,18 @@
       <c r="BN31" s="65"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="115">
+      <c r="A32" s="109">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="110" t="s">
+      <c r="D32" s="131"/>
+      <c r="E32" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="109"/>
+      <c r="F32" s="117"/>
       <c r="G32" s="46"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5236,12 +5236,12 @@
       <c r="BN32" s="65"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="115"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="109"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="46"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5304,18 +5304,18 @@
       <c r="BN33" s="65"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="115">
+      <c r="A34" s="109">
         <v>16</v>
       </c>
       <c r="B34" s="34"/>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="110" t="s">
+      <c r="D34" s="131"/>
+      <c r="E34" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="109"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="46"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5378,12 +5378,12 @@
       <c r="BN34" s="65"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="115"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="109"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="117"/>
       <c r="G35" s="46"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5446,18 +5446,18 @@
       <c r="BN35" s="65"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="115">
+      <c r="A36" s="109">
         <v>17</v>
       </c>
       <c r="B36" s="34"/>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="110" t="s">
+      <c r="D36" s="181"/>
+      <c r="E36" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="109"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="46"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5520,12 +5520,12 @@
       <c r="BN36" s="65"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="115"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="109"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="117"/>
       <c r="G37" s="46"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5588,18 +5588,18 @@
       <c r="BN37" s="65"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="115">
+      <c r="A38" s="109">
         <v>18</v>
       </c>
       <c r="B38" s="34"/>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="122"/>
-      <c r="E38" s="110" t="s">
+      <c r="D38" s="181"/>
+      <c r="E38" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="109"/>
+      <c r="F38" s="117"/>
       <c r="G38" s="46"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5662,12 +5662,12 @@
       <c r="BN38" s="65"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="115"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="144"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="171"/>
       <c r="G39" s="46"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5730,20 +5730,20 @@
       <c r="BN39" s="65"/>
     </row>
     <row r="40" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="115">
+      <c r="A40" s="109">
         <v>19</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119" t="s">
+      <c r="D40" s="163"/>
+      <c r="E40" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="120"/>
+      <c r="F40" s="116"/>
       <c r="G40" s="36"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5806,12 +5806,12 @@
       <c r="BN40" s="67"/>
     </row>
     <row r="41" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="115"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="109"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="117"/>
       <c r="G41" s="45"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5874,18 +5874,18 @@
       <c r="BN41" s="68"/>
     </row>
     <row r="42" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="115">
+      <c r="A42" s="109">
         <v>20</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="111" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="110" t="s">
+      <c r="D42" s="131"/>
+      <c r="E42" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="116"/>
+      <c r="F42" s="190"/>
       <c r="G42" s="45"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5948,12 +5948,12 @@
       <c r="BN42" s="68"/>
     </row>
     <row r="43" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="116"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="190"/>
       <c r="G43" s="45"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6016,18 +6016,18 @@
       <c r="BN43" s="68"/>
     </row>
     <row r="44" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="115">
+      <c r="A44" s="109">
         <v>21</v>
       </c>
       <c r="B44" s="34"/>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="110" t="s">
+      <c r="D44" s="131"/>
+      <c r="E44" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="116"/>
+      <c r="F44" s="190"/>
       <c r="G44" s="45"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6090,12 +6090,12 @@
       <c r="BN44" s="68"/>
     </row>
     <row r="45" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="115"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="116"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="190"/>
       <c r="G45" s="45"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6158,18 +6158,18 @@
       <c r="BN45" s="68"/>
     </row>
     <row r="46" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="115">
+      <c r="A46" s="109">
         <v>22</v>
       </c>
       <c r="B46" s="34"/>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="112"/>
-      <c r="E46" s="110" t="s">
+      <c r="D46" s="131"/>
+      <c r="E46" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="116"/>
+      <c r="F46" s="190"/>
       <c r="G46" s="45"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6232,12 +6232,12 @@
       <c r="BN46" s="68"/>
     </row>
     <row r="47" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="115"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="116"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="190"/>
       <c r="G47" s="45"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6300,18 +6300,18 @@
       <c r="BN47" s="68"/>
     </row>
     <row r="48" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="115">
+      <c r="A48" s="109">
         <v>23</v>
       </c>
       <c r="B48" s="34"/>
-      <c r="C48" s="111" t="s">
+      <c r="C48" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="112"/>
-      <c r="E48" s="110" t="s">
+      <c r="D48" s="131"/>
+      <c r="E48" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="109"/>
+      <c r="F48" s="117"/>
       <c r="G48" s="45"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6374,12 +6374,12 @@
       <c r="BN48" s="68"/>
     </row>
     <row r="49" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="115"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="109"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="117"/>
       <c r="G49" s="45"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6442,18 +6442,18 @@
       <c r="BN49" s="68"/>
     </row>
     <row r="50" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="115">
+      <c r="A50" s="109">
         <v>24</v>
       </c>
       <c r="B50" s="34"/>
-      <c r="C50" s="121" t="s">
+      <c r="C50" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="110" t="s">
+      <c r="D50" s="181"/>
+      <c r="E50" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="116"/>
+      <c r="F50" s="190"/>
       <c r="G50" s="45"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6516,12 +6516,12 @@
       <c r="BN50" s="68"/>
     </row>
     <row r="51" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="115"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="116"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="190"/>
       <c r="G51" s="45"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6584,18 +6584,18 @@
       <c r="BN51" s="68"/>
     </row>
     <row r="52" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="115">
+      <c r="A52" s="109">
         <v>25</v>
       </c>
       <c r="B52" s="34"/>
-      <c r="C52" s="123" t="s">
+      <c r="C52" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="122"/>
-      <c r="E52" s="110" t="s">
+      <c r="D52" s="181"/>
+      <c r="E52" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="109"/>
+      <c r="F52" s="117"/>
       <c r="G52" s="45"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6658,12 +6658,12 @@
       <c r="BN52" s="68"/>
     </row>
     <row r="53" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="115"/>
+      <c r="A53" s="109"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="143"/>
-      <c r="F53" s="144"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="171"/>
       <c r="G53" s="47"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6726,20 +6726,20 @@
       <c r="BN53" s="66"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="115">
+      <c r="A54" s="109">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139" t="s">
+      <c r="D54" s="192"/>
+      <c r="E54" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="141"/>
+      <c r="F54" s="195"/>
       <c r="G54" s="44"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6802,12 +6802,12 @@
       <c r="BN54" s="88"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="115"/>
+      <c r="A55" s="109"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="142"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="181"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="196"/>
       <c r="G55" s="45"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6870,20 +6870,20 @@
       <c r="BN55" s="68"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="115">
+      <c r="A56" s="109">
         <v>27</v>
       </c>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="118"/>
-      <c r="E56" s="126" t="s">
+      <c r="D56" s="163"/>
+      <c r="E56" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="131"/>
+      <c r="F56" s="188"/>
       <c r="G56" s="36"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6946,12 +6946,12 @@
       <c r="BN56" s="96"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="125"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="132"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="189"/>
       <c r="G57" s="37"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7037,78 +7037,28 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
@@ -7133,28 +7083,78 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969DC3C-BF69-4CA6-8654-E1A2ED83A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A90CF1-557A-4F8D-AB95-7B354BF76919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="15" r:id="rId1"/>
+    <sheet name="全体スケジュール (単テをコーディングと並行)" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">全体スケジュール!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (単テをコーディングと並行)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="43">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -1483,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1799,33 +1801,192 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,12 +2005,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1862,18 +2017,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1940,137 +2083,20 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,6 +2216,161 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A3F159-457C-4269-8AC4-A566B6BA3464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4678680" y="1059180"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63157"/>
+            <a:gd name="adj2" fmla="val 107921"/>
+            <a:gd name="adj3" fmla="val 63157"/>
+            <a:gd name="adj4" fmla="val 114852"/>
+            <a:gd name="adj5" fmla="val -10528"/>
+            <a:gd name="adj6" fmla="val 124755"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>入出力ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C9B1C4-A2B1-4735-8935-7ADDEA73EEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4678680" y="1059180"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75000"/>
+            <a:gd name="adj2" fmla="val 107843"/>
+            <a:gd name="adj3" fmla="val 75000"/>
+            <a:gd name="adj4" fmla="val 112745"/>
+            <a:gd name="adj5" fmla="val -12500"/>
+            <a:gd name="adj6" fmla="val 118630"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>設計書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523F1CB3-B829-4180-AA27-8A15CBF17166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,11 +2807,11 @@
   </sheetPr>
   <dimension ref="A1:BN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="AR49" sqref="AR49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2647,94 +2828,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="192"/>
+      <c r="E1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="118">
+      <c r="G1" s="171">
         <v>45536</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="118">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="171">
         <v>45566</v>
       </c>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="119"/>
-      <c r="BC1" s="119"/>
-      <c r="BD1" s="119"/>
-      <c r="BE1" s="119"/>
-      <c r="BF1" s="119"/>
-      <c r="BG1" s="119"/>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-      <c r="BJ1" s="119"/>
-      <c r="BK1" s="119"/>
-      <c r="BL1" s="119"/>
-      <c r="BM1" s="119"/>
-      <c r="BN1" s="120"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="172"/>
+      <c r="AW1" s="172"/>
+      <c r="AX1" s="172"/>
+      <c r="AY1" s="172"/>
+      <c r="AZ1" s="172"/>
+      <c r="BA1" s="172"/>
+      <c r="BB1" s="172"/>
+      <c r="BC1" s="172"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
+      <c r="BF1" s="172"/>
+      <c r="BG1" s="172"/>
+      <c r="BH1" s="172"/>
+      <c r="BI1" s="172"/>
+      <c r="BJ1" s="172"/>
+      <c r="BK1" s="172"/>
+      <c r="BL1" s="172"/>
+      <c r="BM1" s="172"/>
+      <c r="BN1" s="173"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="154"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="41">
         <v>45537</v>
       </c>
@@ -2976,12 +3157,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="155"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="43" t="s">
         <v>14</v>
       </c>
@@ -3164,20 +3345,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="121">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="179"/>
       <c r="G4" s="82"/>
       <c r="H4" s="107"/>
       <c r="I4" s="107"/>
@@ -3240,12 +3421,12 @@
       <c r="BN4" s="60"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="109"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="129"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="180"/>
       <c r="G5" s="83"/>
       <c r="H5" s="108"/>
       <c r="I5" s="108"/>
@@ -3308,18 +3489,18 @@
       <c r="BN5" s="61"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="109">
+      <c r="A6" s="120">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="134" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="84"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3382,12 +3563,12 @@
       <c r="BN6" s="62"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="109"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="85"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3450,20 +3631,20 @@
       <c r="BN7" s="63"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="109">
+      <c r="A8" s="120">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="114" t="s">
+      <c r="D8" s="170"/>
+      <c r="E8" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="116"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="36"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
@@ -3526,12 +3707,12 @@
       <c r="BN8" s="64"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="109"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="115"/>
-      <c r="F9" s="117"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="45"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
@@ -3594,18 +3775,18 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="109">
+      <c r="A10" s="120">
         <v>4</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="45"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
@@ -3668,12 +3849,12 @@
       <c r="BN10" s="62"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="109"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="115"/>
-      <c r="F11" s="117"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="45"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
@@ -3736,18 +3917,18 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="109">
+      <c r="A12" s="120">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="113"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="45"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
@@ -3810,12 +3991,12 @@
       <c r="BN12" s="62"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="171"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="47"/>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
@@ -3878,20 +4059,20 @@
       <c r="BN13" s="86"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="109">
+      <c r="A14" s="120">
         <v>6</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="161"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="44"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -3907,7 +4088,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="39"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -3954,12 +4135,12 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="109"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="44"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -4022,18 +4203,18 @@
       <c r="BN15" s="61"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="109">
+      <c r="A16" s="120">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="158" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="160"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="45"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
@@ -4049,7 +4230,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
@@ -4096,12 +4277,12 @@
       <c r="BN16" s="62"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="157"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="159"/>
-      <c r="F17" s="161"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="46"/>
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
@@ -4164,20 +4345,20 @@
       <c r="BN17" s="63"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="109">
+      <c r="A18" s="120">
         <v>8</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="163"/>
-      <c r="E18" s="164" t="s">
+      <c r="D18" s="123"/>
+      <c r="E18" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="166"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="36"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -4200,7 +4381,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="97"/>
+      <c r="AC18" s="38"/>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
@@ -4240,12 +4421,12 @@
       <c r="BN18" s="64"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="167"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="46"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
@@ -4308,18 +4489,18 @@
       <c r="BN19" s="63"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="109">
+      <c r="A20" s="120">
         <v>9</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="177" t="s">
+      <c r="D20" s="117"/>
+      <c r="E20" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="160"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="45"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4382,12 +4563,12 @@
       <c r="BN20" s="62"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="109"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="167"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="46"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4450,18 +4631,18 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="109">
+      <c r="A22" s="120">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="177" t="s">
+      <c r="D22" s="117"/>
+      <c r="E22" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="160"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="46"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4524,12 +4705,12 @@
       <c r="BN22" s="65"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="109"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
       <c r="G23" s="47"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4592,20 +4773,20 @@
       <c r="BN23" s="66"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="109">
+      <c r="A24" s="120">
         <v>11</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="163"/>
-      <c r="E24" s="164" t="s">
+      <c r="D24" s="123"/>
+      <c r="E24" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="166"/>
+      <c r="F24" s="151"/>
       <c r="G24" s="36"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4668,12 +4849,12 @@
       <c r="BN24" s="67"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="109"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="167"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="45"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4736,18 +4917,18 @@
       <c r="BN25" s="68"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="109">
+      <c r="A26" s="120">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="177" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="160"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="45"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4810,12 +4991,12 @@
       <c r="BN26" s="68"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="109"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="167"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="139"/>
       <c r="G27" s="45"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4878,18 +5059,18 @@
       <c r="BN27" s="68"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="109">
+      <c r="A28" s="120">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="158" t="s">
+      <c r="D28" s="117"/>
+      <c r="E28" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="160"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="46"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4952,12 +5133,12 @@
       <c r="BN28" s="65"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="109"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="167"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="139"/>
       <c r="G29" s="46"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5020,18 +5201,18 @@
       <c r="BN29" s="65"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="109">
+      <c r="A30" s="120">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="131"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="117"/>
+      <c r="F30" s="114"/>
       <c r="G30" s="46"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5094,12 +5275,12 @@
       <c r="BN30" s="65"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="109"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="115"/>
-      <c r="F31" s="117"/>
+      <c r="F31" s="114"/>
       <c r="G31" s="46"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5162,18 +5343,18 @@
       <c r="BN31" s="65"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="109">
+      <c r="A32" s="120">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="131"/>
+      <c r="D32" s="117"/>
       <c r="E32" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="117"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="46"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5236,12 +5417,12 @@
       <c r="BN32" s="65"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="109"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="125"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="115"/>
-      <c r="F33" s="117"/>
+      <c r="F33" s="114"/>
       <c r="G33" s="46"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5304,18 +5485,18 @@
       <c r="BN33" s="65"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="109">
+      <c r="A34" s="120">
         <v>16</v>
       </c>
       <c r="B34" s="34"/>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="131"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="117"/>
+      <c r="F34" s="114"/>
       <c r="G34" s="46"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5378,12 +5559,12 @@
       <c r="BN34" s="65"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="109"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="125"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="115"/>
-      <c r="F35" s="117"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="46"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5446,18 +5627,18 @@
       <c r="BN35" s="65"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="109">
+      <c r="A36" s="120">
         <v>17</v>
       </c>
       <c r="B36" s="34"/>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="117"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="46"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5520,12 +5701,12 @@
       <c r="BN36" s="65"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="109"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="181"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="115"/>
-      <c r="F37" s="117"/>
+      <c r="F37" s="114"/>
       <c r="G37" s="46"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5588,18 +5769,18 @@
       <c r="BN37" s="65"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="109">
+      <c r="A38" s="120">
         <v>18</v>
       </c>
       <c r="B38" s="34"/>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="117"/>
+      <c r="F38" s="114"/>
       <c r="G38" s="46"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5662,12 +5843,12 @@
       <c r="BN38" s="65"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="109"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="171"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="46"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5730,20 +5911,20 @@
       <c r="BN39" s="65"/>
     </row>
     <row r="40" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="109">
+      <c r="A40" s="120">
         <v>19</v>
       </c>
-      <c r="B40" s="197" t="s">
+      <c r="B40" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="199" t="s">
+      <c r="C40" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="163"/>
-      <c r="E40" s="114" t="s">
+      <c r="D40" s="123"/>
+      <c r="E40" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="116"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="36"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5806,12 +5987,12 @@
       <c r="BN40" s="67"/>
     </row>
     <row r="41" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="125"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="115"/>
-      <c r="F41" s="117"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="45"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5874,18 +6055,18 @@
       <c r="BN41" s="68"/>
     </row>
     <row r="42" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="109">
+      <c r="A42" s="120">
         <v>20</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="176" t="s">
+      <c r="B42" s="113"/>
+      <c r="C42" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="131"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="190"/>
+      <c r="F42" s="121"/>
       <c r="G42" s="45"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5948,12 +6129,12 @@
       <c r="BN42" s="68"/>
     </row>
     <row r="43" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="109"/>
-      <c r="B43" s="198"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="115"/>
-      <c r="F43" s="190"/>
+      <c r="F43" s="121"/>
       <c r="G43" s="45"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6016,18 +6197,18 @@
       <c r="BN43" s="68"/>
     </row>
     <row r="44" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="109">
+      <c r="A44" s="120">
         <v>21</v>
       </c>
       <c r="B44" s="34"/>
-      <c r="C44" s="176" t="s">
+      <c r="C44" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="131"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="190"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="45"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6090,12 +6271,12 @@
       <c r="BN44" s="68"/>
     </row>
     <row r="45" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="109"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="115"/>
-      <c r="F45" s="190"/>
+      <c r="F45" s="121"/>
       <c r="G45" s="45"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6158,18 +6339,18 @@
       <c r="BN45" s="68"/>
     </row>
     <row r="46" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="109">
+      <c r="A46" s="120">
         <v>22</v>
       </c>
       <c r="B46" s="34"/>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="131"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="190"/>
+      <c r="F46" s="121"/>
       <c r="G46" s="45"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6232,12 +6413,12 @@
       <c r="BN46" s="68"/>
     </row>
     <row r="47" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="109"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="125"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="115"/>
-      <c r="F47" s="190"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="45"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6300,18 +6481,18 @@
       <c r="BN47" s="68"/>
     </row>
     <row r="48" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="109">
+      <c r="A48" s="120">
         <v>23</v>
       </c>
       <c r="B48" s="34"/>
-      <c r="C48" s="176" t="s">
+      <c r="C48" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="131"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="117"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="45"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6374,12 +6555,12 @@
       <c r="BN48" s="68"/>
     </row>
     <row r="49" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="109"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="115"/>
-      <c r="F49" s="117"/>
+      <c r="F49" s="114"/>
       <c r="G49" s="45"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6442,18 +6623,18 @@
       <c r="BN49" s="68"/>
     </row>
     <row r="50" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="109">
+      <c r="A50" s="120">
         <v>24</v>
       </c>
       <c r="B50" s="34"/>
-      <c r="C50" s="180" t="s">
+      <c r="C50" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="181"/>
+      <c r="D50" s="127"/>
       <c r="E50" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="190"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="45"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6516,12 +6697,12 @@
       <c r="BN50" s="68"/>
     </row>
     <row r="51" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="109"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="181"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="115"/>
-      <c r="F51" s="190"/>
+      <c r="F51" s="121"/>
       <c r="G51" s="45"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6584,18 +6765,18 @@
       <c r="BN51" s="68"/>
     </row>
     <row r="52" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="109">
+      <c r="A52" s="120">
         <v>25</v>
       </c>
       <c r="B52" s="34"/>
-      <c r="C52" s="182" t="s">
+      <c r="C52" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="181"/>
+      <c r="D52" s="127"/>
       <c r="E52" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="117"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="45"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6658,12 +6839,12 @@
       <c r="BN52" s="68"/>
     </row>
     <row r="53" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="109"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="181"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="171"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="149"/>
       <c r="G53" s="47"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6726,20 +6907,20 @@
       <c r="BN53" s="66"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="109">
+      <c r="A54" s="120">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="191" t="s">
+      <c r="C54" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="192"/>
-      <c r="E54" s="193" t="s">
+      <c r="D54" s="143"/>
+      <c r="E54" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="195"/>
+      <c r="F54" s="146"/>
       <c r="G54" s="44"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6802,12 +6983,12 @@
       <c r="BN54" s="88"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="109"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="182"/>
-      <c r="D55" s="181"/>
-      <c r="E55" s="194"/>
-      <c r="F55" s="196"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="147"/>
       <c r="G55" s="45"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6870,20 +7051,20 @@
       <c r="BN55" s="68"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="109">
+      <c r="A56" s="120">
         <v>27</v>
       </c>
-      <c r="B56" s="184" t="s">
+      <c r="B56" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="162" t="s">
+      <c r="C56" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="163"/>
-      <c r="E56" s="184" t="s">
+      <c r="D56" s="123"/>
+      <c r="E56" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="188"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="36"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6946,12 +7127,12 @@
       <c r="BN56" s="96"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="183"/>
-      <c r="B57" s="185"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="187"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="189"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="137"/>
       <c r="G57" s="37"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7037,28 +7218,78 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
@@ -7083,23 +7314,4525 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5463BE-06C4-4059-9961-29EAF15F14DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BN61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" ht="10.5" customHeight="1">
+      <c r="A1" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="192"/>
+      <c r="E1" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="171">
+        <v>45536</v>
+      </c>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="171">
+        <v>45566</v>
+      </c>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="172"/>
+      <c r="AW1" s="172"/>
+      <c r="AX1" s="172"/>
+      <c r="AY1" s="172"/>
+      <c r="AZ1" s="172"/>
+      <c r="BA1" s="172"/>
+      <c r="BB1" s="172"/>
+      <c r="BC1" s="172"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
+      <c r="BF1" s="172"/>
+      <c r="BG1" s="172"/>
+      <c r="BH1" s="172"/>
+      <c r="BI1" s="172"/>
+      <c r="BJ1" s="172"/>
+      <c r="BK1" s="172"/>
+      <c r="BL1" s="172"/>
+      <c r="BM1" s="172"/>
+      <c r="BN1" s="173"/>
+    </row>
+    <row r="2" spans="1:66" ht="10.5" customHeight="1">
+      <c r="A2" s="186"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="41">
+        <v>45537</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2+1</f>
+        <v>45538</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:BN2" si="0">H2+1</f>
+        <v>45539</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>45542</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>45543</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>45544</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>45545</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>45546</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>45547</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>45548</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>45549</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>45550</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>45551</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>45552</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>45553</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>45554</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>45555</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>45556</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>45557</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="0"/>
+        <v>45558</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="0"/>
+        <v>45559</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>45560</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>45561</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>45562</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>45563</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>45564</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>45565</v>
+      </c>
+      <c r="AJ2" s="42">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
+      <c r="AK2" s="41">
+        <f t="shared" si="0"/>
+        <v>45567</v>
+      </c>
+      <c r="AL2" s="4">
+        <f t="shared" si="0"/>
+        <v>45568</v>
+      </c>
+      <c r="AM2" s="4">
+        <f t="shared" si="0"/>
+        <v>45569</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" si="0"/>
+        <v>45570</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" si="0"/>
+        <v>45571</v>
+      </c>
+      <c r="AP2" s="4">
+        <f t="shared" si="0"/>
+        <v>45572</v>
+      </c>
+      <c r="AQ2" s="4">
+        <f t="shared" si="0"/>
+        <v>45573</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" si="0"/>
+        <v>45574</v>
+      </c>
+      <c r="AS2" s="4">
+        <f t="shared" si="0"/>
+        <v>45575</v>
+      </c>
+      <c r="AT2" s="4">
+        <f t="shared" si="0"/>
+        <v>45576</v>
+      </c>
+      <c r="AU2" s="4">
+        <f t="shared" si="0"/>
+        <v>45577</v>
+      </c>
+      <c r="AV2" s="4">
+        <f t="shared" si="0"/>
+        <v>45578</v>
+      </c>
+      <c r="AW2" s="4">
+        <f t="shared" si="0"/>
+        <v>45579</v>
+      </c>
+      <c r="AX2" s="4">
+        <f t="shared" si="0"/>
+        <v>45580</v>
+      </c>
+      <c r="AY2" s="4">
+        <f t="shared" si="0"/>
+        <v>45581</v>
+      </c>
+      <c r="AZ2" s="4">
+        <f t="shared" si="0"/>
+        <v>45582</v>
+      </c>
+      <c r="BA2" s="4">
+        <f t="shared" si="0"/>
+        <v>45583</v>
+      </c>
+      <c r="BB2" s="4">
+        <f t="shared" si="0"/>
+        <v>45584</v>
+      </c>
+      <c r="BC2" s="4">
+        <f t="shared" si="0"/>
+        <v>45585</v>
+      </c>
+      <c r="BD2" s="4">
+        <f t="shared" si="0"/>
+        <v>45586</v>
+      </c>
+      <c r="BE2" s="4">
+        <f t="shared" si="0"/>
+        <v>45587</v>
+      </c>
+      <c r="BF2" s="4">
+        <f t="shared" si="0"/>
+        <v>45588</v>
+      </c>
+      <c r="BG2" s="4">
+        <f t="shared" si="0"/>
+        <v>45589</v>
+      </c>
+      <c r="BH2" s="4">
+        <f t="shared" si="0"/>
+        <v>45590</v>
+      </c>
+      <c r="BI2" s="4">
+        <f t="shared" si="0"/>
+        <v>45591</v>
+      </c>
+      <c r="BJ2" s="4">
+        <f t="shared" si="0"/>
+        <v>45592</v>
+      </c>
+      <c r="BK2" s="4">
+        <f t="shared" si="0"/>
+        <v>45593</v>
+      </c>
+      <c r="BL2" s="4">
+        <f t="shared" si="0"/>
+        <v>45594</v>
+      </c>
+      <c r="BM2" s="4">
+        <f t="shared" si="0"/>
+        <v>45595</v>
+      </c>
+      <c r="BN2" s="42">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB3" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF3" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI3" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM3" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN3" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A4" s="174">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="179"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="60"/>
+    </row>
+    <row r="5" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A5" s="120"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="61"/>
+    </row>
+    <row r="6" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A6" s="120">
+        <v>2</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="181" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="183"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="109"/>
+    </row>
+    <row r="7" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A7" s="120"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="24"/>
+      <c r="BN7" s="63"/>
+    </row>
+    <row r="8" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A8" s="120">
+        <v>3</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="170"/>
+      <c r="E8" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="64"/>
+    </row>
+    <row r="9" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A9" s="120"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="109"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="109"/>
+    </row>
+    <row r="10" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A10" s="120">
+        <v>4</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="162"/>
+      <c r="E10" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="109"/>
+    </row>
+    <row r="11" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A11" s="120"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="109"/>
+    </row>
+    <row r="12" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A12" s="120">
+        <v>5</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="161" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="162"/>
+      <c r="E12" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="114"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="109"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="109"/>
+    </row>
+    <row r="13" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A13" s="120"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="23"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="86"/>
+    </row>
+    <row r="14" spans="1:66" ht="12" customHeight="1">
+      <c r="A14" s="120">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="166"/>
+      <c r="E14" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="160"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="61"/>
+    </row>
+    <row r="15" spans="1:66" ht="12" customHeight="1">
+      <c r="A15" s="120"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="61"/>
+    </row>
+    <row r="16" spans="1:66" ht="12" customHeight="1">
+      <c r="A16" s="120">
+        <v>7</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="138"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="109"/>
+    </row>
+    <row r="17" spans="1:66" ht="12" customHeight="1">
+      <c r="A17" s="120"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="63"/>
+    </row>
+    <row r="18" spans="1:66" ht="12" customHeight="1">
+      <c r="A18" s="120">
+        <v>8</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="123"/>
+      <c r="E18" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="151"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="101"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="64"/>
+    </row>
+    <row r="19" spans="1:66" ht="12" customHeight="1">
+      <c r="A19" s="120"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="63"/>
+    </row>
+    <row r="20" spans="1:66" ht="12" customHeight="1">
+      <c r="A20" s="120">
+        <v>9</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="138"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="109"/>
+    </row>
+    <row r="21" spans="1:66" ht="12" customHeight="1">
+      <c r="A21" s="120"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="63"/>
+    </row>
+    <row r="22" spans="1:66" ht="12" customHeight="1">
+      <c r="A22" s="120">
+        <v>10</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="138"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="105"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="54"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="54"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="54"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="54"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="54"/>
+      <c r="BL22" s="54"/>
+      <c r="BM22" s="54"/>
+      <c r="BN22" s="65"/>
+    </row>
+    <row r="23" spans="1:66" ht="12" customHeight="1">
+      <c r="A23" s="120"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="57"/>
+      <c r="BM23" s="57"/>
+      <c r="BN23" s="66"/>
+    </row>
+    <row r="24" spans="1:66" ht="12" customHeight="1">
+      <c r="A24" s="120">
+        <v>11</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="123"/>
+      <c r="E24" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="151"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="101"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="55"/>
+      <c r="BF24" s="55"/>
+      <c r="BG24" s="55"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="55"/>
+      <c r="BL24" s="55"/>
+      <c r="BM24" s="55"/>
+      <c r="BN24" s="67"/>
+    </row>
+    <row r="25" spans="1:66" ht="12" customHeight="1">
+      <c r="A25" s="120"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="53"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="68"/>
+    </row>
+    <row r="26" spans="1:66" ht="12" customHeight="1">
+      <c r="A26" s="120">
+        <v>12</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="117"/>
+      <c r="E26" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="138"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="204"/>
+      <c r="AK26" s="203"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="53"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="53"/>
+      <c r="BH26" s="53"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="53"/>
+      <c r="BL26" s="53"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="68"/>
+    </row>
+    <row r="27" spans="1:66" ht="12" customHeight="1">
+      <c r="A27" s="120"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="68"/>
+    </row>
+    <row r="28" spans="1:66" ht="12" customHeight="1">
+      <c r="A28" s="120">
+        <v>13</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="138"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="54"/>
+      <c r="BE28" s="54"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="54"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="54"/>
+      <c r="BL28" s="54"/>
+      <c r="BM28" s="54"/>
+      <c r="BN28" s="65"/>
+    </row>
+    <row r="29" spans="1:66" ht="12" customHeight="1">
+      <c r="A29" s="120"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="25"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="65"/>
+    </row>
+    <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
+      <c r="A30" s="120">
+        <v>14</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="117"/>
+      <c r="E30" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="114"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="94"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="105"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="54"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="54"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="54"/>
+      <c r="BL30" s="54"/>
+      <c r="BM30" s="54"/>
+      <c r="BN30" s="65"/>
+    </row>
+    <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
+      <c r="A31" s="120"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="54"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="54"/>
+      <c r="BE31" s="54"/>
+      <c r="BF31" s="54"/>
+      <c r="BG31" s="54"/>
+      <c r="BH31" s="54"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="26"/>
+      <c r="BK31" s="54"/>
+      <c r="BL31" s="54"/>
+      <c r="BM31" s="54"/>
+      <c r="BN31" s="65"/>
+    </row>
+    <row r="32" spans="1:66" ht="12" customHeight="1">
+      <c r="A32" s="120">
+        <v>15</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="117"/>
+      <c r="E32" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="114"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="54"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="54"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="54"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="54"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="54"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="54"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="65"/>
+    </row>
+    <row r="33" spans="1:66" ht="12" customHeight="1">
+      <c r="A33" s="120"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="65"/>
+    </row>
+    <row r="34" spans="1:66" ht="12" customHeight="1">
+      <c r="A34" s="120">
+        <v>16</v>
+      </c>
+      <c r="B34" s="111"/>
+      <c r="C34" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="117"/>
+      <c r="E34" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="114"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="54"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="54"/>
+      <c r="BH34" s="54"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="54"/>
+      <c r="BL34" s="54"/>
+      <c r="BM34" s="54"/>
+      <c r="BN34" s="65"/>
+    </row>
+    <row r="35" spans="1:66" ht="12" customHeight="1">
+      <c r="A35" s="120"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="54"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="65"/>
+    </row>
+    <row r="36" spans="1:66" ht="12" customHeight="1">
+      <c r="A36" s="120">
+        <v>17</v>
+      </c>
+      <c r="B36" s="111"/>
+      <c r="C36" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="127"/>
+      <c r="E36" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="114"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="40"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="54"/>
+      <c r="AT36" s="54"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="54"/>
+      <c r="BE36" s="54"/>
+      <c r="BF36" s="54"/>
+      <c r="BG36" s="54"/>
+      <c r="BH36" s="54"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="54"/>
+      <c r="BL36" s="54"/>
+      <c r="BM36" s="54"/>
+      <c r="BN36" s="65"/>
+    </row>
+    <row r="37" spans="1:66" ht="12" customHeight="1">
+      <c r="A37" s="120"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="75"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="95"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="95"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="54"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="54"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="54"/>
+      <c r="BE37" s="54"/>
+      <c r="BF37" s="54"/>
+      <c r="BG37" s="54"/>
+      <c r="BH37" s="54"/>
+      <c r="BI37" s="25"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="54"/>
+      <c r="BL37" s="54"/>
+      <c r="BM37" s="54"/>
+      <c r="BN37" s="65"/>
+    </row>
+    <row r="38" spans="1:66" ht="12" customHeight="1">
+      <c r="A38" s="120">
+        <v>18</v>
+      </c>
+      <c r="B38" s="111"/>
+      <c r="C38" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="127"/>
+      <c r="E38" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="114"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="75"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="54"/>
+      <c r="AT38" s="54"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="105"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="54"/>
+      <c r="BE38" s="54"/>
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="54"/>
+      <c r="BH38" s="54"/>
+      <c r="BI38" s="25"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="54"/>
+      <c r="BL38" s="54"/>
+      <c r="BM38" s="54"/>
+      <c r="BN38" s="65"/>
+    </row>
+    <row r="39" spans="1:66" ht="12" customHeight="1">
+      <c r="A39" s="120"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="54"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="54"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="54"/>
+      <c r="BE39" s="54"/>
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="54"/>
+      <c r="BH39" s="54"/>
+      <c r="BI39" s="25"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="54"/>
+      <c r="BL39" s="54"/>
+      <c r="BM39" s="54"/>
+      <c r="BN39" s="65"/>
+    </row>
+    <row r="40" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="120">
+        <v>19</v>
+      </c>
+      <c r="B40" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="123"/>
+      <c r="E40" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="125"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="77"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="97"/>
+      <c r="AS40" s="97"/>
+      <c r="AT40" s="97"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="101"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="55"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="55"/>
+      <c r="BE40" s="55"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="55"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="55"/>
+      <c r="BL40" s="55"/>
+      <c r="BM40" s="55"/>
+      <c r="BN40" s="67"/>
+    </row>
+    <row r="41" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="120"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="68"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="98"/>
+      <c r="AS41" s="98"/>
+      <c r="AT41" s="98"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="53"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="53"/>
+      <c r="BE41" s="53"/>
+      <c r="BF41" s="53"/>
+      <c r="BG41" s="53"/>
+      <c r="BH41" s="53"/>
+      <c r="BI41" s="13"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="53"/>
+      <c r="BL41" s="53"/>
+      <c r="BM41" s="53"/>
+      <c r="BN41" s="68"/>
+    </row>
+    <row r="42" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="120">
+        <v>20</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="117"/>
+      <c r="E42" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="121"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="92"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="100"/>
+      <c r="AQ42" s="29"/>
+      <c r="AR42" s="98"/>
+      <c r="AS42" s="98"/>
+      <c r="AT42" s="98"/>
+      <c r="AU42" s="13"/>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="98"/>
+      <c r="AY42" s="53"/>
+      <c r="AZ42" s="53"/>
+      <c r="BA42" s="53"/>
+      <c r="BB42" s="13"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="53"/>
+      <c r="BE42" s="53"/>
+      <c r="BF42" s="53"/>
+      <c r="BG42" s="53"/>
+      <c r="BH42" s="53"/>
+      <c r="BI42" s="13"/>
+      <c r="BJ42" s="19"/>
+      <c r="BK42" s="53"/>
+      <c r="BL42" s="53"/>
+      <c r="BM42" s="53"/>
+      <c r="BN42" s="68"/>
+    </row>
+    <row r="43" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="120"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="98"/>
+      <c r="AS43" s="98"/>
+      <c r="AT43" s="98"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="13"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="53"/>
+      <c r="BE43" s="53"/>
+      <c r="BF43" s="53"/>
+      <c r="BG43" s="53"/>
+      <c r="BH43" s="53"/>
+      <c r="BI43" s="13"/>
+      <c r="BJ43" s="19"/>
+      <c r="BK43" s="53"/>
+      <c r="BL43" s="53"/>
+      <c r="BM43" s="53"/>
+      <c r="BN43" s="68"/>
+    </row>
+    <row r="44" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
+      <c r="A44" s="120">
+        <v>21</v>
+      </c>
+      <c r="B44" s="111"/>
+      <c r="C44" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="117"/>
+      <c r="E44" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="121"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="100"/>
+      <c r="AQ44" s="29"/>
+      <c r="AR44" s="98"/>
+      <c r="AS44" s="98"/>
+      <c r="AT44" s="98"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="98"/>
+      <c r="AY44" s="98"/>
+      <c r="AZ44" s="98"/>
+      <c r="BA44" s="98"/>
+      <c r="BB44" s="13"/>
+      <c r="BC44" s="19"/>
+      <c r="BD44" s="98"/>
+      <c r="BE44" s="98"/>
+      <c r="BF44" s="53"/>
+      <c r="BG44" s="53"/>
+      <c r="BH44" s="53"/>
+      <c r="BI44" s="13"/>
+      <c r="BJ44" s="19"/>
+      <c r="BK44" s="53"/>
+      <c r="BL44" s="53"/>
+      <c r="BM44" s="53"/>
+      <c r="BN44" s="68"/>
+    </row>
+    <row r="45" spans="1:66" s="90" customFormat="1" ht="18" customHeight="1">
+      <c r="A45" s="120"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="53"/>
+      <c r="AS45" s="53"/>
+      <c r="AT45" s="53"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="98"/>
+      <c r="AY45" s="98"/>
+      <c r="AZ45" s="98"/>
+      <c r="BA45" s="98"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="98"/>
+      <c r="BE45" s="98"/>
+      <c r="BF45" s="53"/>
+      <c r="BG45" s="53"/>
+      <c r="BH45" s="53"/>
+      <c r="BI45" s="13"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="53"/>
+      <c r="BL45" s="53"/>
+      <c r="BM45" s="53"/>
+      <c r="BN45" s="68"/>
+    </row>
+    <row r="46" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A46" s="120">
+        <v>22</v>
+      </c>
+      <c r="B46" s="111"/>
+      <c r="C46" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="117"/>
+      <c r="E46" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="121"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="68"/>
+      <c r="AK46" s="78"/>
+      <c r="AL46" s="53"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="100"/>
+      <c r="AQ46" s="53"/>
+      <c r="AR46" s="53"/>
+      <c r="AS46" s="53"/>
+      <c r="AT46" s="53"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="98"/>
+      <c r="AY46" s="98"/>
+      <c r="AZ46" s="98"/>
+      <c r="BA46" s="98"/>
+      <c r="BB46" s="13"/>
+      <c r="BC46" s="19"/>
+      <c r="BD46" s="98"/>
+      <c r="BE46" s="98"/>
+      <c r="BF46" s="53"/>
+      <c r="BG46" s="53"/>
+      <c r="BH46" s="53"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="19"/>
+      <c r="BK46" s="98"/>
+      <c r="BL46" s="98"/>
+      <c r="BM46" s="98"/>
+      <c r="BN46" s="204"/>
+    </row>
+    <row r="47" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A47" s="120"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="78"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="98"/>
+      <c r="AY47" s="98"/>
+      <c r="AZ47" s="98"/>
+      <c r="BA47" s="98"/>
+      <c r="BB47" s="13"/>
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="98"/>
+      <c r="BE47" s="98"/>
+      <c r="BF47" s="53"/>
+      <c r="BG47" s="53"/>
+      <c r="BH47" s="53"/>
+      <c r="BI47" s="13"/>
+      <c r="BJ47" s="19"/>
+      <c r="BK47" s="98"/>
+      <c r="BL47" s="98"/>
+      <c r="BM47" s="98"/>
+      <c r="BN47" s="204"/>
+    </row>
+    <row r="48" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="120">
+        <v>23</v>
+      </c>
+      <c r="B48" s="111"/>
+      <c r="C48" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="117"/>
+      <c r="E48" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="114"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="68"/>
+      <c r="AK48" s="78"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="98"/>
+      <c r="AQ48" s="29"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="19"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="100"/>
+      <c r="AY48" s="29"/>
+      <c r="AZ48" s="98"/>
+      <c r="BA48" s="98"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="19"/>
+      <c r="BD48" s="100"/>
+      <c r="BE48" s="98"/>
+      <c r="BF48" s="98"/>
+      <c r="BG48" s="98"/>
+      <c r="BH48" s="98"/>
+      <c r="BI48" s="13"/>
+      <c r="BJ48" s="19"/>
+      <c r="BK48" s="98"/>
+      <c r="BL48" s="98"/>
+      <c r="BM48" s="98"/>
+      <c r="BN48" s="204"/>
+    </row>
+    <row r="49" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="120"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="68"/>
+      <c r="AK49" s="78"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="53"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="53"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="53"/>
+      <c r="AS49" s="53"/>
+      <c r="AT49" s="53"/>
+      <c r="AU49" s="13"/>
+      <c r="AV49" s="19"/>
+      <c r="AW49" s="19"/>
+      <c r="AX49" s="98"/>
+      <c r="AY49" s="98"/>
+      <c r="AZ49" s="98"/>
+      <c r="BA49" s="98"/>
+      <c r="BB49" s="13"/>
+      <c r="BC49" s="19"/>
+      <c r="BD49" s="98"/>
+      <c r="BE49" s="98"/>
+      <c r="BF49" s="98"/>
+      <c r="BG49" s="98"/>
+      <c r="BH49" s="98"/>
+      <c r="BI49" s="13"/>
+      <c r="BJ49" s="19"/>
+      <c r="BK49" s="98"/>
+      <c r="BL49" s="98"/>
+      <c r="BM49" s="98"/>
+      <c r="BN49" s="204"/>
+    </row>
+    <row r="50" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="120">
+        <v>24</v>
+      </c>
+      <c r="B50" s="111"/>
+      <c r="C50" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="127"/>
+      <c r="E50" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="121"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="68"/>
+      <c r="AK50" s="78"/>
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="19"/>
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="98"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="29"/>
+      <c r="AT50" s="53"/>
+      <c r="AU50" s="13"/>
+      <c r="AV50" s="19"/>
+      <c r="AW50" s="19"/>
+      <c r="AX50" s="100"/>
+      <c r="AY50" s="29"/>
+      <c r="AZ50" s="29"/>
+      <c r="BA50" s="53"/>
+      <c r="BB50" s="13"/>
+      <c r="BC50" s="19"/>
+      <c r="BD50" s="100"/>
+      <c r="BE50" s="98"/>
+      <c r="BF50" s="98"/>
+      <c r="BG50" s="98"/>
+      <c r="BH50" s="98"/>
+      <c r="BI50" s="13"/>
+      <c r="BJ50" s="19"/>
+      <c r="BK50" s="98"/>
+      <c r="BL50" s="98"/>
+      <c r="BM50" s="98"/>
+      <c r="BN50" s="204"/>
+    </row>
+    <row r="51" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A51" s="120"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="68"/>
+      <c r="AK51" s="78"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53"/>
+      <c r="AT51" s="53"/>
+      <c r="AU51" s="13"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="53"/>
+      <c r="BA51" s="53"/>
+      <c r="BB51" s="13"/>
+      <c r="BC51" s="19"/>
+      <c r="BD51" s="98"/>
+      <c r="BE51" s="98"/>
+      <c r="BF51" s="98"/>
+      <c r="BG51" s="98"/>
+      <c r="BH51" s="98"/>
+      <c r="BI51" s="13"/>
+      <c r="BJ51" s="19"/>
+      <c r="BK51" s="98"/>
+      <c r="BL51" s="98"/>
+      <c r="BM51" s="98"/>
+      <c r="BN51" s="204"/>
+    </row>
+    <row r="52" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A52" s="120">
+        <v>25</v>
+      </c>
+      <c r="B52" s="111"/>
+      <c r="C52" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="127"/>
+      <c r="E52" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="114"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="53"/>
+      <c r="AD52" s="53"/>
+      <c r="AE52" s="53"/>
+      <c r="AF52" s="53"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="53"/>
+      <c r="AJ52" s="68"/>
+      <c r="AK52" s="78"/>
+      <c r="AL52" s="53"/>
+      <c r="AM52" s="53"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="53"/>
+      <c r="AQ52" s="53"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="29"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="13"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="100"/>
+      <c r="AY52" s="53"/>
+      <c r="AZ52" s="29"/>
+      <c r="BA52" s="29"/>
+      <c r="BB52" s="13"/>
+      <c r="BC52" s="19"/>
+      <c r="BD52" s="100"/>
+      <c r="BE52" s="98"/>
+      <c r="BF52" s="98"/>
+      <c r="BG52" s="98"/>
+      <c r="BH52" s="98"/>
+      <c r="BI52" s="13"/>
+      <c r="BJ52" s="19"/>
+      <c r="BK52" s="98"/>
+      <c r="BL52" s="98"/>
+      <c r="BM52" s="98"/>
+      <c r="BN52" s="204"/>
+    </row>
+    <row r="53" spans="1:66" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A53" s="120"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="57"/>
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="66"/>
+      <c r="AK53" s="76"/>
+      <c r="AL53" s="57"/>
+      <c r="AM53" s="57"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="57"/>
+      <c r="AR53" s="57"/>
+      <c r="AS53" s="57"/>
+      <c r="AT53" s="57"/>
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="57"/>
+      <c r="AY53" s="57"/>
+      <c r="AZ53" s="57"/>
+      <c r="BA53" s="57"/>
+      <c r="BB53" s="17"/>
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="104"/>
+      <c r="BE53" s="104"/>
+      <c r="BF53" s="104"/>
+      <c r="BG53" s="104"/>
+      <c r="BH53" s="104"/>
+      <c r="BI53" s="17"/>
+      <c r="BJ53" s="23"/>
+      <c r="BK53" s="104"/>
+      <c r="BL53" s="104"/>
+      <c r="BM53" s="104"/>
+      <c r="BN53" s="205"/>
+    </row>
+    <row r="54" spans="1:66" ht="12" customHeight="1">
+      <c r="A54" s="120">
+        <v>26</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="143"/>
+      <c r="E54" s="144" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="146"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="89"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="16"/>
+      <c r="AO54" s="22"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="52"/>
+      <c r="AS54" s="52"/>
+      <c r="AT54" s="52"/>
+      <c r="AU54" s="16"/>
+      <c r="AV54" s="22"/>
+      <c r="AW54" s="22"/>
+      <c r="AX54" s="52"/>
+      <c r="AY54" s="52"/>
+      <c r="AZ54" s="52"/>
+      <c r="BA54" s="52"/>
+      <c r="BB54" s="16"/>
+      <c r="BC54" s="22"/>
+      <c r="BD54" s="39"/>
+      <c r="BE54" s="39"/>
+      <c r="BF54" s="39"/>
+      <c r="BG54" s="52"/>
+      <c r="BH54" s="52"/>
+      <c r="BI54" s="16"/>
+      <c r="BJ54" s="22"/>
+      <c r="BK54" s="103"/>
+      <c r="BL54" s="39"/>
+      <c r="BM54" s="39"/>
+      <c r="BN54" s="206"/>
+    </row>
+    <row r="55" spans="1:66" ht="12" customHeight="1">
+      <c r="A55" s="120"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="53"/>
+      <c r="AE55" s="53"/>
+      <c r="AF55" s="53"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="53"/>
+      <c r="AJ55" s="68"/>
+      <c r="AK55" s="78"/>
+      <c r="AL55" s="53"/>
+      <c r="AM55" s="53"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="53"/>
+      <c r="AQ55" s="53"/>
+      <c r="AR55" s="53"/>
+      <c r="AS55" s="53"/>
+      <c r="AT55" s="53"/>
+      <c r="AU55" s="13"/>
+      <c r="AV55" s="19"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="53"/>
+      <c r="AY55" s="53"/>
+      <c r="AZ55" s="53"/>
+      <c r="BA55" s="53"/>
+      <c r="BB55" s="13"/>
+      <c r="BC55" s="19"/>
+      <c r="BD55" s="53"/>
+      <c r="BE55" s="53"/>
+      <c r="BF55" s="53"/>
+      <c r="BG55" s="53"/>
+      <c r="BH55" s="53"/>
+      <c r="BI55" s="13"/>
+      <c r="BJ55" s="19"/>
+      <c r="BK55" s="53"/>
+      <c r="BL55" s="98"/>
+      <c r="BM55" s="98"/>
+      <c r="BN55" s="204"/>
+    </row>
+    <row r="56" spans="1:66" ht="12" customHeight="1">
+      <c r="A56" s="120">
+        <v>27</v>
+      </c>
+      <c r="B56" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="123"/>
+      <c r="E56" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="136"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="55"/>
+      <c r="AY56" s="55"/>
+      <c r="AZ56" s="55"/>
+      <c r="BA56" s="55"/>
+      <c r="BB56" s="15"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="55"/>
+      <c r="BE56" s="38"/>
+      <c r="BF56" s="38"/>
+      <c r="BG56" s="38"/>
+      <c r="BH56" s="38"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="21"/>
+      <c r="BK56" s="101"/>
+      <c r="BL56" s="38"/>
+      <c r="BM56" s="38"/>
+      <c r="BN56" s="96"/>
+    </row>
+    <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
+      <c r="A57" s="130"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="58"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="58"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="79"/>
+      <c r="AL57" s="58"/>
+      <c r="AM57" s="58"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="58"/>
+      <c r="AQ57" s="58"/>
+      <c r="AR57" s="58"/>
+      <c r="AS57" s="58"/>
+      <c r="AT57" s="58"/>
+      <c r="AU57" s="14"/>
+      <c r="AV57" s="20"/>
+      <c r="AW57" s="20"/>
+      <c r="AX57" s="58"/>
+      <c r="AY57" s="58"/>
+      <c r="AZ57" s="58"/>
+      <c r="BA57" s="58"/>
+      <c r="BB57" s="14"/>
+      <c r="BC57" s="20"/>
+      <c r="BD57" s="58"/>
+      <c r="BE57" s="58"/>
+      <c r="BF57" s="58"/>
+      <c r="BG57" s="58"/>
+      <c r="BH57" s="58"/>
+      <c r="BI57" s="14"/>
+      <c r="BJ57" s="20"/>
+      <c r="BK57" s="58"/>
+      <c r="BL57" s="58"/>
+      <c r="BM57" s="58"/>
+      <c r="BN57" s="69"/>
+    </row>
+    <row r="58" spans="1:66" ht="9.6" customHeight="1">
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+    </row>
+    <row r="59" spans="1:66">
+      <c r="A59" s="27"/>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:66" ht="9.6" customHeight="1">
+      <c r="A60" s="28"/>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:66">
+      <c r="A61" s="99"/>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="118">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90770753-FE5E-43AD-879E-E97E55EE1E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6335B-2CEB-4556-B82D-4A9C3A7DE843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="864" windowWidth="12732" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="15" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1786,284 +1786,290 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3095,94 +3101,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="191" t="s">
+      <c r="D1" s="141"/>
+      <c r="E1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="194" t="s">
+      <c r="F1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="165">
+      <c r="G1" s="114">
         <v>45536</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="165">
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="114">
         <v>45566</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="166"/>
-      <c r="AY1" s="166"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="166"/>
-      <c r="BB1" s="166"/>
-      <c r="BC1" s="166"/>
-      <c r="BD1" s="166"/>
-      <c r="BE1" s="166"/>
-      <c r="BF1" s="166"/>
-      <c r="BG1" s="166"/>
-      <c r="BH1" s="166"/>
-      <c r="BI1" s="166"/>
-      <c r="BJ1" s="166"/>
-      <c r="BK1" s="166"/>
-      <c r="BL1" s="166"/>
-      <c r="BM1" s="166"/>
-      <c r="BN1" s="167"/>
+      <c r="AL1" s="115"/>
+      <c r="AM1" s="115"/>
+      <c r="AN1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="116"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="180"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="195"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3424,12 +3430,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="196"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3612,20 +3618,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="168">
+      <c r="A4" s="117">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171" t="s">
+      <c r="D4" s="119"/>
+      <c r="E4" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="79"/>
       <c r="H4" s="99"/>
       <c r="I4" s="99"/>
@@ -3688,12 +3694,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="80"/>
       <c r="H5" s="100"/>
       <c r="I5" s="100"/>
@@ -3756,18 +3762,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="114">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="175" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3830,12 +3836,12 @@
       <c r="BN6" s="103"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3898,20 +3904,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="114">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
       <c r="B8" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="119"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3974,12 +3980,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="102"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -4042,18 +4048,18 @@
       <c r="BN9" s="103"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="114">
+      <c r="A10" s="105">
         <v>4</v>
       </c>
       <c r="B10" s="102"/>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="109" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -4116,12 +4122,12 @@
       <c r="BN10" s="103"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="114"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="102"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -4184,18 +4190,18 @@
       <c r="BN11" s="103"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="114">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="102"/>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="109" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -4258,12 +4264,12 @@
       <c r="BN12" s="103"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="114"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -4326,20 +4332,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="114">
+      <c r="A14" s="105">
         <v>6</v>
       </c>
       <c r="B14" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="153" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -4402,12 +4408,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="114"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="133"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4470,18 +4476,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="114">
+      <c r="A16" s="105">
         <v>7</v>
       </c>
       <c r="B16" s="102"/>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="127"/>
+      <c r="E16" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="132"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4544,12 +4550,12 @@
       <c r="BN16" s="103"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="114"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="102"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4612,20 +4618,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="114">
+      <c r="A18" s="105">
         <v>8</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="144" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="145"/>
+      <c r="F18" s="162"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4688,12 +4694,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="114"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="102"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="133"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4756,18 +4762,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="114">
+      <c r="A20" s="105">
         <v>9</v>
       </c>
       <c r="B20" s="102"/>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="148" t="s">
+      <c r="D20" s="127"/>
+      <c r="E20" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="156"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4830,12 +4836,12 @@
       <c r="BN20" s="103"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="114"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="102"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="133"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4898,18 +4904,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="114">
+      <c r="A22" s="105">
         <v>10</v>
       </c>
       <c r="B22" s="102"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="148" t="s">
+      <c r="D22" s="127"/>
+      <c r="E22" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="132"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4972,12 +4978,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="114"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5040,20 +5046,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="114">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="144" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="145"/>
+      <c r="F24" s="162"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5116,12 +5122,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="114"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="102"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="133"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="163"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5184,18 +5190,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="114">
+      <c r="A26" s="105">
         <v>12</v>
       </c>
       <c r="B26" s="102"/>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="148" t="s">
+      <c r="D26" s="127"/>
+      <c r="E26" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="132"/>
+      <c r="F26" s="156"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5258,12 +5264,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="114"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="102"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="133"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="163"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5326,18 +5332,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="114">
+      <c r="A28" s="105">
         <v>13</v>
       </c>
       <c r="B28" s="102"/>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="134" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="132"/>
+      <c r="F28" s="156"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -5400,12 +5406,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="114"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="102"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="133"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5468,18 +5474,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="114">
+      <c r="A30" s="105">
         <v>14</v>
       </c>
       <c r="B30" s="102"/>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="109" t="s">
+      <c r="D30" s="127"/>
+      <c r="E30" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="108"/>
+      <c r="F30" s="113"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5542,12 +5548,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="114"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="102"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="108"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="113"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5610,18 +5616,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="114">
+      <c r="A32" s="105">
         <v>15</v>
       </c>
       <c r="B32" s="102"/>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109" t="s">
+      <c r="D32" s="127"/>
+      <c r="E32" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="108"/>
+      <c r="F32" s="113"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5684,12 +5690,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="114"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="102"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="108"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5752,18 +5758,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="114">
+      <c r="A34" s="105">
         <v>16</v>
       </c>
       <c r="B34" s="102"/>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109" t="s">
+      <c r="D34" s="127"/>
+      <c r="E34" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="108"/>
+      <c r="F34" s="113"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5826,12 +5832,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="114"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="102"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="108"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="113"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5894,18 +5900,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="114">
+      <c r="A36" s="105">
         <v>17</v>
       </c>
       <c r="B36" s="102"/>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="109" t="s">
+      <c r="D36" s="177"/>
+      <c r="E36" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="108"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5968,12 +5974,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="114"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="102"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="108"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="113"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -6036,18 +6042,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="114">
+      <c r="A38" s="105">
         <v>18</v>
       </c>
       <c r="B38" s="102"/>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="109" t="s">
+      <c r="D38" s="177"/>
+      <c r="E38" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="108"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -6110,12 +6116,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="114"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="102"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="143"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6178,20 +6184,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="114">
+      <c r="A40" s="105">
         <v>19</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="117"/>
-      <c r="E40" s="118" t="s">
+      <c r="D40" s="159"/>
+      <c r="E40" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="119"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6254,12 +6260,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="108"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -6322,18 +6328,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="114">
+      <c r="A42" s="105">
         <v>20</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="110" t="s">
+      <c r="B42" s="194"/>
+      <c r="C42" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109" t="s">
+      <c r="D42" s="127"/>
+      <c r="E42" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="115"/>
+      <c r="F42" s="186"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6396,12 +6402,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="114"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="115"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="186"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6464,18 +6470,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="114">
+      <c r="A44" s="105">
         <v>21</v>
       </c>
       <c r="B44" s="102"/>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109" t="s">
+      <c r="D44" s="127"/>
+      <c r="E44" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="115"/>
+      <c r="F44" s="186"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6538,12 +6544,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="114"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="115"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="186"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6606,18 +6612,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="114">
+      <c r="A46" s="105">
         <v>22</v>
       </c>
       <c r="B46" s="102"/>
-      <c r="C46" s="123" t="s">
+      <c r="C46" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109" t="s">
+      <c r="D46" s="127"/>
+      <c r="E46" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="115"/>
+      <c r="F46" s="186"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6680,12 +6686,12 @@
       <c r="BN46" s="65"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="114"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="102"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="115"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="186"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6748,18 +6754,18 @@
       <c r="BN47" s="65"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="114">
+      <c r="A48" s="105">
         <v>23</v>
       </c>
       <c r="B48" s="102"/>
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109" t="s">
+      <c r="D48" s="127"/>
+      <c r="E48" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="108"/>
+      <c r="F48" s="113"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6822,12 +6828,12 @@
       <c r="BN48" s="65"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="114"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="102"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="108"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="113"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6890,18 +6896,18 @@
       <c r="BN49" s="65"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="114">
+      <c r="A50" s="105">
         <v>24</v>
       </c>
       <c r="B50" s="102"/>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="109" t="s">
+      <c r="D50" s="177"/>
+      <c r="E50" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="115"/>
+      <c r="F50" s="186"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6964,12 +6970,12 @@
       <c r="BN50" s="65"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="114"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="115"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="186"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7032,18 +7038,18 @@
       <c r="BN51" s="65"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="114">
+      <c r="A52" s="105">
         <v>25</v>
       </c>
       <c r="B52" s="102"/>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="121"/>
-      <c r="E52" s="109" t="s">
+      <c r="D52" s="177"/>
+      <c r="E52" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="108"/>
+      <c r="F52" s="113"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7106,12 +7112,12 @@
       <c r="BN52" s="65"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="114"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="143"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="167"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -7174,20 +7180,20 @@
       <c r="BN53" s="63"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="114">
+      <c r="A54" s="105">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="136" t="s">
+      <c r="C54" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="137"/>
-      <c r="E54" s="138" t="s">
+      <c r="D54" s="188"/>
+      <c r="E54" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="140"/>
+      <c r="F54" s="191"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -7240,22 +7246,22 @@
       <c r="BD54" s="37"/>
       <c r="BE54" s="37"/>
       <c r="BF54" s="37"/>
-      <c r="BG54" s="37"/>
-      <c r="BH54" s="37"/>
+      <c r="BG54" s="196"/>
+      <c r="BH54" s="196"/>
       <c r="BI54" s="16"/>
       <c r="BJ54" s="22"/>
       <c r="BK54" s="96"/>
       <c r="BL54" s="37"/>
       <c r="BM54" s="37"/>
-      <c r="BN54" s="104"/>
+      <c r="BN54" s="198"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="114"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="141"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="192"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7318,20 +7324,20 @@
       <c r="BN55" s="103"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="114">
+      <c r="A56" s="105">
         <v>27</v>
       </c>
-      <c r="B56" s="125" t="s">
+      <c r="B56" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="117"/>
-      <c r="E56" s="125" t="s">
+      <c r="D56" s="159"/>
+      <c r="E56" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="130"/>
+      <c r="F56" s="184"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -7381,25 +7387,25 @@
       <c r="BA56" s="53"/>
       <c r="BB56" s="15"/>
       <c r="BC56" s="21"/>
-      <c r="BD56" s="36"/>
-      <c r="BE56" s="36"/>
+      <c r="BD56" s="197"/>
+      <c r="BE56" s="197"/>
       <c r="BF56" s="36"/>
       <c r="BG56" s="36"/>
       <c r="BH56" s="36"/>
       <c r="BI56" s="15"/>
       <c r="BJ56" s="21"/>
       <c r="BK56" s="95"/>
-      <c r="BL56" s="36"/>
+      <c r="BL56" s="197"/>
       <c r="BM56" s="36"/>
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="124"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="131"/>
+      <c r="A57" s="179"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="185"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7459,7 +7465,7 @@
       <c r="BK57" s="11"/>
       <c r="BL57" s="11"/>
       <c r="BM57" s="11"/>
-      <c r="BN57" s="105"/>
+      <c r="BN57" s="104"/>
     </row>
     <row r="58" spans="1:66" ht="9.6" customHeight="1">
       <c r="Z58" s="5"/>
@@ -7485,78 +7491,28 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
@@ -7581,28 +7537,78 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7630,7 +7636,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -7647,94 +7653,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="191" t="s">
+      <c r="D1" s="141"/>
+      <c r="E1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="194" t="s">
+      <c r="F1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="165">
+      <c r="G1" s="114">
         <v>45536</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="165">
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="114">
         <v>45566</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="166"/>
-      <c r="AY1" s="166"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="166"/>
-      <c r="BB1" s="166"/>
-      <c r="BC1" s="166"/>
-      <c r="BD1" s="166"/>
-      <c r="BE1" s="166"/>
-      <c r="BF1" s="166"/>
-      <c r="BG1" s="166"/>
-      <c r="BH1" s="166"/>
-      <c r="BI1" s="166"/>
-      <c r="BJ1" s="166"/>
-      <c r="BK1" s="166"/>
-      <c r="BL1" s="166"/>
-      <c r="BM1" s="166"/>
-      <c r="BN1" s="167"/>
+      <c r="AL1" s="115"/>
+      <c r="AM1" s="115"/>
+      <c r="AN1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="116"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="180"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="195"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -7976,12 +7982,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="196"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -8164,20 +8170,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="168">
+      <c r="A4" s="117">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171" t="s">
+      <c r="D4" s="119"/>
+      <c r="E4" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="79"/>
       <c r="H4" s="99"/>
       <c r="I4" s="99"/>
@@ -8240,12 +8246,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="80"/>
       <c r="H5" s="100"/>
       <c r="I5" s="100"/>
@@ -8308,18 +8314,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="114">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="175" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -8382,12 +8388,12 @@
       <c r="BN6" s="103"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -8450,20 +8456,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="114">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
       <c r="B8" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="119"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -8526,12 +8532,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="102"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -8594,18 +8600,18 @@
       <c r="BN9" s="103"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="114">
+      <c r="A10" s="105">
         <v>4</v>
       </c>
       <c r="B10" s="102"/>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="109" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -8668,12 +8674,12 @@
       <c r="BN10" s="103"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="114"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="102"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -8736,18 +8742,18 @@
       <c r="BN11" s="103"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="114">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="102"/>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="109" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -8810,12 +8816,12 @@
       <c r="BN12" s="103"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="114"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -8878,20 +8884,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="114">
+      <c r="A14" s="105">
         <v>6</v>
       </c>
       <c r="B14" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="153" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -8954,12 +8960,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="114"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="133"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -9022,18 +9028,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="114">
+      <c r="A16" s="105">
         <v>7</v>
       </c>
       <c r="B16" s="102"/>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="127"/>
+      <c r="E16" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="132"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -9096,12 +9102,12 @@
       <c r="BN16" s="103"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="114"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="102"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -9164,20 +9170,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="114">
+      <c r="A18" s="105">
         <v>8</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="144" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="145"/>
+      <c r="F18" s="162"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -9240,12 +9246,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="114"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="102"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="133"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -9308,18 +9314,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="114">
+      <c r="A20" s="105">
         <v>9</v>
       </c>
       <c r="B20" s="102"/>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="148" t="s">
+      <c r="D20" s="127"/>
+      <c r="E20" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="156"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -9382,12 +9388,12 @@
       <c r="BN20" s="103"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="114"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="102"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="133"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -9450,18 +9456,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="114">
+      <c r="A22" s="105">
         <v>10</v>
       </c>
       <c r="B22" s="102"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="148" t="s">
+      <c r="D22" s="127"/>
+      <c r="E22" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="132"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -9524,12 +9530,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="114"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -9592,20 +9598,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="114">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="144" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="145"/>
+      <c r="F24" s="162"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -9668,12 +9674,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="114"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="102"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="133"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="163"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -9736,18 +9742,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="114">
+      <c r="A26" s="105">
         <v>12</v>
       </c>
       <c r="B26" s="102"/>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="148" t="s">
+      <c r="D26" s="127"/>
+      <c r="E26" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="132"/>
+      <c r="F26" s="156"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -9810,12 +9816,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="114"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="102"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="133"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="163"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -9878,18 +9884,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="114">
+      <c r="A28" s="105">
         <v>13</v>
       </c>
       <c r="B28" s="102"/>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="134" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="132"/>
+      <c r="F28" s="156"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -9952,12 +9958,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="114"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="102"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="133"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -10020,18 +10026,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="114">
+      <c r="A30" s="105">
         <v>14</v>
       </c>
       <c r="B30" s="102"/>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="109" t="s">
+      <c r="D30" s="127"/>
+      <c r="E30" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="108"/>
+      <c r="F30" s="113"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -10094,12 +10100,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="114"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="102"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="108"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="113"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -10162,18 +10168,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="114">
+      <c r="A32" s="105">
         <v>15</v>
       </c>
       <c r="B32" s="102"/>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109" t="s">
+      <c r="D32" s="127"/>
+      <c r="E32" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="108"/>
+      <c r="F32" s="113"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -10236,12 +10242,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="114"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="102"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="108"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -10304,18 +10310,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="114">
+      <c r="A34" s="105">
         <v>16</v>
       </c>
       <c r="B34" s="102"/>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109" t="s">
+      <c r="D34" s="127"/>
+      <c r="E34" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="108"/>
+      <c r="F34" s="113"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -10378,12 +10384,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="114"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="102"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="108"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="113"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -10446,18 +10452,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="114">
+      <c r="A36" s="105">
         <v>17</v>
       </c>
       <c r="B36" s="102"/>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="109" t="s">
+      <c r="D36" s="177"/>
+      <c r="E36" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="108"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -10520,12 +10526,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="114"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="102"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="108"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="113"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -10588,18 +10594,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="114">
+      <c r="A38" s="105">
         <v>18</v>
       </c>
       <c r="B38" s="102"/>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="109" t="s">
+      <c r="D38" s="177"/>
+      <c r="E38" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="108"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -10662,12 +10668,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="114"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="102"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="143"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -10730,20 +10736,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="114">
+      <c r="A40" s="105">
         <v>19</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="117"/>
-      <c r="E40" s="118" t="s">
+      <c r="D40" s="159"/>
+      <c r="E40" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="119"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -10806,12 +10812,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="108"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -10874,18 +10880,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="114">
+      <c r="A42" s="105">
         <v>20</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="110" t="s">
+      <c r="B42" s="194"/>
+      <c r="C42" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109" t="s">
+      <c r="D42" s="127"/>
+      <c r="E42" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="115"/>
+      <c r="F42" s="186"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -10948,12 +10954,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="114"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="115"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="186"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -11016,18 +11022,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="114">
+      <c r="A44" s="105">
         <v>21</v>
       </c>
       <c r="B44" s="102"/>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109" t="s">
+      <c r="D44" s="127"/>
+      <c r="E44" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="115"/>
+      <c r="F44" s="186"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -11090,12 +11096,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="114"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="115"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="186"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -11158,18 +11164,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="114">
+      <c r="A46" s="105">
         <v>22</v>
       </c>
       <c r="B46" s="102"/>
-      <c r="C46" s="123" t="s">
+      <c r="C46" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109" t="s">
+      <c r="D46" s="127"/>
+      <c r="E46" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="115"/>
+      <c r="F46" s="186"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -11232,12 +11238,12 @@
       <c r="BN46" s="103"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="114"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="102"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="115"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="186"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -11300,18 +11306,18 @@
       <c r="BN47" s="103"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="114">
+      <c r="A48" s="105">
         <v>23</v>
       </c>
       <c r="B48" s="102"/>
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109" t="s">
+      <c r="D48" s="127"/>
+      <c r="E48" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="108"/>
+      <c r="F48" s="113"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -11374,12 +11380,12 @@
       <c r="BN48" s="103"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="114"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="102"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="108"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="113"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -11442,18 +11448,18 @@
       <c r="BN49" s="103"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="114">
+      <c r="A50" s="105">
         <v>24</v>
       </c>
       <c r="B50" s="102"/>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="109" t="s">
+      <c r="D50" s="177"/>
+      <c r="E50" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="115"/>
+      <c r="F50" s="186"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -11516,12 +11522,12 @@
       <c r="BN50" s="103"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="114"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="115"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="186"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -11584,18 +11590,18 @@
       <c r="BN51" s="103"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="114">
+      <c r="A52" s="105">
         <v>25</v>
       </c>
       <c r="B52" s="102"/>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="121"/>
-      <c r="E52" s="109" t="s">
+      <c r="D52" s="177"/>
+      <c r="E52" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="108"/>
+      <c r="F52" s="113"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -11658,12 +11664,12 @@
       <c r="BN52" s="103"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="114"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="143"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="167"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -11726,20 +11732,20 @@
       <c r="BN53" s="83"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="114">
+      <c r="A54" s="105">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="136" t="s">
+      <c r="C54" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="137"/>
-      <c r="E54" s="138" t="s">
+      <c r="D54" s="188"/>
+      <c r="E54" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="140"/>
+      <c r="F54" s="191"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -11791,7 +11797,7 @@
       <c r="BC54" s="22"/>
       <c r="BD54" s="37"/>
       <c r="BE54" s="37"/>
-      <c r="BF54" s="37"/>
+      <c r="BF54" s="196"/>
       <c r="BG54" s="50"/>
       <c r="BH54" s="50"/>
       <c r="BI54" s="16"/>
@@ -11799,15 +11805,15 @@
       <c r="BK54" s="96"/>
       <c r="BL54" s="37"/>
       <c r="BM54" s="37"/>
-      <c r="BN54" s="104"/>
+      <c r="BN54" s="198"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="114"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="141"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="192"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -11870,20 +11876,20 @@
       <c r="BN55" s="103"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="114">
+      <c r="A56" s="105">
         <v>27</v>
       </c>
-      <c r="B56" s="125" t="s">
+      <c r="B56" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="117"/>
-      <c r="E56" s="125" t="s">
+      <c r="D56" s="159"/>
+      <c r="E56" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="130"/>
+      <c r="F56" s="184"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -11933,7 +11939,7 @@
       <c r="BA56" s="6"/>
       <c r="BB56" s="15"/>
       <c r="BC56" s="21"/>
-      <c r="BD56" s="36"/>
+      <c r="BD56" s="197"/>
       <c r="BE56" s="36"/>
       <c r="BF56" s="36"/>
       <c r="BG56" s="36"/>
@@ -11941,17 +11947,17 @@
       <c r="BI56" s="15"/>
       <c r="BJ56" s="21"/>
       <c r="BK56" s="95"/>
-      <c r="BL56" s="36"/>
+      <c r="BL56" s="197"/>
       <c r="BM56" s="36"/>
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="124"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="131"/>
+      <c r="A57" s="179"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="185"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -12037,19 +12043,95 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -12066,95 +12148,19 @@
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD50FEF0-0143-4082-BD8D-EA4A3AC67E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105C53E-BCF6-4FD1-9094-F6859B3AD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="144" windowWidth="14196" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール " sheetId="16" r:id="rId1"/>
@@ -427,7 +427,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -457,6 +457,13 @@
       <sz val="6"/>
       <name val="明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1483,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1811,82 +1818,124 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,36 +1944,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2084,16 +2103,10 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2671,94 +2684,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="198" t="s">
+      <c r="D1" s="197"/>
+      <c r="E1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="172">
+      <c r="G1" s="176">
         <v>45536</v>
       </c>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="172">
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="176">
         <v>45566</v>
       </c>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="173"/>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="174"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="178"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="202"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="206"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3000,12 +3013,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="203"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="207"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3188,20 +3201,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="175">
+      <c r="A4" s="179">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178" t="s">
+      <c r="D4" s="181"/>
+      <c r="E4" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="180"/>
+      <c r="F4" s="184"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3264,12 +3277,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="181"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3332,18 +3345,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="121">
+      <c r="A6" s="117">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="182" t="s">
+      <c r="D6" s="140"/>
+      <c r="E6" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3406,12 +3419,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="185"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3419,7 +3432,7 @@
       <c r="K7" s="30"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="209"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -3474,20 +3487,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="121">
+      <c r="A8" s="117">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="125" t="s">
+      <c r="D8" s="175"/>
+      <c r="E8" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="150"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3550,12 +3563,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="115"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3563,7 +3576,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="208"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
@@ -3618,18 +3631,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="121">
+      <c r="A10" s="117">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="116" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="115"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3692,12 +3705,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="115"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3760,18 +3773,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="121">
+      <c r="A12" s="117">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="116" t="s">
+      <c r="D12" s="167"/>
+      <c r="E12" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="115"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3834,12 +3847,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3902,20 +3915,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="121">
+      <c r="A14" s="117">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="160" t="s">
+      <c r="D14" s="171"/>
+      <c r="E14" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="161"/>
+      <c r="F14" s="165"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3978,12 +3991,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="140"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4046,18 +4059,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="121">
+      <c r="A16" s="117">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="141" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="139"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4120,12 +4133,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="161"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4188,20 +4201,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="121">
+      <c r="A18" s="117">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="151" t="s">
+      <c r="D18" s="122"/>
+      <c r="E18" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="152"/>
+      <c r="F18" s="156"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4231,8 +4244,8 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="21"/>
       <c r="AI18" s="97"/>
-      <c r="AJ18" s="204"/>
-      <c r="AK18" s="205"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="114"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4264,12 +4277,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="140"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4299,8 +4312,8 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="206"/>
-      <c r="AK19" s="207"/>
+      <c r="AJ19" s="115"/>
+      <c r="AK19" s="116"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
@@ -4332,18 +4345,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="121">
+      <c r="A20" s="117">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="155" t="s">
+      <c r="D20" s="140"/>
+      <c r="E20" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="153"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4406,12 +4419,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4441,8 +4454,8 @@
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="24"/>
-      <c r="AJ21" s="206"/>
-      <c r="AK21" s="207"/>
+      <c r="AJ21" s="115"/>
+      <c r="AK21" s="116"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="24"/>
       <c r="AN21" s="25"/>
@@ -4474,18 +4487,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="121">
+      <c r="A22" s="117">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="155" t="s">
+      <c r="D22" s="140"/>
+      <c r="E22" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="139"/>
+      <c r="F22" s="153"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4515,8 +4528,8 @@
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="101"/>
-      <c r="AJ22" s="206"/>
-      <c r="AK22" s="207"/>
+      <c r="AJ22" s="115"/>
+      <c r="AK22" s="116"/>
       <c r="AL22" s="52"/>
       <c r="AM22" s="52"/>
       <c r="AN22" s="25"/>
@@ -4548,12 +4561,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4616,20 +4629,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="121">
+      <c r="A24" s="117">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="151" t="s">
+      <c r="D24" s="122"/>
+      <c r="E24" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="152"/>
+      <c r="F24" s="156"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4692,12 +4705,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4760,18 +4773,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="121">
+      <c r="A26" s="117">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="155" t="s">
+      <c r="D26" s="140"/>
+      <c r="E26" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="139"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4834,12 +4847,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="140"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4902,18 +4915,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="121">
+      <c r="A28" s="117">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="141" t="s">
+      <c r="D28" s="140"/>
+      <c r="E28" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="139"/>
+      <c r="F28" s="153"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4976,12 +4989,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="140"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5044,18 +5057,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="121">
+      <c r="A30" s="117">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="116" t="s">
+      <c r="D30" s="140"/>
+      <c r="E30" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="131"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5118,12 +5131,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="115"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="131"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5186,18 +5199,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="121">
+      <c r="A32" s="117">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116" t="s">
+      <c r="D32" s="140"/>
+      <c r="E32" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="115"/>
+      <c r="F32" s="131"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5260,12 +5273,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="115"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="131"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5328,18 +5341,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="121">
+      <c r="A34" s="117">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116" t="s">
+      <c r="D34" s="140"/>
+      <c r="E34" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="115"/>
+      <c r="F34" s="131"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5402,12 +5415,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="121"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="115"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="131"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5470,18 +5483,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="121">
+      <c r="A36" s="117">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="143" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="128"/>
-      <c r="E36" s="116" t="s">
+      <c r="E36" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="115"/>
+      <c r="F36" s="131"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5544,12 +5557,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="117"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="129"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="128"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="115"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="131"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5612,18 +5625,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="121">
+      <c r="A38" s="117">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="127" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="128"/>
-      <c r="E38" s="116" t="s">
+      <c r="E38" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="115"/>
+      <c r="F38" s="131"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5686,12 +5699,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="150"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="132"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5754,20 +5767,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="121">
+      <c r="A40" s="117">
         <v>19</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="125" t="s">
+      <c r="D40" s="122"/>
+      <c r="E40" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="126"/>
+      <c r="F40" s="150"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5830,12 +5843,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="115"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5898,18 +5911,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="121">
+      <c r="A42" s="117">
         <v>20</v>
       </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="117" t="s">
+      <c r="B42" s="147"/>
+      <c r="C42" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116" t="s">
+      <c r="D42" s="140"/>
+      <c r="E42" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="122"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5972,12 +5985,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="122"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="144"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6040,18 +6053,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="121">
+      <c r="A44" s="117">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="117" t="s">
+      <c r="C44" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116" t="s">
+      <c r="D44" s="140"/>
+      <c r="E44" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="122"/>
+      <c r="F44" s="144"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6114,12 +6127,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="122"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="144"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6182,18 +6195,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="121">
+      <c r="A46" s="117">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116" t="s">
+      <c r="D46" s="140"/>
+      <c r="E46" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="122"/>
+      <c r="F46" s="144"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6256,12 +6269,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="122"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="144"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6324,18 +6337,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="121">
+      <c r="A48" s="117">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116" t="s">
+      <c r="D48" s="140"/>
+      <c r="E48" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="115"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6398,12 +6411,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="115"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="131"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6466,18 +6479,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="121">
+      <c r="A50" s="117">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="143" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="128"/>
-      <c r="E50" s="116" t="s">
+      <c r="E50" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="122"/>
+      <c r="F50" s="144"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6540,12 +6553,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="117"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="129"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="128"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="122"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="144"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6608,18 +6621,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="121">
+      <c r="A52" s="117">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="129" t="s">
+      <c r="C52" s="127" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="128"/>
-      <c r="E52" s="116" t="s">
+      <c r="E52" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="115"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6682,12 +6695,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="129"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="128"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="150"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="132"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6750,20 +6763,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="121">
+      <c r="A54" s="117">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="143" t="s">
+      <c r="C54" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="144"/>
-      <c r="E54" s="145" t="s">
+      <c r="D54" s="134"/>
+      <c r="E54" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="147"/>
+      <c r="F54" s="137"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6826,12 +6839,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="121"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="129"/>
+      <c r="C55" s="127"/>
       <c r="D55" s="128"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="148"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="138"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6894,20 +6907,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="121">
+      <c r="A56" s="117">
         <v>27</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="134" t="s">
+      <c r="C56" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="132" t="s">
+      <c r="D56" s="122"/>
+      <c r="E56" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="137"/>
+      <c r="F56" s="125"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6970,12 +6983,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="131"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="138"/>
+      <c r="A57" s="118"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="126"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7061,19 +7074,95 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -7090,95 +7179,19 @@
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105C53E-BCF6-4FD1-9094-F6859B3AD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5A1EF-4DE9-445A-9CA5-B3B4FAF086D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="144" windowWidth="14196" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール " sheetId="16" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1830,9 +1830,246 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1842,12 +2079,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1860,24 +2091,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1896,217 +2109,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2684,94 +2690,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="197"/>
-      <c r="E1" s="202" t="s">
+      <c r="D1" s="147"/>
+      <c r="E1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="205" t="s">
+      <c r="F1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="176">
+      <c r="G1" s="119">
         <v>45536</v>
       </c>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="177"/>
-      <c r="AG1" s="177"/>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="176">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="119">
         <v>45566</v>
       </c>
-      <c r="AL1" s="177"/>
-      <c r="AM1" s="177"/>
-      <c r="AN1" s="177"/>
-      <c r="AO1" s="177"/>
-      <c r="AP1" s="177"/>
-      <c r="AQ1" s="177"/>
-      <c r="AR1" s="177"/>
-      <c r="AS1" s="177"/>
-      <c r="AT1" s="177"/>
-      <c r="AU1" s="177"/>
-      <c r="AV1" s="177"/>
-      <c r="AW1" s="177"/>
-      <c r="AX1" s="177"/>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="177"/>
-      <c r="BA1" s="177"/>
-      <c r="BB1" s="177"/>
-      <c r="BC1" s="177"/>
-      <c r="BD1" s="177"/>
-      <c r="BE1" s="177"/>
-      <c r="BF1" s="177"/>
-      <c r="BG1" s="177"/>
-      <c r="BH1" s="177"/>
-      <c r="BI1" s="177"/>
-      <c r="BJ1" s="177"/>
-      <c r="BK1" s="177"/>
-      <c r="BL1" s="177"/>
-      <c r="BM1" s="177"/>
-      <c r="BN1" s="178"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="120"/>
+      <c r="AW1" s="120"/>
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
+      <c r="BA1" s="120"/>
+      <c r="BB1" s="120"/>
+      <c r="BC1" s="120"/>
+      <c r="BD1" s="120"/>
+      <c r="BE1" s="120"/>
+      <c r="BF1" s="120"/>
+      <c r="BG1" s="120"/>
+      <c r="BH1" s="120"/>
+      <c r="BI1" s="120"/>
+      <c r="BJ1" s="120"/>
+      <c r="BK1" s="120"/>
+      <c r="BL1" s="120"/>
+      <c r="BM1" s="120"/>
+      <c r="BN1" s="121"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="191"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="206"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="156"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3013,12 +3019,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="192"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="207"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3201,20 +3207,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="179">
+      <c r="A4" s="122">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="182" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="184"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3277,12 +3283,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="185"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3345,18 +3351,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="117">
+      <c r="A6" s="123">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="186" t="s">
+      <c r="D6" s="133"/>
+      <c r="E6" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="188"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3419,12 +3425,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="189"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3432,7 +3438,7 @@
       <c r="K7" s="30"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="209"/>
+      <c r="N7" s="118"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -3487,7 +3493,7 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="123">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -3497,10 +3503,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="175"/>
-      <c r="E8" s="149" t="s">
+      <c r="E8" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="150"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3563,12 +3569,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="117"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="131"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="164"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3576,8 +3582,8 @@
       <c r="K9" s="51"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="51"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="210"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
@@ -3631,18 +3637,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="117">
+      <c r="A10" s="123">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="129" t="s">
+      <c r="D10" s="159"/>
+      <c r="E10" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="131"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3705,12 +3711,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="117"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="131"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3719,7 +3725,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="19"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="O11" s="210"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
@@ -3773,18 +3779,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="123">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="129" t="s">
+      <c r="D12" s="159"/>
+      <c r="E12" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="131"/>
+      <c r="F12" s="164"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3847,12 +3853,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="117"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="132"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="165"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3861,7 +3867,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="23"/>
       <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="O13" s="211"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
@@ -3915,20 +3921,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="117">
+      <c r="A14" s="123">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="164" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="165"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3991,12 +3997,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="117"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="154"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4059,18 +4065,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="117">
+      <c r="A16" s="123">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="151" t="s">
+      <c r="D16" s="133"/>
+      <c r="E16" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="153"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4133,12 +4139,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="117"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="172"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4201,20 +4207,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="117">
+      <c r="A18" s="123">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="155" t="s">
+      <c r="D18" s="186"/>
+      <c r="E18" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="156"/>
+      <c r="F18" s="188"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4277,12 +4283,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="117"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="154"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4345,18 +4351,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="123">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="159" t="s">
+      <c r="D20" s="133"/>
+      <c r="E20" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="153"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4419,12 +4425,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="117"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="154"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="173"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4487,18 +4493,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="123">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="159" t="s">
+      <c r="D22" s="133"/>
+      <c r="E22" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="153"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4561,12 +4567,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="117"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4629,20 +4635,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="123">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="155" t="s">
+      <c r="D24" s="186"/>
+      <c r="E24" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="156"/>
+      <c r="F24" s="188"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4705,12 +4711,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="117"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="154"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="173"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4773,18 +4779,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="117">
+      <c r="A26" s="123">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="159" t="s">
+      <c r="D26" s="133"/>
+      <c r="E26" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4847,12 +4853,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="117"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="154"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4915,18 +4921,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="117">
+      <c r="A28" s="123">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="151" t="s">
+      <c r="D28" s="133"/>
+      <c r="E28" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="153"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4989,12 +4995,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="117"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="154"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="173"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5057,18 +5063,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="117">
+      <c r="A30" s="123">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="140"/>
-      <c r="E30" s="129" t="s">
+      <c r="D30" s="133"/>
+      <c r="E30" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="131"/>
+      <c r="F30" s="164"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5131,12 +5137,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="117"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="131"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="164"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5199,18 +5205,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="117">
+      <c r="A32" s="123">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="129" t="s">
+      <c r="D32" s="133"/>
+      <c r="E32" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="131"/>
+      <c r="F32" s="164"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5273,12 +5279,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="117"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="131"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="164"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5341,18 +5347,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="117">
+      <c r="A34" s="123">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="129" t="s">
+      <c r="D34" s="133"/>
+      <c r="E34" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="131"/>
+      <c r="F34" s="164"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5415,12 +5421,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="117"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="131"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="164"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5483,18 +5489,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="117">
+      <c r="A36" s="123">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="129" t="s">
+      <c r="D36" s="191"/>
+      <c r="E36" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="131"/>
+      <c r="F36" s="164"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5557,12 +5563,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="117"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="131"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="164"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5625,18 +5631,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="117">
+      <c r="A38" s="123">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="129" t="s">
+      <c r="D38" s="191"/>
+      <c r="E38" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="131"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5699,12 +5705,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="117"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5767,20 +5773,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="117">
+      <c r="A40" s="123">
         <v>19</v>
       </c>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="149" t="s">
+      <c r="D40" s="186"/>
+      <c r="E40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="150"/>
+      <c r="F40" s="177"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5843,12 +5849,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="117"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="131"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="164"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5885,7 +5891,7 @@
       <c r="AN41" s="13"/>
       <c r="AO41" s="19"/>
       <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
+      <c r="AQ41" s="94"/>
       <c r="AR41" s="94"/>
       <c r="AS41" s="94"/>
       <c r="AT41" s="94"/>
@@ -5911,18 +5917,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="117">
+      <c r="A42" s="123">
         <v>20</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="139" t="s">
+      <c r="B42" s="194"/>
+      <c r="C42" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="129" t="s">
+      <c r="D42" s="133"/>
+      <c r="E42" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="144"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5959,7 +5965,7 @@
       <c r="AN42" s="13"/>
       <c r="AO42" s="19"/>
       <c r="AP42" s="96"/>
-      <c r="AQ42" s="29"/>
+      <c r="AQ42" s="94"/>
       <c r="AR42" s="94"/>
       <c r="AS42" s="94"/>
       <c r="AT42" s="94"/>
@@ -5985,12 +5991,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="117"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="144"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="196"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6027,7 +6033,7 @@
       <c r="AN43" s="13"/>
       <c r="AO43" s="19"/>
       <c r="AP43" s="51"/>
-      <c r="AQ43" s="51"/>
+      <c r="AQ43" s="94"/>
       <c r="AR43" s="94"/>
       <c r="AS43" s="94"/>
       <c r="AT43" s="94"/>
@@ -6053,18 +6059,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="117">
+      <c r="A44" s="123">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="139" t="s">
+      <c r="C44" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="129" t="s">
+      <c r="D44" s="133"/>
+      <c r="E44" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="144"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6101,7 +6107,7 @@
       <c r="AN44" s="13"/>
       <c r="AO44" s="19"/>
       <c r="AP44" s="96"/>
-      <c r="AQ44" s="29"/>
+      <c r="AQ44" s="94"/>
       <c r="AR44" s="94"/>
       <c r="AS44" s="94"/>
       <c r="AT44" s="94"/>
@@ -6127,12 +6133,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="117"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="144"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="196"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6169,9 +6175,9 @@
       <c r="AN45" s="13"/>
       <c r="AO45" s="19"/>
       <c r="AP45" s="51"/>
-      <c r="AQ45" s="51"/>
-      <c r="AR45" s="51"/>
-      <c r="AS45" s="51"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="94"/>
+      <c r="AS45" s="94"/>
       <c r="AT45" s="51"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="19"/>
@@ -6195,18 +6201,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="117">
+      <c r="A46" s="123">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="129" t="s">
+      <c r="D46" s="133"/>
+      <c r="E46" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="144"/>
+      <c r="F46" s="196"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6269,12 +6275,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="117"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="144"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="196"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6337,18 +6343,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="117">
+      <c r="A48" s="123">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="139" t="s">
+      <c r="C48" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="129" t="s">
+      <c r="D48" s="133"/>
+      <c r="E48" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="131"/>
+      <c r="F48" s="164"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6393,7 +6399,7 @@
       <c r="AV48" s="19"/>
       <c r="AW48" s="19"/>
       <c r="AX48" s="96"/>
-      <c r="AY48" s="29"/>
+      <c r="AY48" s="94"/>
       <c r="AZ48" s="94"/>
       <c r="BA48" s="94"/>
       <c r="BB48" s="13"/>
@@ -6411,12 +6417,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="117"/>
+      <c r="A49" s="123"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="131"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="164"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6479,18 +6485,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="117">
+      <c r="A50" s="123">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="143" t="s">
+      <c r="C50" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129" t="s">
+      <c r="D50" s="191"/>
+      <c r="E50" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="144"/>
+      <c r="F50" s="196"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6535,7 +6541,7 @@
       <c r="AV50" s="19"/>
       <c r="AW50" s="19"/>
       <c r="AX50" s="96"/>
-      <c r="AY50" s="29"/>
+      <c r="AY50" s="94"/>
       <c r="AZ50" s="94"/>
       <c r="BA50" s="94"/>
       <c r="BB50" s="13"/>
@@ -6553,12 +6559,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="117"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="144"/>
+      <c r="C51" s="192"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="196"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6603,7 +6609,7 @@
       <c r="AV51" s="19"/>
       <c r="AW51" s="19"/>
       <c r="AX51" s="51"/>
-      <c r="AY51" s="51"/>
+      <c r="AY51" s="94"/>
       <c r="AZ51" s="94"/>
       <c r="BA51" s="94"/>
       <c r="BB51" s="13"/>
@@ -6621,18 +6627,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="117">
+      <c r="A52" s="123">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="128"/>
-      <c r="E52" s="129" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="131"/>
+      <c r="F52" s="164"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6677,7 +6683,7 @@
       <c r="AV52" s="19"/>
       <c r="AW52" s="19"/>
       <c r="AX52" s="96"/>
-      <c r="AY52" s="29"/>
+      <c r="AY52" s="94"/>
       <c r="AZ52" s="94"/>
       <c r="BA52" s="94"/>
       <c r="BB52" s="13"/>
@@ -6695,12 +6701,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="117"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="132"/>
+      <c r="C53" s="192"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="165"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6763,20 +6769,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="117">
+      <c r="A54" s="123">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="133" t="s">
+      <c r="C54" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="134"/>
-      <c r="E54" s="135" t="s">
+      <c r="D54" s="205"/>
+      <c r="E54" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="137"/>
+      <c r="F54" s="208"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6839,12 +6845,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="117"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="138"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="207"/>
+      <c r="F55" s="209"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6907,20 +6913,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="117">
+      <c r="A56" s="123">
         <v>27</v>
       </c>
-      <c r="B56" s="119" t="s">
+      <c r="B56" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="121" t="s">
+      <c r="C56" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="122"/>
-      <c r="E56" s="119" t="s">
+      <c r="D56" s="186"/>
+      <c r="E56" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="125"/>
+      <c r="F56" s="202"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6983,12 +6989,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="118"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="197"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="200"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="203"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7074,21 +7080,93 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -7105,93 +7183,21 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5A1EF-4DE9-445A-9CA5-B3B4FAF086D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3054E-D1B8-4955-AD42-35F1BD56FD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,6 +1836,189 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,21 +2031,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1875,18 +2049,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1952,168 +2114,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,94 +2690,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="152" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="119">
+      <c r="G1" s="180">
         <v>45536</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="119">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="180">
         <v>45566</v>
       </c>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="120"/>
-      <c r="AV1" s="120"/>
-      <c r="AW1" s="120"/>
-      <c r="AX1" s="120"/>
-      <c r="AY1" s="120"/>
-      <c r="AZ1" s="120"/>
-      <c r="BA1" s="120"/>
-      <c r="BB1" s="120"/>
-      <c r="BC1" s="120"/>
-      <c r="BD1" s="120"/>
-      <c r="BE1" s="120"/>
-      <c r="BF1" s="120"/>
-      <c r="BG1" s="120"/>
-      <c r="BH1" s="120"/>
-      <c r="BI1" s="120"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="120"/>
-      <c r="BL1" s="120"/>
-      <c r="BM1" s="120"/>
-      <c r="BN1" s="121"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="181"/>
+      <c r="BA1" s="181"/>
+      <c r="BB1" s="181"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="181"/>
+      <c r="BK1" s="181"/>
+      <c r="BL1" s="181"/>
+      <c r="BM1" s="181"/>
+      <c r="BN1" s="182"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="156"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3019,12 +3019,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="157"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3207,20 +3207,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="122">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="128" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="130"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3283,12 +3283,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="131"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3351,18 +3351,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="123">
+      <c r="A6" s="121">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="136" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3425,12 +3425,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="123"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="139"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="193"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3493,20 +3493,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="123">
+      <c r="A8" s="121">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="175"/>
-      <c r="E8" s="176" t="s">
+      <c r="D8" s="179"/>
+      <c r="E8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="154"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3569,12 +3569,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="123"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="164"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3583,7 +3583,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
       <c r="N9" s="117"/>
-      <c r="O9" s="210"/>
+      <c r="O9" s="119"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
@@ -3637,18 +3637,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="123">
+      <c r="A10" s="121">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="162" t="s">
+      <c r="D10" s="171"/>
+      <c r="E10" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="164"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3711,12 +3711,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="123"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="164"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3725,7 +3725,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="19"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="210"/>
+      <c r="O11" s="119"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
@@ -3779,18 +3779,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="123">
+      <c r="A12" s="121">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="162" t="s">
+      <c r="D12" s="171"/>
+      <c r="E12" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="164"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3853,12 +3853,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="123"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="165"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3867,9 +3867,9 @@
       <c r="L13" s="17"/>
       <c r="M13" s="23"/>
       <c r="N13" s="55"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
       <c r="R13" s="55"/>
       <c r="S13" s="17"/>
       <c r="T13" s="23"/>
@@ -3921,20 +3921,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="123">
+      <c r="A14" s="121">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="170" t="s">
+      <c r="D14" s="175"/>
+      <c r="E14" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="172"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3997,12 +3997,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="173"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4065,18 +4065,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="123">
+      <c r="A16" s="121">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="184" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="179"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4139,12 +4139,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="123"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="172"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4207,20 +4207,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="123">
+      <c r="A18" s="121">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="187" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="188"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4283,12 +4283,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="123"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="173"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4351,18 +4351,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="123">
+      <c r="A20" s="121">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="178" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="179"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4425,12 +4425,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="123"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="173"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4493,18 +4493,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="123">
+      <c r="A22" s="121">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="178" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="179"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4567,12 +4567,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="123"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4635,20 +4635,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="123">
+      <c r="A24" s="121">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="185" t="s">
+      <c r="C24" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="186"/>
-      <c r="E24" s="187" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="188"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4711,12 +4711,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="123"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="173"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4779,18 +4779,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="123">
+      <c r="A26" s="121">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="189" t="s">
+      <c r="C26" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="178" t="s">
+      <c r="D26" s="144"/>
+      <c r="E26" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="179"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4853,12 +4853,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="123"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="173"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4921,18 +4921,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="123">
+      <c r="A28" s="121">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="184" t="s">
+      <c r="D28" s="144"/>
+      <c r="E28" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="179"/>
+      <c r="F28" s="157"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4995,12 +4995,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="123"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="173"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5063,18 +5063,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="123">
+      <c r="A30" s="121">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="189" t="s">
+      <c r="C30" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="162" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="164"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5137,12 +5137,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="123"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="164"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5205,18 +5205,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="123">
+      <c r="A32" s="121">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="162" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="164"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5279,12 +5279,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="123"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="164"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5347,18 +5347,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="123">
+      <c r="A34" s="121">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="189" t="s">
+      <c r="C34" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="162" t="s">
+      <c r="D34" s="144"/>
+      <c r="E34" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="164"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5421,12 +5421,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="123"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="164"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5489,18 +5489,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="123">
+      <c r="A36" s="121">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="190" t="s">
+      <c r="C36" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="191"/>
-      <c r="E36" s="162" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="164"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5563,12 +5563,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="123"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="164"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5631,18 +5631,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="123">
+      <c r="A38" s="121">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="191"/>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="132"/>
+      <c r="E38" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="164"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5705,12 +5705,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="123"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="165"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5773,20 +5773,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="123">
+      <c r="A40" s="121">
         <v>19</v>
       </c>
-      <c r="B40" s="193" t="s">
+      <c r="B40" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="195" t="s">
+      <c r="C40" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="176" t="s">
+      <c r="D40" s="126"/>
+      <c r="E40" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="177"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5849,12 +5849,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="123"/>
-      <c r="B41" s="194"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="164"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="135"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5917,18 +5917,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="123">
+      <c r="A42" s="121">
         <v>20</v>
       </c>
-      <c r="B42" s="194"/>
-      <c r="C42" s="189" t="s">
+      <c r="B42" s="151"/>
+      <c r="C42" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="133"/>
-      <c r="E42" s="162" t="s">
+      <c r="D42" s="144"/>
+      <c r="E42" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="196"/>
+      <c r="F42" s="148"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5991,12 +5991,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="123"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="196"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="148"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6059,18 +6059,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="123">
+      <c r="A44" s="121">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="189" t="s">
+      <c r="C44" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="133"/>
-      <c r="E44" s="162" t="s">
+      <c r="D44" s="144"/>
+      <c r="E44" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="196"/>
+      <c r="F44" s="148"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6133,12 +6133,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="123"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="196"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="148"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6201,18 +6201,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="123">
+      <c r="A46" s="121">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="132" t="s">
+      <c r="C46" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="133"/>
-      <c r="E46" s="162" t="s">
+      <c r="D46" s="144"/>
+      <c r="E46" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="196"/>
+      <c r="F46" s="148"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6275,12 +6275,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="123"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="162"/>
-      <c r="F47" s="196"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6343,18 +6343,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="123">
+      <c r="A48" s="121">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="189" t="s">
+      <c r="C48" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="133"/>
-      <c r="E48" s="162" t="s">
+      <c r="D48" s="144"/>
+      <c r="E48" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="164"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6417,12 +6417,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="123"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="164"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6485,18 +6485,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="123">
+      <c r="A50" s="121">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="190" t="s">
+      <c r="C50" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="191"/>
-      <c r="E50" s="162" t="s">
+      <c r="D50" s="132"/>
+      <c r="E50" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="196"/>
+      <c r="F50" s="148"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6559,12 +6559,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="123"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="192"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="196"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="148"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6627,18 +6627,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="123">
+      <c r="A52" s="121">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="192" t="s">
+      <c r="C52" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="162" t="s">
+      <c r="D52" s="132"/>
+      <c r="E52" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="164"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6701,12 +6701,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="123"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="192"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="165"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6769,20 +6769,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="123">
+      <c r="A54" s="121">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="204" t="s">
+      <c r="C54" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="205"/>
-      <c r="E54" s="206" t="s">
+      <c r="D54" s="138"/>
+      <c r="E54" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="208"/>
+      <c r="F54" s="141"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6845,12 +6845,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="123"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="207"/>
-      <c r="F55" s="209"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="142"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6913,20 +6913,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="123">
+      <c r="A56" s="121">
         <v>27</v>
       </c>
-      <c r="B56" s="198" t="s">
+      <c r="B56" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="185" t="s">
+      <c r="C56" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="186"/>
-      <c r="E56" s="198" t="s">
+      <c r="D56" s="126"/>
+      <c r="E56" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="202"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6989,12 +6989,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="197"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="203"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7080,19 +7080,95 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -7109,95 +7185,19 @@
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3054E-D1B8-4955-AD42-35F1BD56FD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C4AEC-551F-4D01-81AB-DEFB16745A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="144" windowWidth="14196" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール " sheetId="16" r:id="rId1"/>
@@ -1842,9 +1842,240 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1854,12 +2085,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1872,24 +2097,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1907,213 +2114,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2670,10 +2670,10 @@
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2690,94 +2690,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="206" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180">
+      <c r="G1" s="121">
         <v>45536</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="180">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="121">
         <v>45566</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="181"/>
-      <c r="BG1" s="181"/>
-      <c r="BH1" s="181"/>
-      <c r="BI1" s="181"/>
-      <c r="BJ1" s="181"/>
-      <c r="BK1" s="181"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="182"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122"/>
+      <c r="BC1" s="122"/>
+      <c r="BD1" s="122"/>
+      <c r="BE1" s="122"/>
+      <c r="BF1" s="122"/>
+      <c r="BG1" s="122"/>
+      <c r="BH1" s="122"/>
+      <c r="BI1" s="122"/>
+      <c r="BJ1" s="122"/>
+      <c r="BK1" s="122"/>
+      <c r="BL1" s="122"/>
+      <c r="BM1" s="122"/>
+      <c r="BN1" s="123"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="210"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3019,12 +3019,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="211"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3207,20 +3207,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="183">
+      <c r="A4" s="124">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="188"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3283,12 +3283,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="189"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3351,18 +3351,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="121">
+      <c r="A6" s="125">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="190" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="192"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3425,12 +3425,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="193"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3493,20 +3493,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="121">
+      <c r="A8" s="125">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3569,12 +3569,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="135"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3637,18 +3637,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="121">
+      <c r="A10" s="125">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="171"/>
-      <c r="E10" s="133" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="166"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3711,12 +3711,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="135"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3779,18 +3779,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="121">
+      <c r="A12" s="125">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="133" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="166"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3853,12 +3853,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="136"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3870,7 +3870,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
-      <c r="R13" s="55"/>
+      <c r="R13" s="120"/>
       <c r="S13" s="17"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
@@ -3921,20 +3921,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="121">
+      <c r="A14" s="125">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="174"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3997,12 +3997,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="158"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="175"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4065,18 +4065,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="121">
+      <c r="A16" s="125">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="155" t="s">
+      <c r="D16" s="135"/>
+      <c r="E16" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="181"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4139,12 +4139,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="169"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="174"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4207,20 +4207,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="121">
+      <c r="A18" s="125">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="159" t="s">
+      <c r="D18" s="188"/>
+      <c r="E18" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4283,12 +4283,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="158"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="175"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4351,18 +4351,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="121">
+      <c r="A20" s="125">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="163" t="s">
+      <c r="D20" s="135"/>
+      <c r="E20" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="157"/>
+      <c r="F20" s="181"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4425,12 +4425,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="158"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="175"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4493,18 +4493,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="121">
+      <c r="A22" s="125">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="163" t="s">
+      <c r="D22" s="135"/>
+      <c r="E22" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="181"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4567,12 +4567,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4635,20 +4635,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="121">
+      <c r="A24" s="125">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="159" t="s">
+      <c r="D24" s="188"/>
+      <c r="E24" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="190"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4711,12 +4711,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="158"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4779,18 +4779,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="121">
+      <c r="A26" s="125">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="163" t="s">
+      <c r="D26" s="135"/>
+      <c r="E26" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="157"/>
+      <c r="F26" s="181"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4853,12 +4853,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="158"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="175"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4921,18 +4921,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="121">
+      <c r="A28" s="125">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="155" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="157"/>
+      <c r="F28" s="181"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4995,12 +4995,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="158"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="175"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5063,18 +5063,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="121">
+      <c r="A30" s="125">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="133" t="s">
+      <c r="D30" s="135"/>
+      <c r="E30" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="135"/>
+      <c r="F30" s="166"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5137,12 +5137,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="135"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="166"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5205,18 +5205,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="121">
+      <c r="A32" s="125">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="133" t="s">
+      <c r="D32" s="135"/>
+      <c r="E32" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="135"/>
+      <c r="F32" s="166"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5279,12 +5279,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="135"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="166"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5347,18 +5347,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="121">
+      <c r="A34" s="125">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="133" t="s">
+      <c r="D34" s="135"/>
+      <c r="E34" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="166"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5421,12 +5421,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="121"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="135"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="166"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5489,18 +5489,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="121">
+      <c r="A36" s="125">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133" t="s">
+      <c r="D36" s="193"/>
+      <c r="E36" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="135"/>
+      <c r="F36" s="166"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5563,12 +5563,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="166"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5631,18 +5631,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="121">
+      <c r="A38" s="125">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="132"/>
-      <c r="E38" s="133" t="s">
+      <c r="D38" s="193"/>
+      <c r="E38" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="166"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5705,12 +5705,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="167"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5773,20 +5773,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="121">
+      <c r="A40" s="125">
         <v>19</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="152" t="s">
+      <c r="C40" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="153" t="s">
+      <c r="D40" s="188"/>
+      <c r="E40" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="154"/>
+      <c r="F40" s="179"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5849,12 +5849,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="135"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="166"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5917,18 +5917,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="121">
+      <c r="A42" s="125">
         <v>20</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="143" t="s">
+      <c r="B42" s="196"/>
+      <c r="C42" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="133" t="s">
+      <c r="D42" s="135"/>
+      <c r="E42" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="148"/>
+      <c r="F42" s="198"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5991,12 +5991,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="148"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="198"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6059,18 +6059,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="121">
+      <c r="A44" s="125">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="133" t="s">
+      <c r="D44" s="135"/>
+      <c r="E44" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="148"/>
+      <c r="F44" s="198"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6133,12 +6133,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="125"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="148"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="198"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6201,18 +6201,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="121">
+      <c r="A46" s="125">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="149" t="s">
+      <c r="C46" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="144"/>
-      <c r="E46" s="133" t="s">
+      <c r="D46" s="135"/>
+      <c r="E46" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="148"/>
+      <c r="F46" s="198"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6275,12 +6275,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="148"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="198"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6343,18 +6343,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="121">
+      <c r="A48" s="125">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="144"/>
-      <c r="E48" s="133" t="s">
+      <c r="D48" s="135"/>
+      <c r="E48" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="135"/>
+      <c r="F48" s="166"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6417,12 +6417,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="135"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="166"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6485,18 +6485,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="121">
+      <c r="A50" s="125">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="147" t="s">
+      <c r="C50" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133" t="s">
+      <c r="D50" s="193"/>
+      <c r="E50" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="148"/>
+      <c r="F50" s="198"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6559,12 +6559,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="125"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="148"/>
+      <c r="C51" s="194"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="198"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6627,18 +6627,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="121">
+      <c r="A52" s="125">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="133" t="s">
+      <c r="D52" s="193"/>
+      <c r="E52" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="135"/>
+      <c r="F52" s="166"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6701,12 +6701,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="136"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="167"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6769,20 +6769,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="121">
+      <c r="A54" s="125">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139" t="s">
+      <c r="D54" s="207"/>
+      <c r="E54" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="141"/>
+      <c r="F54" s="210"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6845,12 +6845,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="121"/>
+      <c r="A55" s="125"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="142"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="209"/>
+      <c r="F55" s="211"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6913,20 +6913,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="121">
+      <c r="A56" s="125">
         <v>27</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="123" t="s">
+      <c r="D56" s="188"/>
+      <c r="E56" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="129"/>
+      <c r="F56" s="204"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6989,12 +6989,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="122"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="130"/>
+      <c r="A57" s="199"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="205"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7080,21 +7080,93 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -7111,93 +7183,21 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C4AEC-551F-4D01-81AB-DEFB16745A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B700BA-D379-4614-A409-A61D26612A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="144" windowWidth="14196" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール " sheetId="16" r:id="rId1"/>
@@ -1842,6 +1842,183 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,21 +2031,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1881,18 +2049,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1958,162 +2114,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2670,10 +2670,10 @@
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2690,94 +2690,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="121">
+      <c r="G1" s="180">
         <v>45536</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="121">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="180">
         <v>45566</v>
       </c>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="122"/>
-      <c r="AQ1" s="122"/>
-      <c r="AR1" s="122"/>
-      <c r="AS1" s="122"/>
-      <c r="AT1" s="122"/>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122"/>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122"/>
-      <c r="BA1" s="122"/>
-      <c r="BB1" s="122"/>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="122"/>
-      <c r="BK1" s="122"/>
-      <c r="BL1" s="122"/>
-      <c r="BM1" s="122"/>
-      <c r="BN1" s="123"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="181"/>
+      <c r="BA1" s="181"/>
+      <c r="BB1" s="181"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="181"/>
+      <c r="BK1" s="181"/>
+      <c r="BL1" s="181"/>
+      <c r="BM1" s="181"/>
+      <c r="BN1" s="182"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="158"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3019,12 +3019,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="159"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3207,20 +3207,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="124">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3283,12 +3283,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="125"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="133"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3351,18 +3351,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="125">
+      <c r="A6" s="121">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="138" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="140"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3425,12 +3425,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="141"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="193"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3493,20 +3493,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="125">
+      <c r="A8" s="121">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178" t="s">
+      <c r="D8" s="179"/>
+      <c r="E8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="179"/>
+      <c r="F8" s="154"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3569,12 +3569,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="125"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="166"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3637,18 +3637,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="125">
+      <c r="A10" s="121">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="164" t="s">
+      <c r="D10" s="171"/>
+      <c r="E10" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="166"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3711,12 +3711,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="125"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="166"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3779,18 +3779,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="125">
+      <c r="A12" s="121">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="164" t="s">
+      <c r="D12" s="171"/>
+      <c r="E12" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="166"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3853,12 +3853,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="125"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="167"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3921,20 +3921,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="125">
+      <c r="A14" s="121">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="172" t="s">
+      <c r="D14" s="175"/>
+      <c r="E14" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="174"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3997,12 +3997,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="125"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4014,7 +4014,7 @@
       <c r="O15" s="50"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
+      <c r="R15" s="104"/>
       <c r="S15" s="16"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -4065,18 +4065,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="121">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="186" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="181"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4139,12 +4139,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="174"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4156,7 +4156,7 @@
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4207,20 +4207,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="125">
+      <c r="A18" s="121">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="189" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="190"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4283,12 +4283,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="175"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4351,18 +4351,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="121">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="180" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="181"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4425,12 +4425,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="125"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="175"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4493,18 +4493,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="125">
+      <c r="A22" s="121">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="180" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="181"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4567,12 +4567,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="125"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="183"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4635,20 +4635,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="125">
+      <c r="A24" s="121">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="189" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="190"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4711,12 +4711,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="125"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="175"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4779,18 +4779,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="125">
+      <c r="A26" s="121">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="180" t="s">
+      <c r="D26" s="144"/>
+      <c r="E26" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="181"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4853,12 +4853,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="125"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="175"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4921,18 +4921,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="125">
+      <c r="A28" s="121">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="186" t="s">
+      <c r="D28" s="144"/>
+      <c r="E28" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="181"/>
+      <c r="F28" s="157"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4995,12 +4995,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="125"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="175"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5063,18 +5063,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="125">
+      <c r="A30" s="121">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="164" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="166"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5137,12 +5137,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="125"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="166"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5205,18 +5205,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="125">
+      <c r="A32" s="121">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="164" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="166"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5279,12 +5279,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="125"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="166"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5347,18 +5347,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="125">
+      <c r="A34" s="121">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="164" t="s">
+      <c r="D34" s="144"/>
+      <c r="E34" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="166"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5421,12 +5421,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="125"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="166"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5489,18 +5489,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="125">
+      <c r="A36" s="121">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="193"/>
-      <c r="E36" s="164" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="166"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5563,12 +5563,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="125"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="166"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5631,18 +5631,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="125">
+      <c r="A38" s="121">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="193"/>
-      <c r="E38" s="164" t="s">
+      <c r="D38" s="132"/>
+      <c r="E38" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="166"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5705,12 +5705,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="125"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="167"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5773,20 +5773,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="125">
+      <c r="A40" s="121">
         <v>19</v>
       </c>
-      <c r="B40" s="195" t="s">
+      <c r="B40" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="178" t="s">
+      <c r="D40" s="126"/>
+      <c r="E40" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="179"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5849,12 +5849,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="166"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="135"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5917,18 +5917,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="125">
+      <c r="A42" s="121">
         <v>20</v>
       </c>
-      <c r="B42" s="196"/>
-      <c r="C42" s="191" t="s">
+      <c r="B42" s="151"/>
+      <c r="C42" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="164" t="s">
+      <c r="D42" s="144"/>
+      <c r="E42" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="198"/>
+      <c r="F42" s="148"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5991,12 +5991,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="125"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="198"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="148"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6059,18 +6059,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="125">
+      <c r="A44" s="121">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="191" t="s">
+      <c r="C44" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="135"/>
-      <c r="E44" s="164" t="s">
+      <c r="D44" s="144"/>
+      <c r="E44" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="198"/>
+      <c r="F44" s="148"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6133,12 +6133,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="125"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="198"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="148"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6201,18 +6201,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="125">
+      <c r="A46" s="121">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="135"/>
-      <c r="E46" s="164" t="s">
+      <c r="D46" s="144"/>
+      <c r="E46" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="198"/>
+      <c r="F46" s="148"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6275,12 +6275,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="125"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="198"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6343,18 +6343,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="125">
+      <c r="A48" s="121">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="191" t="s">
+      <c r="C48" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="135"/>
-      <c r="E48" s="164" t="s">
+      <c r="D48" s="144"/>
+      <c r="E48" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="166"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6417,12 +6417,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="125"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="166"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6485,18 +6485,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="125">
+      <c r="A50" s="121">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="192" t="s">
+      <c r="C50" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="164" t="s">
+      <c r="D50" s="132"/>
+      <c r="E50" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="198"/>
+      <c r="F50" s="148"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6559,12 +6559,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="125"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="194"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="198"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="148"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6627,18 +6627,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="125">
+      <c r="A52" s="121">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="193"/>
-      <c r="E52" s="164" t="s">
+      <c r="D52" s="132"/>
+      <c r="E52" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="166"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6701,12 +6701,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="125"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="194"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="167"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6769,20 +6769,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="125">
+      <c r="A54" s="121">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="206" t="s">
+      <c r="C54" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208" t="s">
+      <c r="D54" s="138"/>
+      <c r="E54" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="210"/>
+      <c r="F54" s="141"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6845,12 +6845,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="125"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="194"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="209"/>
-      <c r="F55" s="211"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="142"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6913,20 +6913,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="125">
+      <c r="A56" s="121">
         <v>27</v>
       </c>
-      <c r="B56" s="200" t="s">
+      <c r="B56" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="187" t="s">
+      <c r="C56" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="188"/>
-      <c r="E56" s="200" t="s">
+      <c r="D56" s="126"/>
+      <c r="E56" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="204"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6989,12 +6989,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="199"/>
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="203"/>
-      <c r="E57" s="201"/>
-      <c r="F57" s="205"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7080,19 +7080,95 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -7109,95 +7185,19 @@
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B700BA-D379-4614-A409-A61D26612A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1697ADC-7141-4B2D-8380-AE7401A3F640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1842,9 +1842,240 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1854,12 +2085,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1872,24 +2097,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1907,213 +2114,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,94 +2690,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="206" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180">
+      <c r="G1" s="121">
         <v>45536</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="180">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="121">
         <v>45566</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="181"/>
-      <c r="BG1" s="181"/>
-      <c r="BH1" s="181"/>
-      <c r="BI1" s="181"/>
-      <c r="BJ1" s="181"/>
-      <c r="BK1" s="181"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="182"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122"/>
+      <c r="BC1" s="122"/>
+      <c r="BD1" s="122"/>
+      <c r="BE1" s="122"/>
+      <c r="BF1" s="122"/>
+      <c r="BG1" s="122"/>
+      <c r="BH1" s="122"/>
+      <c r="BI1" s="122"/>
+      <c r="BJ1" s="122"/>
+      <c r="BK1" s="122"/>
+      <c r="BL1" s="122"/>
+      <c r="BM1" s="122"/>
+      <c r="BN1" s="123"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="210"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3019,12 +3019,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="211"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3207,20 +3207,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="183">
+      <c r="A4" s="124">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="188"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3283,12 +3283,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="189"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3351,18 +3351,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="121">
+      <c r="A6" s="125">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="190" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="192"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3425,12 +3425,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="193"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3493,20 +3493,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="121">
+      <c r="A8" s="125">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3569,12 +3569,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="135"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3637,18 +3637,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="121">
+      <c r="A10" s="125">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="171"/>
-      <c r="E10" s="133" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="166"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3711,12 +3711,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="135"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3779,18 +3779,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="121">
+      <c r="A12" s="125">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="133" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="166"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3853,12 +3853,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="136"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3921,20 +3921,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="121">
+      <c r="A14" s="125">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="174"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3997,12 +3997,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="158"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="175"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4018,10 +4018,10 @@
       <c r="S15" s="16"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
@@ -4065,18 +4065,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="121">
+      <c r="A16" s="125">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="155" t="s">
+      <c r="D16" s="135"/>
+      <c r="E16" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="181"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4139,12 +4139,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="169"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="174"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4160,8 +4160,8 @@
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="25"/>
@@ -4207,20 +4207,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="121">
+      <c r="A18" s="125">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="159" t="s">
+      <c r="D18" s="188"/>
+      <c r="E18" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4283,12 +4283,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="158"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="175"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4351,18 +4351,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="121">
+      <c r="A20" s="125">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="163" t="s">
+      <c r="D20" s="135"/>
+      <c r="E20" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="157"/>
+      <c r="F20" s="181"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4425,12 +4425,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="158"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="175"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4493,18 +4493,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="121">
+      <c r="A22" s="125">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="163" t="s">
+      <c r="D22" s="135"/>
+      <c r="E22" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="181"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4567,12 +4567,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4635,20 +4635,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="121">
+      <c r="A24" s="125">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="159" t="s">
+      <c r="D24" s="188"/>
+      <c r="E24" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="190"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4711,12 +4711,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="158"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4779,18 +4779,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="121">
+      <c r="A26" s="125">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="163" t="s">
+      <c r="D26" s="135"/>
+      <c r="E26" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="157"/>
+      <c r="F26" s="181"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4853,12 +4853,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="158"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="175"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4921,18 +4921,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="121">
+      <c r="A28" s="125">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="155" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="157"/>
+      <c r="F28" s="181"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4995,12 +4995,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="158"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="175"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5063,18 +5063,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="121">
+      <c r="A30" s="125">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="133" t="s">
+      <c r="D30" s="135"/>
+      <c r="E30" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="135"/>
+      <c r="F30" s="166"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5137,12 +5137,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="135"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="166"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5205,18 +5205,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="121">
+      <c r="A32" s="125">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="133" t="s">
+      <c r="D32" s="135"/>
+      <c r="E32" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="135"/>
+      <c r="F32" s="166"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5279,12 +5279,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="135"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="166"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5347,18 +5347,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="121">
+      <c r="A34" s="125">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="133" t="s">
+      <c r="D34" s="135"/>
+      <c r="E34" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="166"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5421,12 +5421,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="121"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="135"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="166"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5489,18 +5489,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="121">
+      <c r="A36" s="125">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133" t="s">
+      <c r="D36" s="193"/>
+      <c r="E36" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="135"/>
+      <c r="F36" s="166"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5563,12 +5563,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="166"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5631,18 +5631,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="121">
+      <c r="A38" s="125">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="132"/>
-      <c r="E38" s="133" t="s">
+      <c r="D38" s="193"/>
+      <c r="E38" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="166"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5705,12 +5705,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="167"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5773,20 +5773,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="121">
+      <c r="A40" s="125">
         <v>19</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="152" t="s">
+      <c r="C40" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="153" t="s">
+      <c r="D40" s="188"/>
+      <c r="E40" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="154"/>
+      <c r="F40" s="179"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5849,12 +5849,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="135"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="166"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5917,18 +5917,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="121">
+      <c r="A42" s="125">
         <v>20</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="143" t="s">
+      <c r="B42" s="196"/>
+      <c r="C42" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="133" t="s">
+      <c r="D42" s="135"/>
+      <c r="E42" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="148"/>
+      <c r="F42" s="198"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5991,12 +5991,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="148"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="198"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6059,18 +6059,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="121">
+      <c r="A44" s="125">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="133" t="s">
+      <c r="D44" s="135"/>
+      <c r="E44" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="148"/>
+      <c r="F44" s="198"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6133,12 +6133,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="125"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="148"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="198"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6201,18 +6201,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="121">
+      <c r="A46" s="125">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="149" t="s">
+      <c r="C46" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="144"/>
-      <c r="E46" s="133" t="s">
+      <c r="D46" s="135"/>
+      <c r="E46" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="148"/>
+      <c r="F46" s="198"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6275,12 +6275,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="148"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="198"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6343,18 +6343,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="121">
+      <c r="A48" s="125">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="144"/>
-      <c r="E48" s="133" t="s">
+      <c r="D48" s="135"/>
+      <c r="E48" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="135"/>
+      <c r="F48" s="166"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6417,12 +6417,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="135"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="166"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6485,18 +6485,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="121">
+      <c r="A50" s="125">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="147" t="s">
+      <c r="C50" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133" t="s">
+      <c r="D50" s="193"/>
+      <c r="E50" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="148"/>
+      <c r="F50" s="198"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6559,12 +6559,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="125"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="148"/>
+      <c r="C51" s="194"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="198"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6627,18 +6627,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="121">
+      <c r="A52" s="125">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="133" t="s">
+      <c r="D52" s="193"/>
+      <c r="E52" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="135"/>
+      <c r="F52" s="166"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6701,12 +6701,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="136"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="167"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6769,20 +6769,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="121">
+      <c r="A54" s="125">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139" t="s">
+      <c r="D54" s="207"/>
+      <c r="E54" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="141"/>
+      <c r="F54" s="210"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6845,12 +6845,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="121"/>
+      <c r="A55" s="125"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="142"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="209"/>
+      <c r="F55" s="211"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6913,20 +6913,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="121">
+      <c r="A56" s="125">
         <v>27</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="123" t="s">
+      <c r="D56" s="188"/>
+      <c r="E56" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="129"/>
+      <c r="F56" s="204"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6989,12 +6989,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="122"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="130"/>
+      <c r="A57" s="199"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="205"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7080,21 +7080,93 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -7111,93 +7183,21 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1697ADC-7141-4B2D-8380-AE7401A3F640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC4E79-FB99-4716-890F-0DE12802E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1842,6 +1842,183 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,21 +2031,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1881,18 +2049,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1958,162 +2114,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,94 +2690,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="121">
+      <c r="G1" s="180">
         <v>45536</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="121">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="180">
         <v>45566</v>
       </c>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="122"/>
-      <c r="AQ1" s="122"/>
-      <c r="AR1" s="122"/>
-      <c r="AS1" s="122"/>
-      <c r="AT1" s="122"/>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122"/>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122"/>
-      <c r="BA1" s="122"/>
-      <c r="BB1" s="122"/>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="122"/>
-      <c r="BK1" s="122"/>
-      <c r="BL1" s="122"/>
-      <c r="BM1" s="122"/>
-      <c r="BN1" s="123"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="181"/>
+      <c r="BA1" s="181"/>
+      <c r="BB1" s="181"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="181"/>
+      <c r="BK1" s="181"/>
+      <c r="BL1" s="181"/>
+      <c r="BM1" s="181"/>
+      <c r="BN1" s="182"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="158"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3019,12 +3019,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="159"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3207,20 +3207,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="124">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3283,12 +3283,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="125"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="133"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3351,18 +3351,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="125">
+      <c r="A6" s="121">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="138" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="140"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3425,12 +3425,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="141"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="193"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3493,20 +3493,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="125">
+      <c r="A8" s="121">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178" t="s">
+      <c r="D8" s="179"/>
+      <c r="E8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="179"/>
+      <c r="F8" s="154"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3569,12 +3569,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="125"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="166"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3637,18 +3637,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="125">
+      <c r="A10" s="121">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="164" t="s">
+      <c r="D10" s="171"/>
+      <c r="E10" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="166"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3711,12 +3711,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="125"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="166"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3779,18 +3779,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="125">
+      <c r="A12" s="121">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="164" t="s">
+      <c r="D12" s="171"/>
+      <c r="E12" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="166"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3853,12 +3853,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="125"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="167"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3921,20 +3921,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="125">
+      <c r="A14" s="121">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="172" t="s">
+      <c r="D14" s="175"/>
+      <c r="E14" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="174"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -3997,12 +3997,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="125"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4025,10 +4025,10 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="98"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
@@ -4065,18 +4065,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="121">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="186" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="181"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4139,12 +4139,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="174"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4169,8 +4169,8 @@
       <c r="AB17" s="26"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
@@ -4207,20 +4207,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="125">
+      <c r="A18" s="121">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="189" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="190"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4283,12 +4283,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="175"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4351,18 +4351,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="121">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="180" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="181"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4425,12 +4425,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="125"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="175"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4493,18 +4493,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="125">
+      <c r="A22" s="121">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="180" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="181"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4567,12 +4567,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="125"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="183"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4635,20 +4635,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="125">
+      <c r="A24" s="121">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="189" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="190"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4711,12 +4711,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="125"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="175"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4779,18 +4779,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="125">
+      <c r="A26" s="121">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="180" t="s">
+      <c r="D26" s="144"/>
+      <c r="E26" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="181"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4853,12 +4853,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="125"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="175"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4921,18 +4921,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="125">
+      <c r="A28" s="121">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="186" t="s">
+      <c r="D28" s="144"/>
+      <c r="E28" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="181"/>
+      <c r="F28" s="157"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4995,12 +4995,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="125"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="175"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5063,18 +5063,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="125">
+      <c r="A30" s="121">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="164" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="166"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5137,12 +5137,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="125"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="166"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5205,18 +5205,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="125">
+      <c r="A32" s="121">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="164" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="166"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5279,12 +5279,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="125"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="166"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5347,18 +5347,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="125">
+      <c r="A34" s="121">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="164" t="s">
+      <c r="D34" s="144"/>
+      <c r="E34" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="166"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5421,12 +5421,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="125"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="166"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5489,18 +5489,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="125">
+      <c r="A36" s="121">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="193"/>
-      <c r="E36" s="164" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="166"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5563,12 +5563,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="125"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="166"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5631,18 +5631,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="125">
+      <c r="A38" s="121">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="193"/>
-      <c r="E38" s="164" t="s">
+      <c r="D38" s="132"/>
+      <c r="E38" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="166"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5705,12 +5705,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="125"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="167"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5773,20 +5773,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="125">
+      <c r="A40" s="121">
         <v>19</v>
       </c>
-      <c r="B40" s="195" t="s">
+      <c r="B40" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="178" t="s">
+      <c r="D40" s="126"/>
+      <c r="E40" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="179"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5849,12 +5849,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="166"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="135"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5917,18 +5917,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="125">
+      <c r="A42" s="121">
         <v>20</v>
       </c>
-      <c r="B42" s="196"/>
-      <c r="C42" s="191" t="s">
+      <c r="B42" s="151"/>
+      <c r="C42" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="164" t="s">
+      <c r="D42" s="144"/>
+      <c r="E42" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="198"/>
+      <c r="F42" s="148"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -5991,12 +5991,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="125"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="198"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="148"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6059,18 +6059,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="125">
+      <c r="A44" s="121">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="191" t="s">
+      <c r="C44" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="135"/>
-      <c r="E44" s="164" t="s">
+      <c r="D44" s="144"/>
+      <c r="E44" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="198"/>
+      <c r="F44" s="148"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6133,12 +6133,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="125"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="198"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="148"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6201,18 +6201,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="125">
+      <c r="A46" s="121">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="135"/>
-      <c r="E46" s="164" t="s">
+      <c r="D46" s="144"/>
+      <c r="E46" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="198"/>
+      <c r="F46" s="148"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6275,12 +6275,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="125"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="198"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6343,18 +6343,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="125">
+      <c r="A48" s="121">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="191" t="s">
+      <c r="C48" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="135"/>
-      <c r="E48" s="164" t="s">
+      <c r="D48" s="144"/>
+      <c r="E48" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="166"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6417,12 +6417,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="125"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="166"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6485,18 +6485,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="125">
+      <c r="A50" s="121">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="192" t="s">
+      <c r="C50" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="164" t="s">
+      <c r="D50" s="132"/>
+      <c r="E50" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="198"/>
+      <c r="F50" s="148"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6559,12 +6559,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="125"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="194"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="198"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="148"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6627,18 +6627,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="125">
+      <c r="A52" s="121">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="193"/>
-      <c r="E52" s="164" t="s">
+      <c r="D52" s="132"/>
+      <c r="E52" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="166"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6701,12 +6701,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="125"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="194"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="167"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6769,20 +6769,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="125">
+      <c r="A54" s="121">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="206" t="s">
+      <c r="C54" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208" t="s">
+      <c r="D54" s="138"/>
+      <c r="E54" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="210"/>
+      <c r="F54" s="141"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6845,12 +6845,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="125"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="194"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="209"/>
-      <c r="F55" s="211"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="142"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6913,20 +6913,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="125">
+      <c r="A56" s="121">
         <v>27</v>
       </c>
-      <c r="B56" s="200" t="s">
+      <c r="B56" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="187" t="s">
+      <c r="C56" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="188"/>
-      <c r="E56" s="200" t="s">
+      <c r="D56" s="126"/>
+      <c r="E56" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="204"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6989,12 +6989,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="199"/>
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="203"/>
-      <c r="E57" s="201"/>
-      <c r="F57" s="205"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7080,19 +7080,95 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -7109,95 +7185,19 @@
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC4E79-FB99-4716-890F-0DE12802E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2472B-998A-4BAE-9F99-88297FB7AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2114,6 +2114,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4031,8 +4040,8 @@
       <c r="AF15" s="104"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="59"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="212"/>
       <c r="AK15" s="68"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -4173,8 +4182,8 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="60"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="213"/>
       <c r="AK17" s="70"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
@@ -4318,9 +4327,9 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="115"/>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="24"/>
+      <c r="AJ19" s="213"/>
+      <c r="AK19" s="214"/>
+      <c r="AL19" s="30"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
       <c r="AO19" s="26"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2472B-998A-4BAE-9F99-88297FB7AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043CC96-CE5F-423D-AE3D-0D27E81A207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1842,6 +1842,15 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2114,15 +2123,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2699,94 +2699,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="206" t="s">
+      <c r="D1" s="204"/>
+      <c r="E1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180">
+      <c r="G1" s="183">
         <v>45536</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="180">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
+      <c r="AG1" s="184"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="183">
         <v>45566</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="181"/>
-      <c r="BG1" s="181"/>
-      <c r="BH1" s="181"/>
-      <c r="BI1" s="181"/>
-      <c r="BJ1" s="181"/>
-      <c r="BK1" s="181"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="182"/>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="184"/>
+      <c r="AO1" s="184"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="184"/>
+      <c r="AS1" s="184"/>
+      <c r="AT1" s="184"/>
+      <c r="AU1" s="184"/>
+      <c r="AV1" s="184"/>
+      <c r="AW1" s="184"/>
+      <c r="AX1" s="184"/>
+      <c r="AY1" s="184"/>
+      <c r="AZ1" s="184"/>
+      <c r="BA1" s="184"/>
+      <c r="BB1" s="184"/>
+      <c r="BC1" s="184"/>
+      <c r="BD1" s="184"/>
+      <c r="BE1" s="184"/>
+      <c r="BF1" s="184"/>
+      <c r="BG1" s="184"/>
+      <c r="BH1" s="184"/>
+      <c r="BI1" s="184"/>
+      <c r="BJ1" s="184"/>
+      <c r="BK1" s="184"/>
+      <c r="BL1" s="184"/>
+      <c r="BM1" s="184"/>
+      <c r="BN1" s="185"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="210"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3028,12 +3028,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="211"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3216,20 +3216,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="183">
+      <c r="A4" s="186">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186" t="s">
+      <c r="D4" s="188"/>
+      <c r="E4" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="188"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3292,12 +3292,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="189"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="192"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3360,18 +3360,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="121">
+      <c r="A6" s="124">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="190" t="s">
+      <c r="D6" s="147"/>
+      <c r="E6" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="192"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3434,12 +3434,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="193"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3502,20 +3502,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="121">
+      <c r="A8" s="124">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="182"/>
+      <c r="E8" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3578,12 +3578,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="135"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3646,18 +3646,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="121">
+      <c r="A10" s="124">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="171"/>
-      <c r="E10" s="133" t="s">
+      <c r="D10" s="174"/>
+      <c r="E10" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3720,12 +3720,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="135"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3788,18 +3788,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="121">
+      <c r="A12" s="124">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="133" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3862,12 +3862,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="136"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3930,20 +3930,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="121">
+      <c r="A14" s="124">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -4006,12 +4006,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="158"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4041,7 +4041,7 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="104"/>
-      <c r="AJ15" s="212"/>
+      <c r="AJ15" s="121"/>
       <c r="AK15" s="68"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -4051,7 +4051,7 @@
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
+      <c r="AT15" s="104"/>
       <c r="AU15" s="16"/>
       <c r="AV15" s="22"/>
       <c r="AW15" s="22"/>
@@ -4074,18 +4074,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="121">
+      <c r="A16" s="124">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="155" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4148,12 +4148,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="169"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="172"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4183,17 +4183,17 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="30"/>
-      <c r="AJ17" s="213"/>
+      <c r="AJ17" s="122"/>
       <c r="AK17" s="70"/>
       <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
+      <c r="AM17" s="30"/>
       <c r="AN17" s="25"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="24"/>
       <c r="AR17" s="24"/>
       <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
+      <c r="AT17" s="30"/>
       <c r="AU17" s="25"/>
       <c r="AV17" s="26"/>
       <c r="AW17" s="26"/>
@@ -4216,20 +4216,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="121">
+      <c r="A18" s="124">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="159" t="s">
+      <c r="D18" s="129"/>
+      <c r="E18" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="163"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4292,12 +4292,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="158"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="161"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4327,17 +4327,17 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="213"/>
-      <c r="AK19" s="214"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="123"/>
       <c r="AL19" s="30"/>
-      <c r="AM19" s="24"/>
+      <c r="AM19" s="30"/>
       <c r="AN19" s="25"/>
       <c r="AO19" s="26"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
       <c r="AR19" s="24"/>
       <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
+      <c r="AT19" s="30"/>
       <c r="AU19" s="25"/>
       <c r="AV19" s="26"/>
       <c r="AW19" s="26"/>
@@ -4360,18 +4360,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="121">
+      <c r="A20" s="124">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="163" t="s">
+      <c r="D20" s="147"/>
+      <c r="E20" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="157"/>
+      <c r="F20" s="160"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4408,7 +4408,7 @@
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
+      <c r="AQ20" s="119"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -4434,12 +4434,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="158"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4472,10 +4472,10 @@
       <c r="AJ21" s="115"/>
       <c r="AK21" s="116"/>
       <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
+      <c r="AM21" s="30"/>
       <c r="AN21" s="25"/>
       <c r="AO21" s="26"/>
-      <c r="AP21" s="24"/>
+      <c r="AP21" s="30"/>
       <c r="AQ21" s="24"/>
       <c r="AR21" s="24"/>
       <c r="AS21" s="24"/>
@@ -4502,18 +4502,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="121">
+      <c r="A22" s="124">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="163" t="s">
+      <c r="D22" s="147"/>
+      <c r="E22" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4576,12 +4576,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4617,10 +4617,10 @@
       <c r="AM23" s="55"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="23"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
       <c r="AT23" s="55"/>
       <c r="AU23" s="17"/>
       <c r="AV23" s="23"/>
@@ -4644,20 +4644,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="121">
+      <c r="A24" s="124">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="159" t="s">
+      <c r="D24" s="129"/>
+      <c r="E24" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="163"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4720,12 +4720,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="158"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4788,18 +4788,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="121">
+      <c r="A26" s="124">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="163" t="s">
+      <c r="D26" s="147"/>
+      <c r="E26" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="157"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4862,12 +4862,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="158"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4930,18 +4930,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="121">
+      <c r="A28" s="124">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="155" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="157"/>
+      <c r="F28" s="160"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -5004,12 +5004,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="158"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5072,18 +5072,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="121">
+      <c r="A30" s="124">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="133" t="s">
+      <c r="D30" s="147"/>
+      <c r="E30" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="135"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5146,12 +5146,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="135"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="138"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5214,18 +5214,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="121">
+      <c r="A32" s="124">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="133" t="s">
+      <c r="D32" s="147"/>
+      <c r="E32" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="135"/>
+      <c r="F32" s="138"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5288,12 +5288,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="135"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5356,18 +5356,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="121">
+      <c r="A34" s="124">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="133" t="s">
+      <c r="D34" s="147"/>
+      <c r="E34" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5430,12 +5430,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="121"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="135"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="138"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5498,18 +5498,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="121">
+      <c r="A36" s="124">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133" t="s">
+      <c r="D36" s="135"/>
+      <c r="E36" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="135"/>
+      <c r="F36" s="138"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5572,12 +5572,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5640,18 +5640,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="121">
+      <c r="A38" s="124">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="132"/>
-      <c r="E38" s="133" t="s">
+      <c r="D38" s="135"/>
+      <c r="E38" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="138"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5714,12 +5714,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="139"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5782,20 +5782,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="121">
+      <c r="A40" s="124">
         <v>19</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="152" t="s">
+      <c r="C40" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="153" t="s">
+      <c r="D40" s="129"/>
+      <c r="E40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="154"/>
+      <c r="F40" s="157"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5858,12 +5858,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="135"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="138"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5926,18 +5926,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="121">
+      <c r="A42" s="124">
         <v>20</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="143" t="s">
+      <c r="B42" s="154"/>
+      <c r="C42" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="133" t="s">
+      <c r="D42" s="147"/>
+      <c r="E42" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="148"/>
+      <c r="F42" s="151"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6000,12 +6000,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="148"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="151"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6068,18 +6068,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="121">
+      <c r="A44" s="124">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="133" t="s">
+      <c r="D44" s="147"/>
+      <c r="E44" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="148"/>
+      <c r="F44" s="151"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6142,12 +6142,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="148"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="151"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6210,18 +6210,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="121">
+      <c r="A46" s="124">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="149" t="s">
+      <c r="C46" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="144"/>
-      <c r="E46" s="133" t="s">
+      <c r="D46" s="147"/>
+      <c r="E46" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="148"/>
+      <c r="F46" s="151"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6284,12 +6284,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="148"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="151"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6352,18 +6352,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="121">
+      <c r="A48" s="124">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="144"/>
-      <c r="E48" s="133" t="s">
+      <c r="D48" s="147"/>
+      <c r="E48" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="135"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6426,12 +6426,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="135"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="138"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6494,18 +6494,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="121">
+      <c r="A50" s="124">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="147" t="s">
+      <c r="C50" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133" t="s">
+      <c r="D50" s="135"/>
+      <c r="E50" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="148"/>
+      <c r="F50" s="151"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6568,12 +6568,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="148"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="151"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6636,18 +6636,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="121">
+      <c r="A52" s="124">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="133" t="s">
+      <c r="D52" s="135"/>
+      <c r="E52" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="135"/>
+      <c r="F52" s="138"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6710,12 +6710,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="136"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="139"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6778,20 +6778,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="121">
+      <c r="A54" s="124">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139" t="s">
+      <c r="D54" s="141"/>
+      <c r="E54" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="141"/>
+      <c r="F54" s="144"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6854,12 +6854,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="121"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="142"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="145"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6922,20 +6922,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="121">
+      <c r="A56" s="124">
         <v>27</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="123" t="s">
+      <c r="D56" s="129"/>
+      <c r="E56" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="129"/>
+      <c r="F56" s="132"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6998,12 +6998,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="122"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="130"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="133"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043CC96-CE5F-423D-AE3D-0D27E81A207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE0948-C065-424D-861C-B367E474FF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2123,6 +2123,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2679,10 +2685,10 @@
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="BA29" sqref="BA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -4341,8 +4347,8 @@
       <c r="AU19" s="25"/>
       <c r="AV19" s="26"/>
       <c r="AW19" s="26"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="118"/>
       <c r="AZ19" s="24"/>
       <c r="BA19" s="24"/>
       <c r="BB19" s="25"/>
@@ -4408,7 +4414,7 @@
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="7"/>
-      <c r="AQ20" s="119"/>
+      <c r="AQ20" s="94"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -4476,14 +4482,14 @@
       <c r="AN21" s="25"/>
       <c r="AO21" s="26"/>
       <c r="AP21" s="30"/>
-      <c r="AQ21" s="24"/>
+      <c r="AQ21" s="30"/>
       <c r="AR21" s="24"/>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
       <c r="AU21" s="25"/>
       <c r="AV21" s="26"/>
       <c r="AW21" s="26"/>
-      <c r="AX21" s="24"/>
+      <c r="AX21" s="30"/>
       <c r="AY21" s="24"/>
       <c r="AZ21" s="24"/>
       <c r="BA21" s="24"/>
@@ -4626,7 +4632,7 @@
       <c r="AV23" s="23"/>
       <c r="AW23" s="23"/>
       <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
+      <c r="AY23" s="216"/>
       <c r="AZ23" s="55"/>
       <c r="BA23" s="55"/>
       <c r="BB23" s="17"/>
@@ -4912,7 +4918,7 @@
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
       <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
+      <c r="AY27" s="215"/>
       <c r="AZ27" s="51"/>
       <c r="BA27" s="51"/>
       <c r="BB27" s="13"/>
@@ -5196,7 +5202,7 @@
       <c r="AV31" s="26"/>
       <c r="AW31" s="26"/>
       <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
+      <c r="AY31" s="118"/>
       <c r="AZ31" s="52"/>
       <c r="BA31" s="52"/>
       <c r="BB31" s="25"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE0948-C065-424D-861C-B367E474FF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F378EC-4A66-4CCF-AB78-31B69BB5C441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1851,9 +1851,246 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1863,12 +2100,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1881,24 +2112,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1916,219 +2129,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2685,10 +2685,10 @@
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA29" sqref="BA29"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2705,94 +2705,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="203" t="s">
+      <c r="C1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="209" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="183">
+      <c r="G1" s="126">
         <v>45536</v>
       </c>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="184"/>
-      <c r="AG1" s="184"/>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="184"/>
-      <c r="AJ1" s="185"/>
-      <c r="AK1" s="183">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="126">
         <v>45566</v>
       </c>
-      <c r="AL1" s="184"/>
-      <c r="AM1" s="184"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="184"/>
-      <c r="AP1" s="184"/>
-      <c r="AQ1" s="184"/>
-      <c r="AR1" s="184"/>
-      <c r="AS1" s="184"/>
-      <c r="AT1" s="184"/>
-      <c r="AU1" s="184"/>
-      <c r="AV1" s="184"/>
-      <c r="AW1" s="184"/>
-      <c r="AX1" s="184"/>
-      <c r="AY1" s="184"/>
-      <c r="AZ1" s="184"/>
-      <c r="BA1" s="184"/>
-      <c r="BB1" s="184"/>
-      <c r="BC1" s="184"/>
-      <c r="BD1" s="184"/>
-      <c r="BE1" s="184"/>
-      <c r="BF1" s="184"/>
-      <c r="BG1" s="184"/>
-      <c r="BH1" s="184"/>
-      <c r="BI1" s="184"/>
-      <c r="BJ1" s="184"/>
-      <c r="BK1" s="184"/>
-      <c r="BL1" s="184"/>
-      <c r="BM1" s="184"/>
-      <c r="BN1" s="185"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="127"/>
+      <c r="AQ1" s="127"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="127"/>
+      <c r="AT1" s="127"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
+      <c r="AZ1" s="127"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="127"/>
+      <c r="BC1" s="127"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="127"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
+      <c r="BK1" s="127"/>
+      <c r="BL1" s="127"/>
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="128"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="213"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3034,12 +3034,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="199"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="214"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="164"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3222,20 +3222,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="186">
+      <c r="A4" s="129">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="191"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3298,12 +3298,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="124"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="192"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3366,18 +3366,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="124">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="193" t="s">
+      <c r="D6" s="140"/>
+      <c r="E6" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="195"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3440,12 +3440,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="124"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="196"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3508,7 +3508,7 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="124">
+      <c r="A8" s="130">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -3518,10 +3518,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="182"/>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="157"/>
+      <c r="F8" s="184"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3584,12 +3584,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="124"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="138"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3652,18 +3652,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="124">
+      <c r="A10" s="130">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="136" t="s">
+      <c r="D10" s="166"/>
+      <c r="E10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="138"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3726,12 +3726,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="124"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="138"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3794,18 +3794,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="124">
+      <c r="A12" s="130">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="136" t="s">
+      <c r="D12" s="166"/>
+      <c r="E12" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="138"/>
+      <c r="F12" s="171"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3868,12 +3868,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="124"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="139"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="172"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3936,20 +3936,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="124">
+      <c r="A14" s="130">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="171" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="172"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -4012,12 +4012,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="124"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="161"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="180"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4080,18 +4080,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="124">
+      <c r="A16" s="130">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="158" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="160"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4154,12 +4154,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="124"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="172"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4222,20 +4222,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="124">
+      <c r="A18" s="130">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="162" t="s">
+      <c r="D18" s="193"/>
+      <c r="E18" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="163"/>
+      <c r="F18" s="195"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4298,12 +4298,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="124"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="161"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4349,7 +4349,7 @@
       <c r="AW19" s="26"/>
       <c r="AX19" s="30"/>
       <c r="AY19" s="118"/>
-      <c r="AZ19" s="24"/>
+      <c r="AZ19" s="30"/>
       <c r="BA19" s="24"/>
       <c r="BB19" s="25"/>
       <c r="BC19" s="26"/>
@@ -4366,18 +4366,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="124">
+      <c r="A20" s="130">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="166" t="s">
+      <c r="D20" s="140"/>
+      <c r="E20" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="160"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4440,12 +4440,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="124"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="161"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="180"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4508,18 +4508,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="124">
+      <c r="A22" s="130">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="166" t="s">
+      <c r="D22" s="140"/>
+      <c r="E22" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="160"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4582,12 +4582,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="124"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="170"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4632,8 +4632,8 @@
       <c r="AV23" s="23"/>
       <c r="AW23" s="23"/>
       <c r="AX23" s="55"/>
-      <c r="AY23" s="216"/>
-      <c r="AZ23" s="55"/>
+      <c r="AY23" s="125"/>
+      <c r="AZ23" s="120"/>
       <c r="BA23" s="55"/>
       <c r="BB23" s="17"/>
       <c r="BC23" s="23"/>
@@ -4650,20 +4650,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="124">
+      <c r="A24" s="130">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="162" t="s">
+      <c r="D24" s="193"/>
+      <c r="E24" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="163"/>
+      <c r="F24" s="195"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4726,12 +4726,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="124"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="161"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="180"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4794,18 +4794,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="124">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="166" t="s">
+      <c r="D26" s="140"/>
+      <c r="E26" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="160"/>
+      <c r="F26" s="186"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4868,12 +4868,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="124"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="161"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="180"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4918,7 +4918,7 @@
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
       <c r="AX27" s="51"/>
-      <c r="AY27" s="215"/>
+      <c r="AY27" s="124"/>
       <c r="AZ27" s="51"/>
       <c r="BA27" s="51"/>
       <c r="BB27" s="13"/>
@@ -4936,18 +4936,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="124">
+      <c r="A28" s="130">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="158" t="s">
+      <c r="D28" s="140"/>
+      <c r="E28" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="160"/>
+      <c r="F28" s="186"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -5010,12 +5010,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="124"/>
+      <c r="A29" s="130"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="161"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5078,18 +5078,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="124">
+      <c r="A30" s="130">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="136" t="s">
+      <c r="D30" s="140"/>
+      <c r="E30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="138"/>
+      <c r="F30" s="171"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5152,12 +5152,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="124"/>
+      <c r="A31" s="130"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="138"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="171"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5203,8 +5203,8 @@
       <c r="AW31" s="26"/>
       <c r="AX31" s="52"/>
       <c r="AY31" s="118"/>
-      <c r="AZ31" s="52"/>
-      <c r="BA31" s="52"/>
+      <c r="AZ31" s="30"/>
+      <c r="BA31" s="30"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
       <c r="BD31" s="52"/>
@@ -5220,18 +5220,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="124">
+      <c r="A32" s="130">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="136" t="s">
+      <c r="D32" s="140"/>
+      <c r="E32" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="138"/>
+      <c r="F32" s="171"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5294,12 +5294,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="124"/>
+      <c r="A33" s="130"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="138"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="171"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5362,18 +5362,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="124">
+      <c r="A34" s="130">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="136" t="s">
+      <c r="D34" s="140"/>
+      <c r="E34" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="138"/>
+      <c r="F34" s="171"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5436,12 +5436,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="124"/>
+      <c r="A35" s="130"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="138"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="171"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5504,18 +5504,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="124">
+      <c r="A36" s="130">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="135"/>
-      <c r="E36" s="136" t="s">
+      <c r="D36" s="198"/>
+      <c r="E36" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="138"/>
+      <c r="F36" s="171"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5578,12 +5578,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="124"/>
+      <c r="A37" s="130"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="138"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="171"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5646,18 +5646,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="124">
+      <c r="A38" s="130">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="136" t="s">
+      <c r="D38" s="198"/>
+      <c r="E38" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="138"/>
+      <c r="F38" s="171"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5720,12 +5720,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="124"/>
+      <c r="A39" s="130"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="172"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5788,20 +5788,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="124">
+      <c r="A40" s="130">
         <v>19</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="155" t="s">
+      <c r="C40" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="129"/>
-      <c r="E40" s="156" t="s">
+      <c r="D40" s="193"/>
+      <c r="E40" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="157"/>
+      <c r="F40" s="184"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5864,12 +5864,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="138"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="171"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5932,18 +5932,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="124">
+      <c r="A42" s="130">
         <v>20</v>
       </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="146" t="s">
+      <c r="B42" s="201"/>
+      <c r="C42" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="136" t="s">
+      <c r="D42" s="140"/>
+      <c r="E42" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="151"/>
+      <c r="F42" s="203"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6006,12 +6006,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="124"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="151"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="203"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6074,18 +6074,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="124">
+      <c r="A44" s="130">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="146" t="s">
+      <c r="C44" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="136" t="s">
+      <c r="D44" s="140"/>
+      <c r="E44" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="151"/>
+      <c r="F44" s="203"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6148,12 +6148,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="124"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="151"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="203"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6216,18 +6216,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="124">
+      <c r="A46" s="130">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="152" t="s">
+      <c r="C46" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="136" t="s">
+      <c r="D46" s="140"/>
+      <c r="E46" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="151"/>
+      <c r="F46" s="203"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6290,12 +6290,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="124"/>
+      <c r="A47" s="130"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="151"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="203"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6358,18 +6358,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="124">
+      <c r="A48" s="130">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="136" t="s">
+      <c r="D48" s="140"/>
+      <c r="E48" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="138"/>
+      <c r="F48" s="171"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6432,12 +6432,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="124"/>
+      <c r="A49" s="130"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="138"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="171"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6500,18 +6500,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="124">
+      <c r="A50" s="130">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="150" t="s">
+      <c r="C50" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="135"/>
-      <c r="E50" s="136" t="s">
+      <c r="D50" s="198"/>
+      <c r="E50" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="151"/>
+      <c r="F50" s="203"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6574,12 +6574,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="124"/>
+      <c r="A51" s="130"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="151"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="203"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6642,18 +6642,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="124">
+      <c r="A52" s="130">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="134" t="s">
+      <c r="C52" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="135"/>
-      <c r="E52" s="136" t="s">
+      <c r="D52" s="198"/>
+      <c r="E52" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="138"/>
+      <c r="F52" s="171"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6716,12 +6716,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="124"/>
+      <c r="A53" s="130"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="139"/>
+      <c r="C53" s="199"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="172"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6784,20 +6784,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="124">
+      <c r="A54" s="130">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="142" t="s">
+      <c r="D54" s="212"/>
+      <c r="E54" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="144"/>
+      <c r="F54" s="215"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6860,12 +6860,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="124"/>
+      <c r="A55" s="130"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="145"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="214"/>
+      <c r="F55" s="216"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6928,20 +6928,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="124">
+      <c r="A56" s="130">
         <v>27</v>
       </c>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="126" t="s">
+      <c r="D56" s="193"/>
+      <c r="E56" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="132"/>
+      <c r="F56" s="209"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -7004,12 +7004,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="125"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="133"/>
+      <c r="A57" s="204"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="207"/>
+      <c r="D57" s="208"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="210"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7095,21 +7095,93 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -7126,93 +7198,21 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F378EC-4A66-4CCF-AB78-31B69BB5C441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09A1D27-0B03-4256-A93F-6F99D3233209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2129,6 +2129,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2685,10 +2688,10 @@
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="W31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -4923,7 +4926,7 @@
       <c r="BA27" s="51"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="19"/>
-      <c r="BD27" s="51"/>
+      <c r="BD27" s="119"/>
       <c r="BE27" s="51"/>
       <c r="BF27" s="51"/>
       <c r="BG27" s="51"/>
@@ -5207,7 +5210,7 @@
       <c r="BA31" s="30"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
-      <c r="BD31" s="52"/>
+      <c r="BD31" s="30"/>
       <c r="BE31" s="52"/>
       <c r="BF31" s="52"/>
       <c r="BG31" s="52"/>
@@ -5919,8 +5922,8 @@
       <c r="BA41" s="51"/>
       <c r="BB41" s="13"/>
       <c r="BC41" s="19"/>
-      <c r="BD41" s="51"/>
-      <c r="BE41" s="51"/>
+      <c r="BD41" s="119"/>
+      <c r="BE41" s="119"/>
       <c r="BF41" s="51"/>
       <c r="BG41" s="51"/>
       <c r="BH41" s="51"/>
@@ -6203,8 +6206,8 @@
       <c r="BA45" s="94"/>
       <c r="BB45" s="13"/>
       <c r="BC45" s="19"/>
-      <c r="BD45" s="94"/>
-      <c r="BE45" s="94"/>
+      <c r="BD45" s="119"/>
+      <c r="BE45" s="119"/>
       <c r="BF45" s="51"/>
       <c r="BG45" s="51"/>
       <c r="BH45" s="51"/>
@@ -6916,9 +6919,9 @@
       <c r="BB55" s="13"/>
       <c r="BC55" s="19"/>
       <c r="BD55" s="51"/>
-      <c r="BE55" s="51"/>
-      <c r="BF55" s="51"/>
-      <c r="BG55" s="51"/>
+      <c r="BE55" s="119"/>
+      <c r="BF55" s="119"/>
+      <c r="BG55" s="119"/>
       <c r="BH55" s="51"/>
       <c r="BI55" s="13"/>
       <c r="BJ55" s="19"/>
@@ -7063,7 +7066,7 @@
       <c r="BE57" s="56"/>
       <c r="BF57" s="56"/>
       <c r="BG57" s="56"/>
-      <c r="BH57" s="56"/>
+      <c r="BH57" s="217"/>
       <c r="BI57" s="14"/>
       <c r="BJ57" s="20"/>
       <c r="BK57" s="56"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09A1D27-0B03-4256-A93F-6F99D3233209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7448978-6C65-42D9-B568-A2B5D89F114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1857,6 +1857,186 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1869,21 +2049,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1896,18 +2067,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1973,165 +2132,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2691,7 +2691,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="W31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
+      <selection pane="bottomRight" activeCell="BE19" activeCellId="1" sqref="BE17 BE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2708,94 +2708,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="159" t="s">
+      <c r="D1" s="207"/>
+      <c r="E1" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126">
+      <c r="G1" s="186">
         <v>45536</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="128"/>
-      <c r="AK1" s="126">
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="187"/>
+      <c r="AB1" s="187"/>
+      <c r="AC1" s="187"/>
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="187"/>
+      <c r="AH1" s="187"/>
+      <c r="AI1" s="187"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="186">
         <v>45566</v>
       </c>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="127"/>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="128"/>
+      <c r="AL1" s="187"/>
+      <c r="AM1" s="187"/>
+      <c r="AN1" s="187"/>
+      <c r="AO1" s="187"/>
+      <c r="AP1" s="187"/>
+      <c r="AQ1" s="187"/>
+      <c r="AR1" s="187"/>
+      <c r="AS1" s="187"/>
+      <c r="AT1" s="187"/>
+      <c r="AU1" s="187"/>
+      <c r="AV1" s="187"/>
+      <c r="AW1" s="187"/>
+      <c r="AX1" s="187"/>
+      <c r="AY1" s="187"/>
+      <c r="AZ1" s="187"/>
+      <c r="BA1" s="187"/>
+      <c r="BB1" s="187"/>
+      <c r="BC1" s="187"/>
+      <c r="BD1" s="187"/>
+      <c r="BE1" s="187"/>
+      <c r="BF1" s="187"/>
+      <c r="BG1" s="187"/>
+      <c r="BH1" s="187"/>
+      <c r="BI1" s="187"/>
+      <c r="BJ1" s="187"/>
+      <c r="BK1" s="187"/>
+      <c r="BL1" s="187"/>
+      <c r="BM1" s="187"/>
+      <c r="BN1" s="188"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="163"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="216"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3037,12 +3037,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="164"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3225,20 +3225,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="129">
+      <c r="A4" s="189">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="135" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="137"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3301,12 +3301,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="130"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="138"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3369,18 +3369,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="127">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="143" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="145"/>
+      <c r="F6" s="198"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3443,12 +3443,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="130"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="146"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="199"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3511,20 +3511,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="130">
+      <c r="A8" s="127">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183" t="s">
+      <c r="D8" s="185"/>
+      <c r="E8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="184"/>
+      <c r="F8" s="160"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3587,12 +3587,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="130"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="171"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3655,18 +3655,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="130">
+      <c r="A10" s="127">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="169" t="s">
+      <c r="D10" s="177"/>
+      <c r="E10" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="171"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3729,12 +3729,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="130"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="171"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3797,18 +3797,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="130">
+      <c r="A12" s="127">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="169" t="s">
+      <c r="D12" s="177"/>
+      <c r="E12" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="171"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3871,12 +3871,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="130"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="172"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3939,20 +3939,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="127">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="177" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="179"/>
+      <c r="F14" s="175"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -4015,12 +4015,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="180"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="164"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4083,18 +4083,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="127">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="150"/>
+      <c r="E16" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="186"/>
+      <c r="F16" s="163"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4157,12 +4157,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4213,7 +4213,7 @@
       <c r="BB17" s="25"/>
       <c r="BC17" s="26"/>
       <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
+      <c r="BE17" s="30"/>
       <c r="BF17" s="24"/>
       <c r="BG17" s="24"/>
       <c r="BH17" s="24"/>
@@ -4225,20 +4225,20 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="127">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="194" t="s">
+      <c r="D18" s="132"/>
+      <c r="E18" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="195"/>
+      <c r="F18" s="166"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4301,12 +4301,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="180"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="164"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4357,7 +4357,7 @@
       <c r="BB19" s="25"/>
       <c r="BC19" s="26"/>
       <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
+      <c r="BE19" s="30"/>
       <c r="BF19" s="24"/>
       <c r="BG19" s="24"/>
       <c r="BH19" s="24"/>
@@ -4369,18 +4369,18 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="130">
+      <c r="A20" s="127">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="185" t="s">
+      <c r="D20" s="150"/>
+      <c r="E20" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="186"/>
+      <c r="F20" s="163"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4443,12 +4443,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="130"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="180"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4511,18 +4511,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="130">
+      <c r="A22" s="127">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="185" t="s">
+      <c r="D22" s="150"/>
+      <c r="E22" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="163"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4585,12 +4585,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="130"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="188"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4653,20 +4653,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="130">
+      <c r="A24" s="127">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="193"/>
-      <c r="E24" s="194" t="s">
+      <c r="D24" s="132"/>
+      <c r="E24" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="195"/>
+      <c r="F24" s="166"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4729,12 +4729,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="130"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="180"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="164"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4797,18 +4797,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="127">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="196" t="s">
+      <c r="C26" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="185" t="s">
+      <c r="D26" s="150"/>
+      <c r="E26" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="186"/>
+      <c r="F26" s="163"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4871,12 +4871,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="130"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="180"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="164"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4939,18 +4939,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="127">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="196" t="s">
+      <c r="C28" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="191" t="s">
+      <c r="D28" s="150"/>
+      <c r="E28" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="186"/>
+      <c r="F28" s="163"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -5013,12 +5013,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="130"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="180"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="164"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5081,18 +5081,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="130">
+      <c r="A30" s="127">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="196" t="s">
+      <c r="C30" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="140"/>
-      <c r="E30" s="169" t="s">
+      <c r="D30" s="150"/>
+      <c r="E30" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="171"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5155,12 +5155,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="130"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="171"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5223,18 +5223,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="130">
+      <c r="A32" s="127">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="169" t="s">
+      <c r="D32" s="150"/>
+      <c r="E32" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="171"/>
+      <c r="F32" s="141"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5297,12 +5297,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="130"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="171"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="141"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5365,18 +5365,18 @@
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="130">
+      <c r="A34" s="127">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="196" t="s">
+      <c r="C34" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="169" t="s">
+      <c r="D34" s="150"/>
+      <c r="E34" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="171"/>
+      <c r="F34" s="141"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5439,12 +5439,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="130"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="171"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="141"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5507,18 +5507,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="130">
+      <c r="A36" s="127">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="197" t="s">
+      <c r="C36" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="198"/>
-      <c r="E36" s="169" t="s">
+      <c r="D36" s="138"/>
+      <c r="E36" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="171"/>
+      <c r="F36" s="141"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5581,12 +5581,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="130"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="171"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5649,18 +5649,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="130">
+      <c r="A38" s="127">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="199" t="s">
+      <c r="C38" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="169" t="s">
+      <c r="D38" s="138"/>
+      <c r="E38" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="171"/>
+      <c r="F38" s="141"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5723,12 +5723,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="130"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="172"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="142"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5791,20 +5791,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="130">
+      <c r="A40" s="127">
         <v>19</v>
       </c>
-      <c r="B40" s="200" t="s">
+      <c r="B40" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="202" t="s">
+      <c r="C40" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="193"/>
-      <c r="E40" s="183" t="s">
+      <c r="D40" s="132"/>
+      <c r="E40" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="184"/>
+      <c r="F40" s="160"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5867,12 +5867,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="201"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="171"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="141"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5935,18 +5935,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="130">
+      <c r="A42" s="127">
         <v>20</v>
       </c>
-      <c r="B42" s="201"/>
-      <c r="C42" s="196" t="s">
+      <c r="B42" s="157"/>
+      <c r="C42" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="169" t="s">
+      <c r="D42" s="150"/>
+      <c r="E42" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="203"/>
+      <c r="F42" s="154"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6009,12 +6009,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="130"/>
-      <c r="B43" s="201"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="203"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="154"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6077,18 +6077,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="130">
+      <c r="A44" s="127">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="196" t="s">
+      <c r="C44" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="169" t="s">
+      <c r="D44" s="150"/>
+      <c r="E44" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="203"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6151,12 +6151,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="130"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="203"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="154"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6219,18 +6219,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="130">
+      <c r="A46" s="127">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="139" t="s">
+      <c r="C46" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="169" t="s">
+      <c r="D46" s="150"/>
+      <c r="E46" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="203"/>
+      <c r="F46" s="154"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6293,12 +6293,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="130"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="203"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="154"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6361,18 +6361,18 @@
       <c r="BN47" s="109"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="130">
+      <c r="A48" s="127">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="196" t="s">
+      <c r="C48" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="169" t="s">
+      <c r="D48" s="150"/>
+      <c r="E48" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="171"/>
+      <c r="F48" s="141"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6435,12 +6435,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="130"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="171"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="141"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6503,18 +6503,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="130">
+      <c r="A50" s="127">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="197" t="s">
+      <c r="C50" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="198"/>
-      <c r="E50" s="169" t="s">
+      <c r="D50" s="138"/>
+      <c r="E50" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="203"/>
+      <c r="F50" s="154"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6577,12 +6577,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="130"/>
+      <c r="A51" s="127"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="203"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="154"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6645,18 +6645,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="130">
+      <c r="A52" s="127">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="199" t="s">
+      <c r="C52" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="198"/>
-      <c r="E52" s="169" t="s">
+      <c r="D52" s="138"/>
+      <c r="E52" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="171"/>
+      <c r="F52" s="141"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6719,12 +6719,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="130"/>
+      <c r="A53" s="127"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="199"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="172"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="142"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6787,20 +6787,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="130">
+      <c r="A54" s="127">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="211" t="s">
+      <c r="C54" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="212"/>
-      <c r="E54" s="213" t="s">
+      <c r="D54" s="144"/>
+      <c r="E54" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="215"/>
+      <c r="F54" s="147"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6863,12 +6863,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="130"/>
+      <c r="A55" s="127"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="214"/>
-      <c r="F55" s="216"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="148"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6931,20 +6931,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="130">
+      <c r="A56" s="127">
         <v>27</v>
       </c>
-      <c r="B56" s="205" t="s">
+      <c r="B56" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="192" t="s">
+      <c r="C56" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="193"/>
-      <c r="E56" s="205" t="s">
+      <c r="D56" s="132"/>
+      <c r="E56" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="209"/>
+      <c r="F56" s="135"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -7007,12 +7007,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="204"/>
-      <c r="B57" s="206"/>
-      <c r="C57" s="207"/>
-      <c r="D57" s="208"/>
-      <c r="E57" s="206"/>
-      <c r="F57" s="210"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7066,7 +7066,7 @@
       <c r="BE57" s="56"/>
       <c r="BF57" s="56"/>
       <c r="BG57" s="56"/>
-      <c r="BH57" s="217"/>
+      <c r="BH57" s="126"/>
       <c r="BI57" s="14"/>
       <c r="BJ57" s="20"/>
       <c r="BK57" s="56"/>
@@ -7098,19 +7098,95 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -7127,95 +7203,19 @@
     <mergeCell ref="C46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
